--- a/doc/unfinished/5_ﾄﾗﾌﾞﾙ管理表.xlsx
+++ b/doc/unfinished/5_ﾄﾗﾌﾞﾙ管理表.xlsx
@@ -10,14 +10,14 @@
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">sheet1!$A$1:$BB$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">sheet1!$A$1:$BD$30</definedName>
   </definedNames>
   <calcPr calcId="80000"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>クラス名</t>
   </si>
@@ -129,13 +129,35 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>ページ遷移異常</t>
+    <rPh sb="3" eb="5">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ショッピングカート画面</t>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スタイルシート</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m/d"/>
+    <numFmt numFmtId="178" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -189,7 +211,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -762,11 +784,24 @@
         <color indexed="64"/>
       </diagonal>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -933,6 +968,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1005,6 +1043,35 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -1021,40 +1088,71 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1072,67 +1170,19 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1174,8 +1224,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4574241" y="142875"/>
-          <a:ext cx="2055159" cy="284629"/>
+          <a:off x="4513118" y="142875"/>
+          <a:ext cx="2029691" cy="289214"/>
           <a:chOff x="333" y="160"/>
           <a:chExt cx="270" cy="38"/>
         </a:xfrm>
@@ -1365,7 +1415,7 @@
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -1880,51 +1930,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH165"/>
+  <dimension ref="A1:BJ165"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AP3" sqref="AP3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="AX9" sqref="AX9:AY9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
-    <col min="2" max="73" width="2.625" style="2" customWidth="1"/>
-    <col min="74" max="16384" width="9" style="2"/>
+    <col min="2" max="75" width="2.625" style="2" customWidth="1"/>
+    <col min="76" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="6" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:62" s="6" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="93" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="90" t="s">
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="92"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="3"/>
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
@@ -1933,66 +1983,68 @@
       <c r="AE1" s="4"/>
       <c r="AF1" s="4"/>
       <c r="AG1" s="4"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="90" t="s">
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="AJ1" s="91"/>
-      <c r="AK1" s="91"/>
-      <c r="AL1" s="91"/>
-      <c r="AM1" s="91"/>
-      <c r="AN1" s="92"/>
-      <c r="AO1" s="82" t="s">
+      <c r="AL1" s="88"/>
+      <c r="AM1" s="88"/>
+      <c r="AN1" s="88"/>
+      <c r="AO1" s="88"/>
+      <c r="AP1" s="89"/>
+      <c r="AQ1" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="AP1" s="100" t="s">
+      <c r="AR1" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="AQ1" s="101"/>
-      <c r="AR1" s="101"/>
-      <c r="AS1" s="101"/>
-      <c r="AT1" s="101"/>
-      <c r="AU1" s="102"/>
-      <c r="AV1" s="82" t="s">
+      <c r="AS1" s="98"/>
+      <c r="AT1" s="98"/>
+      <c r="AU1" s="98"/>
+      <c r="AV1" s="98"/>
+      <c r="AW1" s="99"/>
+      <c r="AX1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="AW1" s="100"/>
-      <c r="AX1" s="101"/>
-      <c r="AY1" s="101"/>
-      <c r="AZ1" s="101"/>
-      <c r="BA1" s="101"/>
-      <c r="BB1" s="102"/>
-    </row>
-    <row r="2" spans="1:60" s="10" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="86" t="s">
+      <c r="AY1" s="97"/>
+      <c r="AZ1" s="98"/>
+      <c r="BA1" s="98"/>
+      <c r="BB1" s="98"/>
+      <c r="BC1" s="98"/>
+      <c r="BD1" s="99"/>
+    </row>
+    <row r="2" spans="1:62" s="10" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="94"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="89" t="s">
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="88"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="113"/>
+      <c r="X2" s="113"/>
+      <c r="Y2" s="7"/>
       <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
@@ -2001,1456 +2053,1552 @@
       <c r="AE2" s="8"/>
       <c r="AF2" s="8"/>
       <c r="AG2" s="8"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="109">
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="9"/>
+      <c r="AK2" s="110">
         <v>42906</v>
       </c>
-      <c r="AJ2" s="87"/>
-      <c r="AK2" s="87"/>
-      <c r="AL2" s="87"/>
-      <c r="AM2" s="87"/>
-      <c r="AN2" s="88"/>
-      <c r="AO2" s="83"/>
-      <c r="AP2" s="103"/>
-      <c r="AQ2" s="104"/>
-      <c r="AR2" s="104"/>
-      <c r="AS2" s="104"/>
-      <c r="AT2" s="104"/>
-      <c r="AU2" s="105"/>
-      <c r="AV2" s="83"/>
-      <c r="AW2" s="103"/>
-      <c r="AX2" s="104"/>
-      <c r="AY2" s="104"/>
-      <c r="AZ2" s="104"/>
-      <c r="BA2" s="104"/>
-      <c r="BB2" s="105"/>
-    </row>
-    <row r="3" spans="1:60" ht="6.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:60" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AL2" s="107"/>
+      <c r="AM2" s="107"/>
+      <c r="AN2" s="107"/>
+      <c r="AO2" s="107"/>
+      <c r="AP2" s="108"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="100"/>
+      <c r="AS2" s="101"/>
+      <c r="AT2" s="101"/>
+      <c r="AU2" s="101"/>
+      <c r="AV2" s="101"/>
+      <c r="AW2" s="102"/>
+      <c r="AX2" s="80"/>
+      <c r="AY2" s="100"/>
+      <c r="AZ2" s="101"/>
+      <c r="BA2" s="101"/>
+      <c r="BB2" s="101"/>
+      <c r="BC2" s="101"/>
+      <c r="BD2" s="102"/>
+    </row>
+    <row r="3" spans="1:62" ht="6.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:62" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11"/>
       <c r="B4" s="48"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
       <c r="F4" s="48"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
       <c r="S4" s="48"/>
-      <c r="T4" s="80"/>
-      <c r="U4" s="81"/>
-      <c r="V4" s="81"/>
-      <c r="W4" s="81"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="80"/>
-      <c r="Z4" s="81"/>
-      <c r="AA4" s="81"/>
-      <c r="AB4" s="81"/>
-      <c r="AC4" s="81"/>
-      <c r="AD4" s="81"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="49"/>
-      <c r="AH4" s="85" t="s">
+      <c r="T4" s="78"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="78"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="72"/>
+      <c r="AD4" s="72"/>
+      <c r="AE4" s="72"/>
+      <c r="AF4" s="72"/>
+      <c r="AG4" s="48"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="49"/>
+      <c r="AJ4" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="AI4" s="84"/>
-      <c r="AJ4" s="84"/>
-      <c r="AK4" s="84"/>
-      <c r="AL4" s="84"/>
-      <c r="AM4" s="84"/>
-      <c r="AN4" s="84"/>
-      <c r="AO4" s="84"/>
-      <c r="AP4" s="84" t="s">
+      <c r="AK4" s="85"/>
+      <c r="AL4" s="85"/>
+      <c r="AM4" s="85"/>
+      <c r="AN4" s="85"/>
+      <c r="AO4" s="85"/>
+      <c r="AP4" s="85"/>
+      <c r="AQ4" s="85"/>
+      <c r="AR4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="AQ4" s="84"/>
-      <c r="AR4" s="84"/>
-      <c r="AS4" s="84"/>
-      <c r="AT4" s="84" t="s">
+      <c r="AS4" s="85"/>
+      <c r="AT4" s="85"/>
+      <c r="AU4" s="85"/>
+      <c r="AV4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="AU4" s="84"/>
-      <c r="AV4" s="84"/>
-      <c r="AW4" s="84"/>
-      <c r="AX4" s="81" t="s">
+      <c r="AW4" s="85"/>
+      <c r="AX4" s="85"/>
+      <c r="AY4" s="85"/>
+      <c r="AZ4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="AY4" s="81"/>
-      <c r="AZ4" s="81"/>
-      <c r="BA4" s="81"/>
-      <c r="BB4" s="81"/>
-    </row>
-    <row r="5" spans="1:60" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="77" t="s">
+      <c r="BA4" s="72"/>
+      <c r="BB4" s="72"/>
+      <c r="BC4" s="72"/>
+      <c r="BD4" s="72"/>
+    </row>
+    <row r="5" spans="1:62" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77" t="s">
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="77" t="s">
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="T5" s="77"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
-      <c r="X5" s="77" t="s">
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="73"/>
+      <c r="Y5" s="73"/>
+      <c r="Z5" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="Y5" s="77"/>
-      <c r="Z5" s="77"/>
-      <c r="AA5" s="77" t="s">
+      <c r="AA5" s="73"/>
+      <c r="AB5" s="73"/>
+      <c r="AC5" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="AB5" s="77"/>
-      <c r="AC5" s="77" t="s">
+      <c r="AD5" s="73"/>
+      <c r="AE5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="AD5" s="77"/>
-      <c r="AE5" s="77" t="s">
+      <c r="AF5" s="73"/>
+      <c r="AG5" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="AF5" s="77"/>
-      <c r="AG5" s="77" t="s">
+      <c r="AH5" s="73"/>
+      <c r="AI5" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="77"/>
-      <c r="AI5" s="79" t="s">
+      <c r="AJ5" s="73"/>
+      <c r="AK5" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="AJ5" s="79"/>
-      <c r="AK5" s="79"/>
-      <c r="AL5" s="79"/>
-      <c r="AM5" s="79"/>
-      <c r="AN5" s="79"/>
-      <c r="AO5" s="79"/>
-      <c r="AP5" s="77" t="s">
+      <c r="AL5" s="77"/>
+      <c r="AM5" s="77"/>
+      <c r="AN5" s="77"/>
+      <c r="AO5" s="77"/>
+      <c r="AP5" s="77"/>
+      <c r="AQ5" s="77"/>
+      <c r="AR5" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="AQ5" s="77"/>
-      <c r="AR5" s="77" t="s">
+      <c r="AS5" s="73"/>
+      <c r="AT5" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="AS5" s="77"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="14"/>
-      <c r="AV5" s="51"/>
+      <c r="AU5" s="73"/>
+      <c r="AV5" s="50"/>
       <c r="AW5" s="14"/>
-      <c r="AX5" s="77"/>
-      <c r="AY5" s="77"/>
-      <c r="AZ5" s="77"/>
-      <c r="BA5" s="77"/>
-      <c r="BB5" s="77"/>
-      <c r="BC5" s="15"/>
-      <c r="BD5" s="15"/>
+      <c r="AX5" s="51"/>
+      <c r="AY5" s="14"/>
+      <c r="AZ5" s="73"/>
+      <c r="BA5" s="73"/>
+      <c r="BB5" s="73"/>
+      <c r="BC5" s="73"/>
+      <c r="BD5" s="73"/>
       <c r="BE5" s="15"/>
       <c r="BF5" s="15"/>
       <c r="BG5" s="15"/>
       <c r="BH5" s="15"/>
-    </row>
-    <row r="6" spans="1:60" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="78"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="78" t="s">
+      <c r="BI5" s="15"/>
+      <c r="BJ5" s="15"/>
+    </row>
+    <row r="6" spans="1:62" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="74"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="78"/>
-      <c r="U6" s="78"/>
-      <c r="V6" s="78"/>
-      <c r="W6" s="78"/>
-      <c r="X6" s="78"/>
-      <c r="Y6" s="78"/>
-      <c r="Z6" s="78"/>
-      <c r="AA6" s="78" t="s">
+      <c r="T6" s="74"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="74"/>
+      <c r="W6" s="74"/>
+      <c r="X6" s="74"/>
+      <c r="Y6" s="74"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="74"/>
+      <c r="AB6" s="74"/>
+      <c r="AC6" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="AB6" s="78"/>
-      <c r="AC6" s="78" t="s">
+      <c r="AD6" s="74"/>
+      <c r="AE6" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="AD6" s="78"/>
-      <c r="AE6" s="78" t="s">
+      <c r="AF6" s="74"/>
+      <c r="AG6" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="AF6" s="78"/>
-      <c r="AG6" s="78" t="s">
+      <c r="AH6" s="74"/>
+      <c r="AI6" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="AH6" s="78"/>
-      <c r="AI6" s="34">
+      <c r="AJ6" s="74"/>
+      <c r="AK6" s="34">
         <v>1</v>
       </c>
-      <c r="AJ6" s="35">
+      <c r="AL6" s="35">
         <v>2</v>
       </c>
-      <c r="AK6" s="35">
+      <c r="AM6" s="35">
         <v>3</v>
       </c>
-      <c r="AL6" s="35">
+      <c r="AN6" s="35">
         <v>4</v>
       </c>
-      <c r="AM6" s="35">
+      <c r="AO6" s="35">
         <v>5</v>
       </c>
-      <c r="AN6" s="35">
+      <c r="AP6" s="35">
         <v>6</v>
       </c>
-      <c r="AO6" s="36">
+      <c r="AQ6" s="36">
         <v>7</v>
       </c>
-      <c r="AP6" s="78" t="s">
+      <c r="AR6" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="AQ6" s="78"/>
-      <c r="AR6" s="78" t="s">
+      <c r="AS6" s="74"/>
+      <c r="AT6" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="AS6" s="78"/>
-      <c r="AT6" s="78" t="s">
+      <c r="AU6" s="74"/>
+      <c r="AV6" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="AU6" s="78"/>
-      <c r="AV6" s="78" t="s">
+      <c r="AW6" s="74"/>
+      <c r="AX6" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="AW6" s="78"/>
-      <c r="AX6" s="78"/>
-      <c r="AY6" s="78"/>
-      <c r="AZ6" s="78"/>
-      <c r="BA6" s="78"/>
-      <c r="BB6" s="78"/>
-      <c r="BC6" s="17"/>
-      <c r="BD6" s="17"/>
-      <c r="BE6" s="18"/>
-      <c r="BF6" s="18"/>
+      <c r="AY6" s="74"/>
+      <c r="AZ6" s="74"/>
+      <c r="BA6" s="74"/>
+      <c r="BB6" s="74"/>
+      <c r="BC6" s="74"/>
+      <c r="BD6" s="74"/>
+      <c r="BE6" s="17"/>
+      <c r="BF6" s="17"/>
       <c r="BG6" s="18"/>
-      <c r="BH6" s="15"/>
-    </row>
-    <row r="7" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BH6" s="18"/>
+      <c r="BI6" s="18"/>
+      <c r="BJ6" s="15"/>
+    </row>
+    <row r="7" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="19">
         <v>1</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="74"/>
-      <c r="V7" s="74"/>
-      <c r="W7" s="74"/>
-      <c r="X7" s="76"/>
-      <c r="Y7" s="76"/>
-      <c r="Z7" s="76"/>
-      <c r="AA7" s="76"/>
-      <c r="AB7" s="76"/>
-      <c r="AC7" s="76"/>
-      <c r="AD7" s="76"/>
-      <c r="AE7" s="75"/>
+      <c r="B7" s="76">
+        <v>1</v>
+      </c>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="83"/>
+      <c r="S7" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" s="84"/>
+      <c r="U7" s="84"/>
+      <c r="V7" s="84"/>
+      <c r="W7" s="84"/>
+      <c r="X7" s="84"/>
+      <c r="Y7" s="84"/>
+      <c r="Z7" s="75">
+        <v>42907</v>
+      </c>
+      <c r="AA7" s="75"/>
+      <c r="AB7" s="75"/>
+      <c r="AC7" s="75">
+        <v>42907</v>
+      </c>
+      <c r="AD7" s="75"/>
+      <c r="AE7" s="75">
+        <v>42907</v>
+      </c>
       <c r="AF7" s="75"/>
-      <c r="AG7" s="75"/>
-      <c r="AH7" s="75"/>
-      <c r="AI7" s="37"/>
-      <c r="AJ7" s="38"/>
-      <c r="AK7" s="38"/>
+      <c r="AG7" s="76">
+        <v>5</v>
+      </c>
+      <c r="AH7" s="76"/>
+      <c r="AI7" s="76">
+        <v>3</v>
+      </c>
+      <c r="AJ7" s="76"/>
+      <c r="AK7" s="37"/>
       <c r="AL7" s="38"/>
       <c r="AM7" s="38"/>
       <c r="AN7" s="38"/>
-      <c r="AO7" s="39"/>
-      <c r="AP7" s="75"/>
-      <c r="AQ7" s="75"/>
-      <c r="AR7" s="75"/>
-      <c r="AS7" s="75"/>
-      <c r="AT7" s="76"/>
-      <c r="AU7" s="76"/>
-      <c r="AV7" s="76"/>
-      <c r="AW7" s="76"/>
-      <c r="AX7" s="74"/>
-      <c r="AY7" s="74"/>
-      <c r="AZ7" s="74"/>
-      <c r="BA7" s="74"/>
-      <c r="BB7" s="74"/>
-      <c r="BC7" s="20"/>
-    </row>
-    <row r="8" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO7" s="38"/>
+      <c r="AP7" s="38"/>
+      <c r="AQ7" s="39"/>
+      <c r="AR7" s="111">
+        <v>42907</v>
+      </c>
+      <c r="AS7" s="111"/>
+      <c r="AT7" s="111">
+        <v>42907</v>
+      </c>
+      <c r="AU7" s="111"/>
+      <c r="AV7" s="75">
+        <v>42907</v>
+      </c>
+      <c r="AW7" s="75"/>
+      <c r="AX7" s="75">
+        <v>42907</v>
+      </c>
+      <c r="AY7" s="75"/>
+      <c r="AZ7" s="84"/>
+      <c r="BA7" s="84"/>
+      <c r="BB7" s="84"/>
+      <c r="BC7" s="84"/>
+      <c r="BD7" s="84"/>
+      <c r="BE7" s="20"/>
+    </row>
+    <row r="8" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22">
         <v>2</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="69"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="69"/>
-      <c r="V8" s="69"/>
-      <c r="W8" s="69"/>
-      <c r="X8" s="70"/>
-      <c r="Y8" s="70"/>
-      <c r="Z8" s="70"/>
-      <c r="AA8" s="70"/>
-      <c r="AB8" s="70"/>
-      <c r="AC8" s="70"/>
-      <c r="AD8" s="70"/>
-      <c r="AE8" s="68"/>
-      <c r="AF8" s="68"/>
-      <c r="AG8" s="68"/>
-      <c r="AH8" s="68"/>
-      <c r="AI8" s="40"/>
-      <c r="AJ8" s="41"/>
-      <c r="AK8" s="41"/>
+      <c r="B8" s="56">
+        <v>2</v>
+      </c>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="T8" s="61"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="61"/>
+      <c r="W8" s="61"/>
+      <c r="X8" s="61"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="58">
+        <v>42907</v>
+      </c>
+      <c r="AA8" s="65"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="58">
+        <v>42907</v>
+      </c>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="58">
+        <v>42907</v>
+      </c>
+      <c r="AF8" s="59"/>
+      <c r="AG8" s="56">
+        <v>5</v>
+      </c>
+      <c r="AH8" s="57"/>
+      <c r="AI8" s="56">
+        <v>3</v>
+      </c>
+      <c r="AJ8" s="57"/>
+      <c r="AK8" s="40"/>
       <c r="AL8" s="41"/>
       <c r="AM8" s="41"/>
       <c r="AN8" s="41"/>
-      <c r="AO8" s="42"/>
-      <c r="AP8" s="68"/>
-      <c r="AQ8" s="68"/>
-      <c r="AR8" s="68"/>
-      <c r="AS8" s="68"/>
-      <c r="AT8" s="70"/>
-      <c r="AU8" s="70"/>
-      <c r="AV8" s="70"/>
-      <c r="AW8" s="70"/>
-      <c r="AX8" s="69"/>
-      <c r="AY8" s="69"/>
-      <c r="AZ8" s="69"/>
-      <c r="BA8" s="69"/>
-      <c r="BB8" s="69"/>
-      <c r="BC8" s="23"/>
-    </row>
-    <row r="9" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO8" s="41"/>
+      <c r="AP8" s="41"/>
+      <c r="AQ8" s="42"/>
+      <c r="AR8" s="112">
+        <v>42907</v>
+      </c>
+      <c r="AS8" s="112"/>
+      <c r="AT8" s="112">
+        <v>42907</v>
+      </c>
+      <c r="AU8" s="112"/>
+      <c r="AV8" s="58">
+        <v>42907</v>
+      </c>
+      <c r="AW8" s="59"/>
+      <c r="AX8" s="58">
+        <v>42907</v>
+      </c>
+      <c r="AY8" s="59"/>
+      <c r="AZ8" s="60"/>
+      <c r="BA8" s="61"/>
+      <c r="BB8" s="61"/>
+      <c r="BC8" s="61"/>
+      <c r="BD8" s="62"/>
+      <c r="BE8" s="23"/>
+    </row>
+    <row r="9" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="22">
         <v>3</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="69"/>
-      <c r="V9" s="69"/>
-      <c r="W9" s="69"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
       <c r="X9" s="70"/>
       <c r="Y9" s="70"/>
-      <c r="Z9" s="70"/>
-      <c r="AA9" s="70"/>
-      <c r="AB9" s="70"/>
-      <c r="AC9" s="70"/>
-      <c r="AD9" s="70"/>
-      <c r="AE9" s="68"/>
-      <c r="AF9" s="68"/>
-      <c r="AG9" s="68"/>
-      <c r="AH9" s="68"/>
-      <c r="AI9" s="40"/>
-      <c r="AJ9" s="41"/>
-      <c r="AK9" s="41"/>
+      <c r="Z9" s="71"/>
+      <c r="AA9" s="71"/>
+      <c r="AB9" s="71"/>
+      <c r="AC9" s="71"/>
+      <c r="AD9" s="71"/>
+      <c r="AE9" s="71"/>
+      <c r="AF9" s="71"/>
+      <c r="AG9" s="69"/>
+      <c r="AH9" s="69"/>
+      <c r="AI9" s="69"/>
+      <c r="AJ9" s="69"/>
+      <c r="AK9" s="40"/>
       <c r="AL9" s="41"/>
       <c r="AM9" s="41"/>
       <c r="AN9" s="41"/>
-      <c r="AO9" s="42"/>
-      <c r="AP9" s="68"/>
-      <c r="AQ9" s="68"/>
-      <c r="AR9" s="68"/>
-      <c r="AS9" s="68"/>
-      <c r="AT9" s="70"/>
-      <c r="AU9" s="70"/>
-      <c r="AV9" s="70"/>
-      <c r="AW9" s="70"/>
-      <c r="AX9" s="69"/>
-      <c r="AY9" s="69"/>
-      <c r="AZ9" s="69"/>
-      <c r="BA9" s="69"/>
-      <c r="BB9" s="69"/>
-      <c r="BC9" s="23"/>
-    </row>
-    <row r="10" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO9" s="41"/>
+      <c r="AP9" s="41"/>
+      <c r="AQ9" s="42"/>
+      <c r="AR9" s="112"/>
+      <c r="AS9" s="112"/>
+      <c r="AT9" s="112"/>
+      <c r="AU9" s="112"/>
+      <c r="AV9" s="71"/>
+      <c r="AW9" s="71"/>
+      <c r="AX9" s="71"/>
+      <c r="AY9" s="71"/>
+      <c r="AZ9" s="70"/>
+      <c r="BA9" s="70"/>
+      <c r="BB9" s="70"/>
+      <c r="BC9" s="70"/>
+      <c r="BD9" s="70"/>
+      <c r="BE9" s="23"/>
+    </row>
+    <row r="10" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22">
         <v>4</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="69"/>
-      <c r="V10" s="69"/>
-      <c r="W10" s="69"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="70"/>
+      <c r="W10" s="70"/>
       <c r="X10" s="70"/>
       <c r="Y10" s="70"/>
-      <c r="Z10" s="70"/>
-      <c r="AA10" s="70"/>
-      <c r="AB10" s="70"/>
-      <c r="AC10" s="70"/>
-      <c r="AD10" s="70"/>
-      <c r="AE10" s="68"/>
-      <c r="AF10" s="68"/>
-      <c r="AG10" s="68"/>
-      <c r="AH10" s="68"/>
-      <c r="AI10" s="40"/>
-      <c r="AJ10" s="41"/>
-      <c r="AK10" s="41"/>
+      <c r="Z10" s="71"/>
+      <c r="AA10" s="71"/>
+      <c r="AB10" s="71"/>
+      <c r="AC10" s="71"/>
+      <c r="AD10" s="71"/>
+      <c r="AE10" s="71"/>
+      <c r="AF10" s="71"/>
+      <c r="AG10" s="69"/>
+      <c r="AH10" s="69"/>
+      <c r="AI10" s="69"/>
+      <c r="AJ10" s="69"/>
+      <c r="AK10" s="40"/>
       <c r="AL10" s="41"/>
       <c r="AM10" s="41"/>
       <c r="AN10" s="41"/>
-      <c r="AO10" s="42"/>
-      <c r="AP10" s="68"/>
-      <c r="AQ10" s="68"/>
-      <c r="AR10" s="68"/>
-      <c r="AS10" s="68"/>
-      <c r="AT10" s="70"/>
-      <c r="AU10" s="70"/>
-      <c r="AV10" s="70"/>
-      <c r="AW10" s="70"/>
-      <c r="AX10" s="69"/>
-      <c r="AY10" s="69"/>
-      <c r="AZ10" s="69"/>
-      <c r="BA10" s="69"/>
-      <c r="BB10" s="69"/>
-      <c r="BC10" s="23"/>
-    </row>
-    <row r="11" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO10" s="41"/>
+      <c r="AP10" s="41"/>
+      <c r="AQ10" s="42"/>
+      <c r="AR10" s="112"/>
+      <c r="AS10" s="112"/>
+      <c r="AT10" s="112"/>
+      <c r="AU10" s="112"/>
+      <c r="AV10" s="71"/>
+      <c r="AW10" s="71"/>
+      <c r="AX10" s="71"/>
+      <c r="AY10" s="71"/>
+      <c r="AZ10" s="70"/>
+      <c r="BA10" s="70"/>
+      <c r="BB10" s="70"/>
+      <c r="BC10" s="70"/>
+      <c r="BD10" s="70"/>
+      <c r="BE10" s="23"/>
+    </row>
+    <row r="11" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22">
         <v>5</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="69"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="69"/>
-      <c r="V11" s="69"/>
-      <c r="W11" s="69"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="70"/>
       <c r="X11" s="70"/>
       <c r="Y11" s="70"/>
-      <c r="Z11" s="70"/>
-      <c r="AA11" s="70"/>
-      <c r="AB11" s="70"/>
-      <c r="AC11" s="70"/>
-      <c r="AD11" s="70"/>
-      <c r="AE11" s="68"/>
-      <c r="AF11" s="68"/>
-      <c r="AG11" s="68"/>
-      <c r="AH11" s="68"/>
-      <c r="AI11" s="40"/>
-      <c r="AJ11" s="41"/>
-      <c r="AK11" s="41"/>
+      <c r="Z11" s="71"/>
+      <c r="AA11" s="71"/>
+      <c r="AB11" s="71"/>
+      <c r="AC11" s="71"/>
+      <c r="AD11" s="71"/>
+      <c r="AE11" s="71"/>
+      <c r="AF11" s="71"/>
+      <c r="AG11" s="69"/>
+      <c r="AH11" s="69"/>
+      <c r="AI11" s="69"/>
+      <c r="AJ11" s="69"/>
+      <c r="AK11" s="40"/>
       <c r="AL11" s="41"/>
       <c r="AM11" s="41"/>
       <c r="AN11" s="41"/>
-      <c r="AO11" s="42"/>
-      <c r="AP11" s="68"/>
-      <c r="AQ11" s="68"/>
-      <c r="AR11" s="68"/>
-      <c r="AS11" s="68"/>
-      <c r="AT11" s="70"/>
-      <c r="AU11" s="70"/>
-      <c r="AV11" s="70"/>
-      <c r="AW11" s="70"/>
-      <c r="AX11" s="69"/>
-      <c r="AY11" s="69"/>
-      <c r="AZ11" s="69"/>
-      <c r="BA11" s="69"/>
-      <c r="BB11" s="69"/>
-      <c r="BC11" s="23"/>
-    </row>
-    <row r="12" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO11" s="41"/>
+      <c r="AP11" s="41"/>
+      <c r="AQ11" s="42"/>
+      <c r="AR11" s="112"/>
+      <c r="AS11" s="112"/>
+      <c r="AT11" s="112"/>
+      <c r="AU11" s="112"/>
+      <c r="AV11" s="71"/>
+      <c r="AW11" s="71"/>
+      <c r="AX11" s="71"/>
+      <c r="AY11" s="71"/>
+      <c r="AZ11" s="70"/>
+      <c r="BA11" s="70"/>
+      <c r="BB11" s="70"/>
+      <c r="BC11" s="70"/>
+      <c r="BD11" s="70"/>
+      <c r="BE11" s="23"/>
+    </row>
+    <row r="12" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22">
         <v>6</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="69"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="69"/>
-      <c r="V12" s="69"/>
-      <c r="W12" s="69"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="70"/>
+      <c r="W12" s="70"/>
       <c r="X12" s="70"/>
       <c r="Y12" s="70"/>
-      <c r="Z12" s="70"/>
-      <c r="AA12" s="70"/>
-      <c r="AB12" s="70"/>
-      <c r="AC12" s="70"/>
-      <c r="AD12" s="70"/>
-      <c r="AE12" s="68"/>
-      <c r="AF12" s="68"/>
-      <c r="AG12" s="68"/>
-      <c r="AH12" s="68"/>
-      <c r="AI12" s="40"/>
-      <c r="AJ12" s="41"/>
-      <c r="AK12" s="41"/>
+      <c r="Z12" s="71"/>
+      <c r="AA12" s="71"/>
+      <c r="AB12" s="71"/>
+      <c r="AC12" s="71"/>
+      <c r="AD12" s="71"/>
+      <c r="AE12" s="71"/>
+      <c r="AF12" s="71"/>
+      <c r="AG12" s="69"/>
+      <c r="AH12" s="69"/>
+      <c r="AI12" s="69"/>
+      <c r="AJ12" s="69"/>
+      <c r="AK12" s="40"/>
       <c r="AL12" s="41"/>
       <c r="AM12" s="41"/>
       <c r="AN12" s="41"/>
-      <c r="AO12" s="42"/>
-      <c r="AP12" s="68"/>
-      <c r="AQ12" s="68"/>
-      <c r="AR12" s="68"/>
-      <c r="AS12" s="68"/>
-      <c r="AT12" s="70"/>
-      <c r="AU12" s="70"/>
-      <c r="AV12" s="70"/>
-      <c r="AW12" s="70"/>
-      <c r="AX12" s="69"/>
-      <c r="AY12" s="69"/>
-      <c r="AZ12" s="69"/>
-      <c r="BA12" s="69"/>
-      <c r="BB12" s="69"/>
-      <c r="BC12" s="23"/>
-    </row>
-    <row r="13" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO12" s="41"/>
+      <c r="AP12" s="41"/>
+      <c r="AQ12" s="42"/>
+      <c r="AR12" s="112"/>
+      <c r="AS12" s="112"/>
+      <c r="AT12" s="112"/>
+      <c r="AU12" s="112"/>
+      <c r="AV12" s="71"/>
+      <c r="AW12" s="71"/>
+      <c r="AX12" s="71"/>
+      <c r="AY12" s="71"/>
+      <c r="AZ12" s="70"/>
+      <c r="BA12" s="70"/>
+      <c r="BB12" s="70"/>
+      <c r="BC12" s="70"/>
+      <c r="BD12" s="70"/>
+      <c r="BE12" s="23"/>
+    </row>
+    <row r="13" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22">
         <v>7</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="69"/>
-      <c r="W13" s="69"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
       <c r="X13" s="70"/>
       <c r="Y13" s="70"/>
-      <c r="Z13" s="70"/>
-      <c r="AA13" s="70"/>
-      <c r="AB13" s="70"/>
-      <c r="AC13" s="70"/>
-      <c r="AD13" s="70"/>
-      <c r="AE13" s="68"/>
-      <c r="AF13" s="68"/>
-      <c r="AG13" s="68"/>
-      <c r="AH13" s="68"/>
-      <c r="AI13" s="40"/>
-      <c r="AJ13" s="41"/>
-      <c r="AK13" s="41"/>
+      <c r="Z13" s="71"/>
+      <c r="AA13" s="71"/>
+      <c r="AB13" s="71"/>
+      <c r="AC13" s="71"/>
+      <c r="AD13" s="71"/>
+      <c r="AE13" s="71"/>
+      <c r="AF13" s="71"/>
+      <c r="AG13" s="69"/>
+      <c r="AH13" s="69"/>
+      <c r="AI13" s="69"/>
+      <c r="AJ13" s="69"/>
+      <c r="AK13" s="40"/>
       <c r="AL13" s="41"/>
       <c r="AM13" s="41"/>
       <c r="AN13" s="41"/>
-      <c r="AO13" s="42"/>
-      <c r="AP13" s="68"/>
-      <c r="AQ13" s="68"/>
-      <c r="AR13" s="68"/>
-      <c r="AS13" s="68"/>
-      <c r="AT13" s="70"/>
-      <c r="AU13" s="70"/>
-      <c r="AV13" s="70"/>
-      <c r="AW13" s="70"/>
-      <c r="AX13" s="69"/>
-      <c r="AY13" s="69"/>
-      <c r="AZ13" s="69"/>
-      <c r="BA13" s="69"/>
-      <c r="BB13" s="69"/>
-      <c r="BC13" s="23"/>
-    </row>
-    <row r="14" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO13" s="41"/>
+      <c r="AP13" s="41"/>
+      <c r="AQ13" s="42"/>
+      <c r="AR13" s="112"/>
+      <c r="AS13" s="112"/>
+      <c r="AT13" s="112"/>
+      <c r="AU13" s="112"/>
+      <c r="AV13" s="71"/>
+      <c r="AW13" s="71"/>
+      <c r="AX13" s="71"/>
+      <c r="AY13" s="71"/>
+      <c r="AZ13" s="70"/>
+      <c r="BA13" s="70"/>
+      <c r="BB13" s="70"/>
+      <c r="BC13" s="70"/>
+      <c r="BD13" s="70"/>
+      <c r="BE13" s="23"/>
+    </row>
+    <row r="14" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="22">
         <v>8</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="69"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="69"/>
-      <c r="V14" s="69"/>
-      <c r="W14" s="69"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="70"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="70"/>
+      <c r="W14" s="70"/>
       <c r="X14" s="70"/>
       <c r="Y14" s="70"/>
-      <c r="Z14" s="70"/>
-      <c r="AA14" s="70"/>
-      <c r="AB14" s="70"/>
-      <c r="AC14" s="70"/>
-      <c r="AD14" s="70"/>
-      <c r="AE14" s="68"/>
-      <c r="AF14" s="68"/>
-      <c r="AG14" s="68"/>
-      <c r="AH14" s="68"/>
-      <c r="AI14" s="40"/>
-      <c r="AJ14" s="41"/>
-      <c r="AK14" s="41"/>
+      <c r="Z14" s="71"/>
+      <c r="AA14" s="71"/>
+      <c r="AB14" s="71"/>
+      <c r="AC14" s="71"/>
+      <c r="AD14" s="71"/>
+      <c r="AE14" s="71"/>
+      <c r="AF14" s="71"/>
+      <c r="AG14" s="69"/>
+      <c r="AH14" s="69"/>
+      <c r="AI14" s="69"/>
+      <c r="AJ14" s="69"/>
+      <c r="AK14" s="40"/>
       <c r="AL14" s="41"/>
       <c r="AM14" s="41"/>
       <c r="AN14" s="41"/>
-      <c r="AO14" s="42"/>
-      <c r="AP14" s="68"/>
-      <c r="AQ14" s="68"/>
-      <c r="AR14" s="68"/>
-      <c r="AS14" s="68"/>
-      <c r="AT14" s="70"/>
-      <c r="AU14" s="70"/>
-      <c r="AV14" s="70"/>
-      <c r="AW14" s="70"/>
-      <c r="AX14" s="69"/>
-      <c r="AY14" s="69"/>
-      <c r="AZ14" s="69"/>
-      <c r="BA14" s="69"/>
-      <c r="BB14" s="69"/>
-      <c r="BC14" s="23"/>
-    </row>
-    <row r="15" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO14" s="41"/>
+      <c r="AP14" s="41"/>
+      <c r="AQ14" s="42"/>
+      <c r="AR14" s="112"/>
+      <c r="AS14" s="112"/>
+      <c r="AT14" s="112"/>
+      <c r="AU14" s="112"/>
+      <c r="AV14" s="71"/>
+      <c r="AW14" s="71"/>
+      <c r="AX14" s="71"/>
+      <c r="AY14" s="71"/>
+      <c r="AZ14" s="70"/>
+      <c r="BA14" s="70"/>
+      <c r="BB14" s="70"/>
+      <c r="BC14" s="70"/>
+      <c r="BD14" s="70"/>
+      <c r="BE14" s="23"/>
+    </row>
+    <row r="15" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="22">
         <v>9</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="69"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="69"/>
-      <c r="V15" s="69"/>
-      <c r="W15" s="69"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="70"/>
+      <c r="W15" s="70"/>
       <c r="X15" s="70"/>
       <c r="Y15" s="70"/>
-      <c r="Z15" s="70"/>
-      <c r="AA15" s="70"/>
-      <c r="AB15" s="70"/>
-      <c r="AC15" s="70"/>
-      <c r="AD15" s="70"/>
-      <c r="AE15" s="68"/>
-      <c r="AF15" s="68"/>
-      <c r="AG15" s="68"/>
-      <c r="AH15" s="68"/>
-      <c r="AI15" s="40"/>
-      <c r="AJ15" s="41"/>
-      <c r="AK15" s="41"/>
+      <c r="Z15" s="71"/>
+      <c r="AA15" s="71"/>
+      <c r="AB15" s="71"/>
+      <c r="AC15" s="71"/>
+      <c r="AD15" s="71"/>
+      <c r="AE15" s="71"/>
+      <c r="AF15" s="71"/>
+      <c r="AG15" s="69"/>
+      <c r="AH15" s="69"/>
+      <c r="AI15" s="69"/>
+      <c r="AJ15" s="69"/>
+      <c r="AK15" s="40"/>
       <c r="AL15" s="41"/>
       <c r="AM15" s="41"/>
       <c r="AN15" s="41"/>
-      <c r="AO15" s="42"/>
-      <c r="AP15" s="68"/>
-      <c r="AQ15" s="68"/>
-      <c r="AR15" s="68"/>
-      <c r="AS15" s="68"/>
-      <c r="AT15" s="70"/>
-      <c r="AU15" s="70"/>
-      <c r="AV15" s="70"/>
-      <c r="AW15" s="70"/>
-      <c r="AX15" s="69"/>
-      <c r="AY15" s="69"/>
-      <c r="AZ15" s="69"/>
-      <c r="BA15" s="69"/>
-      <c r="BB15" s="69"/>
-      <c r="BC15" s="23"/>
-    </row>
-    <row r="16" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO15" s="41"/>
+      <c r="AP15" s="41"/>
+      <c r="AQ15" s="42"/>
+      <c r="AR15" s="112"/>
+      <c r="AS15" s="112"/>
+      <c r="AT15" s="112"/>
+      <c r="AU15" s="112"/>
+      <c r="AV15" s="71"/>
+      <c r="AW15" s="71"/>
+      <c r="AX15" s="71"/>
+      <c r="AY15" s="71"/>
+      <c r="AZ15" s="70"/>
+      <c r="BA15" s="70"/>
+      <c r="BB15" s="70"/>
+      <c r="BC15" s="70"/>
+      <c r="BD15" s="70"/>
+      <c r="BE15" s="23"/>
+    </row>
+    <row r="16" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="22">
         <v>10</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="69"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="69"/>
-      <c r="V16" s="69"/>
-      <c r="W16" s="69"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="68"/>
+      <c r="S16" s="70"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="70"/>
+      <c r="V16" s="70"/>
+      <c r="W16" s="70"/>
       <c r="X16" s="70"/>
       <c r="Y16" s="70"/>
-      <c r="Z16" s="70"/>
-      <c r="AA16" s="70"/>
-      <c r="AB16" s="70"/>
-      <c r="AC16" s="70"/>
-      <c r="AD16" s="70"/>
-      <c r="AE16" s="68"/>
-      <c r="AF16" s="68"/>
-      <c r="AG16" s="68"/>
-      <c r="AH16" s="68"/>
-      <c r="AI16" s="40"/>
-      <c r="AJ16" s="41"/>
-      <c r="AK16" s="41"/>
+      <c r="Z16" s="71"/>
+      <c r="AA16" s="71"/>
+      <c r="AB16" s="71"/>
+      <c r="AC16" s="71"/>
+      <c r="AD16" s="71"/>
+      <c r="AE16" s="71"/>
+      <c r="AF16" s="71"/>
+      <c r="AG16" s="69"/>
+      <c r="AH16" s="69"/>
+      <c r="AI16" s="69"/>
+      <c r="AJ16" s="69"/>
+      <c r="AK16" s="40"/>
       <c r="AL16" s="41"/>
       <c r="AM16" s="41"/>
       <c r="AN16" s="41"/>
-      <c r="AO16" s="42"/>
-      <c r="AP16" s="68"/>
-      <c r="AQ16" s="68"/>
-      <c r="AR16" s="68"/>
-      <c r="AS16" s="68"/>
-      <c r="AT16" s="70"/>
-      <c r="AU16" s="70"/>
-      <c r="AV16" s="70"/>
-      <c r="AW16" s="70"/>
-      <c r="AX16" s="69"/>
-      <c r="AY16" s="69"/>
-      <c r="AZ16" s="69"/>
-      <c r="BA16" s="69"/>
-      <c r="BB16" s="69"/>
-      <c r="BC16" s="23"/>
-    </row>
-    <row r="17" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO16" s="41"/>
+      <c r="AP16" s="41"/>
+      <c r="AQ16" s="42"/>
+      <c r="AR16" s="112"/>
+      <c r="AS16" s="112"/>
+      <c r="AT16" s="112"/>
+      <c r="AU16" s="112"/>
+      <c r="AV16" s="71"/>
+      <c r="AW16" s="71"/>
+      <c r="AX16" s="71"/>
+      <c r="AY16" s="71"/>
+      <c r="AZ16" s="70"/>
+      <c r="BA16" s="70"/>
+      <c r="BB16" s="70"/>
+      <c r="BC16" s="70"/>
+      <c r="BD16" s="70"/>
+      <c r="BE16" s="23"/>
+    </row>
+    <row r="17" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="22">
         <v>11</v>
       </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="69"/>
-      <c r="T17" s="69"/>
-      <c r="U17" s="69"/>
-      <c r="V17" s="69"/>
-      <c r="W17" s="69"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="70"/>
+      <c r="W17" s="70"/>
       <c r="X17" s="70"/>
       <c r="Y17" s="70"/>
-      <c r="Z17" s="70"/>
-      <c r="AA17" s="70"/>
-      <c r="AB17" s="70"/>
-      <c r="AC17" s="70"/>
-      <c r="AD17" s="70"/>
-      <c r="AE17" s="68"/>
-      <c r="AF17" s="68"/>
-      <c r="AG17" s="68"/>
-      <c r="AH17" s="68"/>
-      <c r="AI17" s="40"/>
-      <c r="AJ17" s="41"/>
-      <c r="AK17" s="41"/>
+      <c r="Z17" s="71"/>
+      <c r="AA17" s="71"/>
+      <c r="AB17" s="71"/>
+      <c r="AC17" s="71"/>
+      <c r="AD17" s="71"/>
+      <c r="AE17" s="71"/>
+      <c r="AF17" s="71"/>
+      <c r="AG17" s="69"/>
+      <c r="AH17" s="69"/>
+      <c r="AI17" s="69"/>
+      <c r="AJ17" s="69"/>
+      <c r="AK17" s="40"/>
       <c r="AL17" s="41"/>
       <c r="AM17" s="41"/>
       <c r="AN17" s="41"/>
-      <c r="AO17" s="42"/>
-      <c r="AP17" s="68"/>
-      <c r="AQ17" s="68"/>
-      <c r="AR17" s="68"/>
-      <c r="AS17" s="68"/>
-      <c r="AT17" s="70"/>
-      <c r="AU17" s="70"/>
-      <c r="AV17" s="70"/>
-      <c r="AW17" s="70"/>
-      <c r="AX17" s="69"/>
-      <c r="AY17" s="69"/>
-      <c r="AZ17" s="69"/>
-      <c r="BA17" s="69"/>
-      <c r="BB17" s="69"/>
-      <c r="BC17" s="23"/>
-    </row>
-    <row r="18" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO17" s="41"/>
+      <c r="AP17" s="41"/>
+      <c r="AQ17" s="42"/>
+      <c r="AR17" s="112"/>
+      <c r="AS17" s="112"/>
+      <c r="AT17" s="112"/>
+      <c r="AU17" s="112"/>
+      <c r="AV17" s="71"/>
+      <c r="AW17" s="71"/>
+      <c r="AX17" s="71"/>
+      <c r="AY17" s="71"/>
+      <c r="AZ17" s="70"/>
+      <c r="BA17" s="70"/>
+      <c r="BB17" s="70"/>
+      <c r="BC17" s="70"/>
+      <c r="BD17" s="70"/>
+      <c r="BE17" s="23"/>
+    </row>
+    <row r="18" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="22">
         <v>12</v>
       </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="69"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="68"/>
+      <c r="S18" s="70"/>
+      <c r="T18" s="70"/>
+      <c r="U18" s="70"/>
+      <c r="V18" s="70"/>
+      <c r="W18" s="70"/>
       <c r="X18" s="70"/>
       <c r="Y18" s="70"/>
-      <c r="Z18" s="70"/>
-      <c r="AA18" s="70"/>
-      <c r="AB18" s="70"/>
-      <c r="AC18" s="70"/>
-      <c r="AD18" s="70"/>
-      <c r="AE18" s="68"/>
-      <c r="AF18" s="68"/>
-      <c r="AG18" s="68"/>
-      <c r="AH18" s="68"/>
-      <c r="AI18" s="40"/>
-      <c r="AJ18" s="41"/>
-      <c r="AK18" s="41"/>
+      <c r="Z18" s="71"/>
+      <c r="AA18" s="71"/>
+      <c r="AB18" s="71"/>
+      <c r="AC18" s="71"/>
+      <c r="AD18" s="71"/>
+      <c r="AE18" s="71"/>
+      <c r="AF18" s="71"/>
+      <c r="AG18" s="69"/>
+      <c r="AH18" s="69"/>
+      <c r="AI18" s="69"/>
+      <c r="AJ18" s="69"/>
+      <c r="AK18" s="40"/>
       <c r="AL18" s="41"/>
       <c r="AM18" s="41"/>
       <c r="AN18" s="41"/>
-      <c r="AO18" s="42"/>
-      <c r="AP18" s="68"/>
-      <c r="AQ18" s="68"/>
-      <c r="AR18" s="68"/>
-      <c r="AS18" s="68"/>
-      <c r="AT18" s="70"/>
-      <c r="AU18" s="70"/>
-      <c r="AV18" s="70"/>
-      <c r="AW18" s="70"/>
-      <c r="AX18" s="69"/>
-      <c r="AY18" s="69"/>
-      <c r="AZ18" s="69"/>
-      <c r="BA18" s="69"/>
-      <c r="BB18" s="69"/>
-      <c r="BC18" s="23"/>
-    </row>
-    <row r="19" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO18" s="41"/>
+      <c r="AP18" s="41"/>
+      <c r="AQ18" s="42"/>
+      <c r="AR18" s="112"/>
+      <c r="AS18" s="112"/>
+      <c r="AT18" s="112"/>
+      <c r="AU18" s="112"/>
+      <c r="AV18" s="71"/>
+      <c r="AW18" s="71"/>
+      <c r="AX18" s="71"/>
+      <c r="AY18" s="71"/>
+      <c r="AZ18" s="70"/>
+      <c r="BA18" s="70"/>
+      <c r="BB18" s="70"/>
+      <c r="BC18" s="70"/>
+      <c r="BD18" s="70"/>
+      <c r="BE18" s="23"/>
+    </row>
+    <row r="19" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="22">
         <v>13</v>
       </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="69"/>
-      <c r="T19" s="69"/>
-      <c r="U19" s="69"/>
-      <c r="V19" s="69"/>
-      <c r="W19" s="69"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="68"/>
+      <c r="S19" s="70"/>
+      <c r="T19" s="70"/>
+      <c r="U19" s="70"/>
+      <c r="V19" s="70"/>
+      <c r="W19" s="70"/>
       <c r="X19" s="70"/>
       <c r="Y19" s="70"/>
-      <c r="Z19" s="70"/>
-      <c r="AA19" s="70"/>
-      <c r="AB19" s="70"/>
-      <c r="AC19" s="70"/>
-      <c r="AD19" s="70"/>
-      <c r="AE19" s="68"/>
-      <c r="AF19" s="68"/>
-      <c r="AG19" s="68"/>
-      <c r="AH19" s="68"/>
-      <c r="AI19" s="40"/>
-      <c r="AJ19" s="41"/>
-      <c r="AK19" s="41"/>
+      <c r="Z19" s="71"/>
+      <c r="AA19" s="71"/>
+      <c r="AB19" s="71"/>
+      <c r="AC19" s="71"/>
+      <c r="AD19" s="71"/>
+      <c r="AE19" s="71"/>
+      <c r="AF19" s="71"/>
+      <c r="AG19" s="69"/>
+      <c r="AH19" s="69"/>
+      <c r="AI19" s="69"/>
+      <c r="AJ19" s="69"/>
+      <c r="AK19" s="40"/>
       <c r="AL19" s="41"/>
       <c r="AM19" s="41"/>
       <c r="AN19" s="41"/>
-      <c r="AO19" s="42"/>
-      <c r="AP19" s="68"/>
-      <c r="AQ19" s="68"/>
-      <c r="AR19" s="68"/>
-      <c r="AS19" s="68"/>
-      <c r="AT19" s="70"/>
-      <c r="AU19" s="70"/>
-      <c r="AV19" s="70"/>
-      <c r="AW19" s="70"/>
-      <c r="AX19" s="69"/>
-      <c r="AY19" s="69"/>
-      <c r="AZ19" s="69"/>
-      <c r="BA19" s="69"/>
-      <c r="BB19" s="69"/>
-      <c r="BC19" s="23"/>
-    </row>
-    <row r="20" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO19" s="41"/>
+      <c r="AP19" s="41"/>
+      <c r="AQ19" s="42"/>
+      <c r="AR19" s="112"/>
+      <c r="AS19" s="112"/>
+      <c r="AT19" s="112"/>
+      <c r="AU19" s="112"/>
+      <c r="AV19" s="71"/>
+      <c r="AW19" s="71"/>
+      <c r="AX19" s="71"/>
+      <c r="AY19" s="71"/>
+      <c r="AZ19" s="70"/>
+      <c r="BA19" s="70"/>
+      <c r="BB19" s="70"/>
+      <c r="BC19" s="70"/>
+      <c r="BD19" s="70"/>
+      <c r="BE19" s="23"/>
+    </row>
+    <row r="20" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="22">
         <v>14</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="69"/>
-      <c r="T20" s="69"/>
-      <c r="U20" s="69"/>
-      <c r="V20" s="69"/>
-      <c r="W20" s="69"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="68"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="70"/>
+      <c r="W20" s="70"/>
       <c r="X20" s="70"/>
       <c r="Y20" s="70"/>
-      <c r="Z20" s="70"/>
-      <c r="AA20" s="70"/>
-      <c r="AB20" s="70"/>
-      <c r="AC20" s="70"/>
-      <c r="AD20" s="70"/>
-      <c r="AE20" s="68"/>
-      <c r="AF20" s="68"/>
-      <c r="AG20" s="68"/>
-      <c r="AH20" s="68"/>
-      <c r="AI20" s="40"/>
-      <c r="AJ20" s="41"/>
-      <c r="AK20" s="41"/>
+      <c r="Z20" s="71"/>
+      <c r="AA20" s="71"/>
+      <c r="AB20" s="71"/>
+      <c r="AC20" s="71"/>
+      <c r="AD20" s="71"/>
+      <c r="AE20" s="71"/>
+      <c r="AF20" s="71"/>
+      <c r="AG20" s="69"/>
+      <c r="AH20" s="69"/>
+      <c r="AI20" s="69"/>
+      <c r="AJ20" s="69"/>
+      <c r="AK20" s="40"/>
       <c r="AL20" s="41"/>
       <c r="AM20" s="41"/>
       <c r="AN20" s="41"/>
-      <c r="AO20" s="42"/>
-      <c r="AP20" s="68"/>
-      <c r="AQ20" s="68"/>
-      <c r="AR20" s="68"/>
-      <c r="AS20" s="68"/>
-      <c r="AT20" s="70"/>
-      <c r="AU20" s="70"/>
-      <c r="AV20" s="70"/>
-      <c r="AW20" s="70"/>
-      <c r="AX20" s="69"/>
-      <c r="AY20" s="69"/>
-      <c r="AZ20" s="69"/>
-      <c r="BA20" s="69"/>
-      <c r="BB20" s="69"/>
-      <c r="BC20" s="23"/>
-    </row>
-    <row r="21" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO20" s="41"/>
+      <c r="AP20" s="41"/>
+      <c r="AQ20" s="42"/>
+      <c r="AR20" s="112"/>
+      <c r="AS20" s="112"/>
+      <c r="AT20" s="112"/>
+      <c r="AU20" s="112"/>
+      <c r="AV20" s="71"/>
+      <c r="AW20" s="71"/>
+      <c r="AX20" s="71"/>
+      <c r="AY20" s="71"/>
+      <c r="AZ20" s="70"/>
+      <c r="BA20" s="70"/>
+      <c r="BB20" s="70"/>
+      <c r="BC20" s="70"/>
+      <c r="BD20" s="70"/>
+      <c r="BE20" s="23"/>
+    </row>
+    <row r="21" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="22">
         <v>15</v>
       </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="69"/>
-      <c r="T21" s="69"/>
-      <c r="U21" s="69"/>
-      <c r="V21" s="69"/>
-      <c r="W21" s="69"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="68"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="70"/>
+      <c r="V21" s="70"/>
+      <c r="W21" s="70"/>
       <c r="X21" s="70"/>
       <c r="Y21" s="70"/>
-      <c r="Z21" s="70"/>
-      <c r="AA21" s="70"/>
-      <c r="AB21" s="70"/>
-      <c r="AC21" s="70"/>
-      <c r="AD21" s="70"/>
-      <c r="AE21" s="68"/>
-      <c r="AF21" s="68"/>
-      <c r="AG21" s="68"/>
-      <c r="AH21" s="68"/>
-      <c r="AI21" s="40"/>
-      <c r="AJ21" s="41"/>
-      <c r="AK21" s="41"/>
+      <c r="Z21" s="71"/>
+      <c r="AA21" s="71"/>
+      <c r="AB21" s="71"/>
+      <c r="AC21" s="71"/>
+      <c r="AD21" s="71"/>
+      <c r="AE21" s="71"/>
+      <c r="AF21" s="71"/>
+      <c r="AG21" s="69"/>
+      <c r="AH21" s="69"/>
+      <c r="AI21" s="69"/>
+      <c r="AJ21" s="69"/>
+      <c r="AK21" s="40"/>
       <c r="AL21" s="41"/>
       <c r="AM21" s="41"/>
       <c r="AN21" s="41"/>
-      <c r="AO21" s="42"/>
-      <c r="AP21" s="68"/>
-      <c r="AQ21" s="68"/>
-      <c r="AR21" s="68"/>
-      <c r="AS21" s="68"/>
-      <c r="AT21" s="70"/>
-      <c r="AU21" s="70"/>
-      <c r="AV21" s="70"/>
-      <c r="AW21" s="70"/>
-      <c r="AX21" s="69"/>
-      <c r="AY21" s="69"/>
-      <c r="AZ21" s="69"/>
-      <c r="BA21" s="69"/>
-      <c r="BB21" s="69"/>
-      <c r="BC21" s="23"/>
-    </row>
-    <row r="22" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO21" s="41"/>
+      <c r="AP21" s="41"/>
+      <c r="AQ21" s="42"/>
+      <c r="AR21" s="112"/>
+      <c r="AS21" s="112"/>
+      <c r="AT21" s="112"/>
+      <c r="AU21" s="112"/>
+      <c r="AV21" s="71"/>
+      <c r="AW21" s="71"/>
+      <c r="AX21" s="71"/>
+      <c r="AY21" s="71"/>
+      <c r="AZ21" s="70"/>
+      <c r="BA21" s="70"/>
+      <c r="BB21" s="70"/>
+      <c r="BC21" s="70"/>
+      <c r="BD21" s="70"/>
+      <c r="BE21" s="23"/>
+    </row>
+    <row r="22" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="22">
         <v>16</v>
       </c>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="69"/>
-      <c r="T22" s="69"/>
-      <c r="U22" s="69"/>
-      <c r="V22" s="69"/>
-      <c r="W22" s="69"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="68"/>
+      <c r="S22" s="70"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="70"/>
+      <c r="V22" s="70"/>
+      <c r="W22" s="70"/>
       <c r="X22" s="70"/>
       <c r="Y22" s="70"/>
-      <c r="Z22" s="70"/>
-      <c r="AA22" s="70"/>
-      <c r="AB22" s="70"/>
-      <c r="AC22" s="70"/>
-      <c r="AD22" s="70"/>
-      <c r="AE22" s="68"/>
-      <c r="AF22" s="68"/>
-      <c r="AG22" s="68"/>
-      <c r="AH22" s="68"/>
-      <c r="AI22" s="40"/>
-      <c r="AJ22" s="41"/>
-      <c r="AK22" s="41"/>
+      <c r="Z22" s="71"/>
+      <c r="AA22" s="71"/>
+      <c r="AB22" s="71"/>
+      <c r="AC22" s="71"/>
+      <c r="AD22" s="71"/>
+      <c r="AE22" s="71"/>
+      <c r="AF22" s="71"/>
+      <c r="AG22" s="69"/>
+      <c r="AH22" s="69"/>
+      <c r="AI22" s="69"/>
+      <c r="AJ22" s="69"/>
+      <c r="AK22" s="40"/>
       <c r="AL22" s="41"/>
       <c r="AM22" s="41"/>
       <c r="AN22" s="41"/>
-      <c r="AO22" s="42"/>
-      <c r="AP22" s="68"/>
-      <c r="AQ22" s="68"/>
-      <c r="AR22" s="68"/>
-      <c r="AS22" s="68"/>
-      <c r="AT22" s="70"/>
-      <c r="AU22" s="70"/>
-      <c r="AV22" s="70"/>
-      <c r="AW22" s="70"/>
-      <c r="AX22" s="69"/>
-      <c r="AY22" s="69"/>
-      <c r="AZ22" s="69"/>
-      <c r="BA22" s="69"/>
-      <c r="BB22" s="69"/>
-      <c r="BC22" s="23"/>
-    </row>
-    <row r="23" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO22" s="41"/>
+      <c r="AP22" s="41"/>
+      <c r="AQ22" s="42"/>
+      <c r="AR22" s="112"/>
+      <c r="AS22" s="112"/>
+      <c r="AT22" s="112"/>
+      <c r="AU22" s="112"/>
+      <c r="AV22" s="71"/>
+      <c r="AW22" s="71"/>
+      <c r="AX22" s="71"/>
+      <c r="AY22" s="71"/>
+      <c r="AZ22" s="70"/>
+      <c r="BA22" s="70"/>
+      <c r="BB22" s="70"/>
+      <c r="BC22" s="70"/>
+      <c r="BD22" s="70"/>
+      <c r="BE22" s="23"/>
+    </row>
+    <row r="23" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="22">
         <v>17</v>
       </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="69"/>
-      <c r="T23" s="69"/>
-      <c r="U23" s="69"/>
-      <c r="V23" s="69"/>
-      <c r="W23" s="69"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="68"/>
+      <c r="S23" s="70"/>
+      <c r="T23" s="70"/>
+      <c r="U23" s="70"/>
+      <c r="V23" s="70"/>
+      <c r="W23" s="70"/>
       <c r="X23" s="70"/>
       <c r="Y23" s="70"/>
-      <c r="Z23" s="70"/>
-      <c r="AA23" s="70"/>
-      <c r="AB23" s="70"/>
-      <c r="AC23" s="70"/>
-      <c r="AD23" s="70"/>
-      <c r="AE23" s="68"/>
-      <c r="AF23" s="68"/>
-      <c r="AG23" s="68"/>
-      <c r="AH23" s="68"/>
-      <c r="AI23" s="40"/>
-      <c r="AJ23" s="41"/>
-      <c r="AK23" s="41"/>
+      <c r="Z23" s="71"/>
+      <c r="AA23" s="71"/>
+      <c r="AB23" s="71"/>
+      <c r="AC23" s="71"/>
+      <c r="AD23" s="71"/>
+      <c r="AE23" s="71"/>
+      <c r="AF23" s="71"/>
+      <c r="AG23" s="69"/>
+      <c r="AH23" s="69"/>
+      <c r="AI23" s="69"/>
+      <c r="AJ23" s="69"/>
+      <c r="AK23" s="40"/>
       <c r="AL23" s="41"/>
       <c r="AM23" s="41"/>
       <c r="AN23" s="41"/>
-      <c r="AO23" s="42"/>
-      <c r="AP23" s="68"/>
-      <c r="AQ23" s="68"/>
-      <c r="AR23" s="68"/>
-      <c r="AS23" s="68"/>
-      <c r="AT23" s="70"/>
-      <c r="AU23" s="70"/>
-      <c r="AV23" s="70"/>
-      <c r="AW23" s="70"/>
-      <c r="AX23" s="69"/>
-      <c r="AY23" s="69"/>
-      <c r="AZ23" s="69"/>
-      <c r="BA23" s="69"/>
-      <c r="BB23" s="69"/>
-      <c r="BC23" s="23"/>
-    </row>
-    <row r="24" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO23" s="41"/>
+      <c r="AP23" s="41"/>
+      <c r="AQ23" s="42"/>
+      <c r="AR23" s="112"/>
+      <c r="AS23" s="112"/>
+      <c r="AT23" s="112"/>
+      <c r="AU23" s="112"/>
+      <c r="AV23" s="71"/>
+      <c r="AW23" s="71"/>
+      <c r="AX23" s="71"/>
+      <c r="AY23" s="71"/>
+      <c r="AZ23" s="70"/>
+      <c r="BA23" s="70"/>
+      <c r="BB23" s="70"/>
+      <c r="BC23" s="70"/>
+      <c r="BD23" s="70"/>
+      <c r="BE23" s="23"/>
+    </row>
+    <row r="24" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="22">
         <v>18</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="67"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="60"/>
-      <c r="U24" s="60"/>
-      <c r="V24" s="60"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="68"/>
+      <c r="S24" s="60"/>
+      <c r="T24" s="61"/>
+      <c r="U24" s="61"/>
+      <c r="V24" s="61"/>
       <c r="W24" s="61"/>
-      <c r="X24" s="57"/>
-      <c r="Y24" s="64"/>
+      <c r="X24" s="61"/>
+      <c r="Y24" s="62"/>
       <c r="Z24" s="58"/>
-      <c r="AA24" s="57"/>
-      <c r="AB24" s="58"/>
-      <c r="AC24" s="57"/>
-      <c r="AD24" s="58"/>
-      <c r="AE24" s="55"/>
-      <c r="AF24" s="56"/>
-      <c r="AG24" s="55"/>
-      <c r="AH24" s="56"/>
-      <c r="AI24" s="40"/>
-      <c r="AJ24" s="41"/>
-      <c r="AK24" s="41"/>
+      <c r="AA24" s="65"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="58"/>
+      <c r="AD24" s="59"/>
+      <c r="AE24" s="58"/>
+      <c r="AF24" s="59"/>
+      <c r="AG24" s="56"/>
+      <c r="AH24" s="57"/>
+      <c r="AI24" s="56"/>
+      <c r="AJ24" s="57"/>
+      <c r="AK24" s="40"/>
       <c r="AL24" s="41"/>
       <c r="AM24" s="41"/>
       <c r="AN24" s="41"/>
-      <c r="AO24" s="42"/>
-      <c r="AP24" s="55"/>
-      <c r="AQ24" s="56"/>
-      <c r="AR24" s="55"/>
-      <c r="AS24" s="56"/>
-      <c r="AT24" s="57"/>
-      <c r="AU24" s="58"/>
-      <c r="AV24" s="57"/>
-      <c r="AW24" s="58"/>
-      <c r="AX24" s="59"/>
-      <c r="AY24" s="60"/>
+      <c r="AO24" s="41"/>
+      <c r="AP24" s="41"/>
+      <c r="AQ24" s="42"/>
+      <c r="AR24" s="112"/>
+      <c r="AS24" s="112"/>
+      <c r="AT24" s="112"/>
+      <c r="AU24" s="112"/>
+      <c r="AV24" s="58"/>
+      <c r="AW24" s="59"/>
+      <c r="AX24" s="58"/>
+      <c r="AY24" s="59"/>
       <c r="AZ24" s="60"/>
-      <c r="BA24" s="60"/>
+      <c r="BA24" s="61"/>
       <c r="BB24" s="61"/>
-      <c r="BC24" s="23"/>
-    </row>
-    <row r="25" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BC24" s="61"/>
+      <c r="BD24" s="62"/>
+      <c r="BE24" s="23"/>
+    </row>
+    <row r="25" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="22">
         <v>19</v>
       </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="60"/>
-      <c r="U25" s="60"/>
-      <c r="V25" s="60"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="68"/>
+      <c r="S25" s="60"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="61"/>
+      <c r="V25" s="61"/>
       <c r="W25" s="61"/>
-      <c r="X25" s="57"/>
-      <c r="Y25" s="64"/>
+      <c r="X25" s="61"/>
+      <c r="Y25" s="62"/>
       <c r="Z25" s="58"/>
-      <c r="AA25" s="57"/>
-      <c r="AB25" s="58"/>
-      <c r="AC25" s="57"/>
-      <c r="AD25" s="58"/>
-      <c r="AE25" s="55"/>
-      <c r="AF25" s="56"/>
-      <c r="AG25" s="55"/>
-      <c r="AH25" s="56"/>
-      <c r="AI25" s="40"/>
-      <c r="AJ25" s="41"/>
-      <c r="AK25" s="41"/>
+      <c r="AA25" s="65"/>
+      <c r="AB25" s="59"/>
+      <c r="AC25" s="58"/>
+      <c r="AD25" s="59"/>
+      <c r="AE25" s="58"/>
+      <c r="AF25" s="59"/>
+      <c r="AG25" s="56"/>
+      <c r="AH25" s="57"/>
+      <c r="AI25" s="56"/>
+      <c r="AJ25" s="57"/>
+      <c r="AK25" s="40"/>
       <c r="AL25" s="41"/>
       <c r="AM25" s="41"/>
       <c r="AN25" s="41"/>
-      <c r="AO25" s="42"/>
-      <c r="AP25" s="55"/>
-      <c r="AQ25" s="56"/>
-      <c r="AR25" s="55"/>
-      <c r="AS25" s="56"/>
-      <c r="AT25" s="57"/>
-      <c r="AU25" s="58"/>
-      <c r="AV25" s="57"/>
-      <c r="AW25" s="58"/>
-      <c r="AX25" s="59"/>
-      <c r="AY25" s="60"/>
+      <c r="AO25" s="41"/>
+      <c r="AP25" s="41"/>
+      <c r="AQ25" s="42"/>
+      <c r="AR25" s="112"/>
+      <c r="AS25" s="112"/>
+      <c r="AT25" s="112"/>
+      <c r="AU25" s="112"/>
+      <c r="AV25" s="58"/>
+      <c r="AW25" s="59"/>
+      <c r="AX25" s="58"/>
+      <c r="AY25" s="59"/>
       <c r="AZ25" s="60"/>
-      <c r="BA25" s="60"/>
+      <c r="BA25" s="61"/>
       <c r="BB25" s="61"/>
-      <c r="BC25" s="23"/>
-    </row>
-    <row r="26" spans="1:60" s="25" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BC25" s="61"/>
+      <c r="BD25" s="62"/>
+      <c r="BE25" s="23"/>
+    </row>
+    <row r="26" spans="1:62" s="25" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="52">
         <v>20</v>
       </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="107"/>
-      <c r="K26" s="107"/>
-      <c r="L26" s="107"/>
-      <c r="M26" s="107"/>
-      <c r="N26" s="107"/>
-      <c r="O26" s="107"/>
-      <c r="P26" s="107"/>
-      <c r="Q26" s="107"/>
-      <c r="R26" s="108"/>
-      <c r="S26" s="62"/>
-      <c r="T26" s="62"/>
-      <c r="U26" s="62"/>
-      <c r="V26" s="62"/>
-      <c r="W26" s="62"/>
-      <c r="X26" s="54"/>
-      <c r="Y26" s="54"/>
-      <c r="Z26" s="54"/>
-      <c r="AA26" s="54"/>
-      <c r="AB26" s="54"/>
-      <c r="AC26" s="54"/>
-      <c r="AD26" s="54"/>
-      <c r="AE26" s="53"/>
-      <c r="AF26" s="53"/>
-      <c r="AG26" s="53"/>
-      <c r="AH26" s="53"/>
-      <c r="AI26" s="43"/>
-      <c r="AJ26" s="44"/>
-      <c r="AK26" s="44"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="104"/>
+      <c r="M26" s="104"/>
+      <c r="N26" s="104"/>
+      <c r="O26" s="104"/>
+      <c r="P26" s="104"/>
+      <c r="Q26" s="104"/>
+      <c r="R26" s="105"/>
+      <c r="S26" s="63"/>
+      <c r="T26" s="63"/>
+      <c r="U26" s="63"/>
+      <c r="V26" s="63"/>
+      <c r="W26" s="63"/>
+      <c r="X26" s="63"/>
+      <c r="Y26" s="63"/>
+      <c r="Z26" s="55"/>
+      <c r="AA26" s="55"/>
+      <c r="AB26" s="55"/>
+      <c r="AC26" s="55"/>
+      <c r="AD26" s="55"/>
+      <c r="AE26" s="55"/>
+      <c r="AF26" s="55"/>
+      <c r="AG26" s="54"/>
+      <c r="AH26" s="54"/>
+      <c r="AI26" s="54"/>
+      <c r="AJ26" s="54"/>
+      <c r="AK26" s="43"/>
       <c r="AL26" s="44"/>
       <c r="AM26" s="44"/>
       <c r="AN26" s="44"/>
-      <c r="AO26" s="45"/>
-      <c r="AP26" s="53"/>
-      <c r="AQ26" s="53"/>
-      <c r="AR26" s="53"/>
-      <c r="AS26" s="53"/>
-      <c r="AT26" s="54"/>
-      <c r="AU26" s="54"/>
-      <c r="AV26" s="54"/>
-      <c r="AW26" s="54"/>
-      <c r="AX26" s="62"/>
-      <c r="AY26" s="62"/>
-      <c r="AZ26" s="62"/>
-      <c r="BA26" s="62"/>
-      <c r="BB26" s="62"/>
-      <c r="BC26" s="24"/>
-    </row>
-    <row r="27" spans="1:60" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO26" s="44"/>
+      <c r="AP26" s="44"/>
+      <c r="AQ26" s="45"/>
+      <c r="AR26" s="112"/>
+      <c r="AS26" s="112"/>
+      <c r="AT26" s="112"/>
+      <c r="AU26" s="112"/>
+      <c r="AV26" s="55"/>
+      <c r="AW26" s="55"/>
+      <c r="AX26" s="55"/>
+      <c r="AY26" s="55"/>
+      <c r="AZ26" s="63"/>
+      <c r="BA26" s="63"/>
+      <c r="BB26" s="63"/>
+      <c r="BC26" s="63"/>
+      <c r="BD26" s="63"/>
+      <c r="BE26" s="24"/>
+    </row>
+    <row r="27" spans="1:62" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="26"/>
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
@@ -3481,8 +3629,8 @@
       <c r="AB27" s="27"/>
       <c r="AC27" s="27"/>
       <c r="AD27" s="27"/>
-      <c r="AE27" s="46"/>
-      <c r="AF27" s="46"/>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="27"/>
       <c r="AG27" s="46"/>
       <c r="AH27" s="46"/>
       <c r="AI27" s="46"/>
@@ -3498,16 +3646,18 @@
       <c r="AS27" s="46"/>
       <c r="AT27" s="46"/>
       <c r="AU27" s="46"/>
-      <c r="AV27" s="47"/>
-      <c r="AW27" s="47"/>
-      <c r="BC27" s="27"/>
-      <c r="BD27" s="27"/>
+      <c r="AV27" s="46"/>
+      <c r="AW27" s="46"/>
+      <c r="AX27" s="47"/>
+      <c r="AY27" s="47"/>
       <c r="BE27" s="27"/>
       <c r="BF27" s="27"/>
       <c r="BG27" s="27"/>
-      <c r="BH27" s="24"/>
-    </row>
-    <row r="28" spans="1:60" s="28" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BH27" s="27"/>
+      <c r="BI27" s="27"/>
+      <c r="BJ27" s="24"/>
+    </row>
+    <row r="28" spans="1:62" s="28" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="26"/>
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
@@ -3557,13 +3707,15 @@
       <c r="AU28" s="26"/>
       <c r="AV28" s="26"/>
       <c r="AW28" s="26"/>
-      <c r="BC28" s="26"/>
-      <c r="BD28" s="26"/>
+      <c r="AX28" s="26"/>
+      <c r="AY28" s="26"/>
       <c r="BE28" s="26"/>
       <c r="BF28" s="26"/>
       <c r="BG28" s="26"/>
-    </row>
-    <row r="29" spans="1:60" s="30" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BH28" s="26"/>
+      <c r="BI28" s="26"/>
+    </row>
+    <row r="29" spans="1:62" s="30" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="29"/>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
@@ -3608,8 +3760,8 @@
       <c r="AP29" s="29"/>
       <c r="AQ29" s="29"/>
       <c r="AR29" s="29"/>
-      <c r="AS29" s="21"/>
-      <c r="AT29" s="21"/>
+      <c r="AS29" s="29"/>
+      <c r="AT29" s="29"/>
       <c r="AU29" s="21"/>
       <c r="AV29" s="21"/>
       <c r="AW29" s="21"/>
@@ -3623,8 +3775,10 @@
       <c r="BE29" s="21"/>
       <c r="BF29" s="21"/>
       <c r="BG29" s="21"/>
-    </row>
-    <row r="30" spans="1:60" s="30" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BH29" s="21"/>
+      <c r="BI29" s="21"/>
+    </row>
+    <row r="30" spans="1:62" s="30" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="29"/>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
@@ -3667,8 +3821,8 @@
       <c r="AN30" s="29"/>
       <c r="AO30" s="29"/>
       <c r="AP30" s="29"/>
-      <c r="AQ30" s="21"/>
-      <c r="AR30" s="21"/>
+      <c r="AQ30" s="29"/>
+      <c r="AR30" s="29"/>
       <c r="AS30" s="21"/>
       <c r="AT30" s="21"/>
       <c r="AU30" s="21"/>
@@ -3684,8 +3838,10 @@
       <c r="BE30" s="21"/>
       <c r="BF30" s="21"/>
       <c r="BG30" s="21"/>
-    </row>
-    <row r="31" spans="1:60" s="30" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BH30" s="21"/>
+      <c r="BI30" s="21"/>
+    </row>
+    <row r="31" spans="1:62" s="30" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="31"/>
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
@@ -3728,8 +3884,10 @@
       <c r="AN31" s="31"/>
       <c r="AO31" s="31"/>
       <c r="AP31" s="31"/>
-    </row>
-    <row r="32" spans="1:60" s="30" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AQ31" s="31"/>
+      <c r="AR31" s="31"/>
+    </row>
+    <row r="32" spans="1:62" s="30" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="31"/>
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
@@ -3772,8 +3930,10 @@
       <c r="AN32" s="31"/>
       <c r="AO32" s="31"/>
       <c r="AP32" s="31"/>
-    </row>
-    <row r="33" spans="1:43" s="30" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AQ32" s="31"/>
+      <c r="AR32" s="31"/>
+    </row>
+    <row r="33" spans="1:45" s="30" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="31"/>
       <c r="B33" s="31"/>
       <c r="C33" s="31"/>
@@ -3816,8 +3976,10 @@
       <c r="AN33" s="31"/>
       <c r="AO33" s="31"/>
       <c r="AP33" s="31"/>
-    </row>
-    <row r="34" spans="1:43" s="30" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AQ33" s="31"/>
+      <c r="AR33" s="31"/>
+    </row>
+    <row r="34" spans="1:45" s="30" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="31"/>
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
@@ -3860,8 +4022,10 @@
       <c r="AN34" s="31"/>
       <c r="AO34" s="31"/>
       <c r="AP34" s="31"/>
-    </row>
-    <row r="35" spans="1:43" s="30" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AQ34" s="31"/>
+      <c r="AR34" s="31"/>
+    </row>
+    <row r="35" spans="1:45" s="30" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="31"/>
       <c r="B35" s="31"/>
       <c r="C35" s="31"/>
@@ -3904,8 +4068,10 @@
       <c r="AN35" s="31"/>
       <c r="AO35" s="31"/>
       <c r="AP35" s="31"/>
-    </row>
-    <row r="36" spans="1:43" s="30" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AQ35" s="31"/>
+      <c r="AR35" s="31"/>
+    </row>
+    <row r="36" spans="1:45" s="30" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="31"/>
       <c r="B36" s="31"/>
       <c r="C36" s="31"/>
@@ -3948,8 +4114,10 @@
       <c r="AN36" s="31"/>
       <c r="AO36" s="31"/>
       <c r="AP36" s="31"/>
-    </row>
-    <row r="37" spans="1:43" s="30" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AQ36" s="31"/>
+      <c r="AR36" s="31"/>
+    </row>
+    <row r="37" spans="1:45" s="30" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="31"/>
       <c r="B37" s="31"/>
       <c r="C37" s="31"/>
@@ -3993,18 +4161,20 @@
       <c r="AO37" s="31"/>
       <c r="AP37" s="31"/>
       <c r="AQ37" s="31"/>
-    </row>
-    <row r="38" spans="1:43" s="30" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="1:43" s="30" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="40" spans="1:43" s="30" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="1:43" s="30" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="1:43" s="30" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="1:43" s="30" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="1:43" s="30" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="1:43" s="30" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="1:43" s="30" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="1:43" s="30" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="1:43" s="30" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="AR37" s="31"/>
+      <c r="AS37" s="31"/>
+    </row>
+    <row r="38" spans="1:45" s="30" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="1:45" s="30" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="1:45" s="30" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="1:45" s="30" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="1:45" s="30" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="1:45" s="30" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:45" s="30" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="1:45" s="30" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="1:45" s="30" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="1:45" s="30" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:45" s="30" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="49" s="30" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="50" s="30" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="51" s="30" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -4300,8 +4470,8 @@
     </row>
   </sheetData>
   <mergeCells count="302">
-    <mergeCell ref="AW1:BB2"/>
-    <mergeCell ref="AP1:AU2"/>
+    <mergeCell ref="AY1:BD2"/>
+    <mergeCell ref="AR1:AW2"/>
     <mergeCell ref="F26:R26"/>
     <mergeCell ref="F20:R20"/>
     <mergeCell ref="F21:R21"/>
@@ -4310,303 +4480,303 @@
     <mergeCell ref="F16:R16"/>
     <mergeCell ref="F17:R17"/>
     <mergeCell ref="F18:R18"/>
-    <mergeCell ref="AV1:AV2"/>
-    <mergeCell ref="AX9:BB9"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AP11:AQ11"/>
+    <mergeCell ref="AX1:AX2"/>
+    <mergeCell ref="AZ9:BD9"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AR11:AS11"/>
     <mergeCell ref="F5:R6"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AP7:AQ7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AR8:AS8"/>
+    <mergeCell ref="AX6:AY6"/>
+    <mergeCell ref="AR7:AS7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AT8:AU8"/>
     <mergeCell ref="G4:R4"/>
     <mergeCell ref="K2:P2"/>
     <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="AI2:AN2"/>
-    <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="AI1:AN1"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="F8:R8"/>
-    <mergeCell ref="F9:R9"/>
-    <mergeCell ref="F10:R10"/>
+    <mergeCell ref="AK2:AP2"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="S5:Y5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="B5:E6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="S7:Y7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
     <mergeCell ref="F11:R11"/>
-    <mergeCell ref="AX24:BB24"/>
-    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AZ24:BD24"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="AE10:AF10"/>
     <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AP14:AQ14"/>
-    <mergeCell ref="AV16:AW16"/>
-    <mergeCell ref="AV19:AW19"/>
-    <mergeCell ref="AR20:AS20"/>
-    <mergeCell ref="AR9:AS9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AR14:AS14"/>
+    <mergeCell ref="AX16:AY16"/>
+    <mergeCell ref="AX19:AY19"/>
+    <mergeCell ref="AT20:AU20"/>
+    <mergeCell ref="AX24:AY24"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AT18:AU18"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AR19:AS19"/>
     <mergeCell ref="AT19:AU19"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AP22:AQ22"/>
-    <mergeCell ref="AR22:AS22"/>
-    <mergeCell ref="S22:W22"/>
-    <mergeCell ref="X22:Z22"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="F19:R19"/>
+    <mergeCell ref="AX11:AY11"/>
+    <mergeCell ref="AZ11:BD11"/>
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AR10:AS10"/>
     <mergeCell ref="F12:R12"/>
     <mergeCell ref="F13:R13"/>
     <mergeCell ref="F14:R14"/>
     <mergeCell ref="F15:R15"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="X5:Z6"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="S5:W5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="B5:E6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="AR21:AS21"/>
     <mergeCell ref="AT21:AU21"/>
     <mergeCell ref="AV21:AW21"/>
+    <mergeCell ref="AX21:AY21"/>
+    <mergeCell ref="AV22:AW22"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AR18:AS18"/>
+    <mergeCell ref="AV19:AW19"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AR22:AS22"/>
     <mergeCell ref="AT22:AU22"/>
-    <mergeCell ref="AT23:AU23"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AP18:AQ18"/>
-    <mergeCell ref="AR18:AS18"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AP19:AQ19"/>
-    <mergeCell ref="AR19:AS19"/>
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="AH4:AO4"/>
-    <mergeCell ref="AX20:BB20"/>
-    <mergeCell ref="AX21:BB21"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AP20:AQ20"/>
-    <mergeCell ref="AV22:AW22"/>
-    <mergeCell ref="AX22:BB22"/>
-    <mergeCell ref="AT20:AU20"/>
-    <mergeCell ref="AV20:AW20"/>
-    <mergeCell ref="AX23:BB23"/>
-    <mergeCell ref="AR23:AS23"/>
-    <mergeCell ref="AX16:BB16"/>
-    <mergeCell ref="AX12:BB12"/>
-    <mergeCell ref="AX13:BB13"/>
-    <mergeCell ref="AR14:AS14"/>
-    <mergeCell ref="AP16:AQ16"/>
+    <mergeCell ref="S22:Y22"/>
+    <mergeCell ref="Z22:AB22"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="F19:R19"/>
+    <mergeCell ref="AZ12:BD12"/>
+    <mergeCell ref="AZ13:BD13"/>
+    <mergeCell ref="AT14:AU14"/>
     <mergeCell ref="AR16:AS16"/>
     <mergeCell ref="AT16:AU16"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AV16:AW16"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AR9:AS9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="AX9:AY9"/>
+    <mergeCell ref="AZ21:BD21"/>
+    <mergeCell ref="AX23:AY23"/>
+    <mergeCell ref="AR20:AS20"/>
+    <mergeCell ref="AX22:AY22"/>
+    <mergeCell ref="AZ22:BD22"/>
+    <mergeCell ref="AV20:AW20"/>
+    <mergeCell ref="AX20:AY20"/>
+    <mergeCell ref="AZ23:BD23"/>
+    <mergeCell ref="AT23:AU23"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="F7:R7"/>
+    <mergeCell ref="AZ7:BD7"/>
+    <mergeCell ref="AT7:AU7"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AR4:AU4"/>
+    <mergeCell ref="AV4:AY4"/>
+    <mergeCell ref="AJ4:AQ4"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="AK1:AP1"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="Z5:AB6"/>
+    <mergeCell ref="S6:Y6"/>
+    <mergeCell ref="AR8:AS8"/>
+    <mergeCell ref="AZ4:BD6"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="AV8:AW8"/>
+    <mergeCell ref="AX8:AY8"/>
+    <mergeCell ref="AZ8:BD8"/>
+    <mergeCell ref="AX7:AY7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AT5:AU5"/>
+    <mergeCell ref="AT6:AU6"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="AR5:AS5"/>
     <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AP9:AQ9"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="S7:W7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AO1:AO2"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="F7:R7"/>
-    <mergeCell ref="AX7:BB7"/>
-    <mergeCell ref="AR7:AS7"/>
-    <mergeCell ref="AT7:AU7"/>
-    <mergeCell ref="AV8:AW8"/>
-    <mergeCell ref="AX8:BB8"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AR5:AS5"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="AT6:AU6"/>
-    <mergeCell ref="AI5:AO5"/>
-    <mergeCell ref="AP5:AQ5"/>
-    <mergeCell ref="S8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="S10:Y10"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="S9:Y9"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="S8:Y8"/>
+    <mergeCell ref="Z8:AB8"/>
     <mergeCell ref="AC8:AD8"/>
     <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AP8:AQ8"/>
-    <mergeCell ref="AX4:BB6"/>
-    <mergeCell ref="AP6:AQ6"/>
-    <mergeCell ref="AT8:AU8"/>
-    <mergeCell ref="AE9:AF9"/>
     <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="S10:W10"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="AX11:BB11"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AP10:AQ10"/>
-    <mergeCell ref="AR10:AS10"/>
+    <mergeCell ref="F8:R8"/>
+    <mergeCell ref="F9:R9"/>
+    <mergeCell ref="F10:R10"/>
     <mergeCell ref="AT10:AU10"/>
     <mergeCell ref="AV10:AW10"/>
-    <mergeCell ref="AX10:BB10"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AX10:AY10"/>
+    <mergeCell ref="AZ10:BD10"/>
+    <mergeCell ref="Z11:AB11"/>
     <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
     <mergeCell ref="B13:E13"/>
-    <mergeCell ref="S13:W13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="S13:Y13"/>
+    <mergeCell ref="Z13:AB13"/>
     <mergeCell ref="AC13:AD13"/>
     <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AR11:AS11"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AG11:AH11"/>
     <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="AV11:AW11"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="S11:W11"/>
+    <mergeCell ref="S11:Y11"/>
     <mergeCell ref="B12:E12"/>
-    <mergeCell ref="S12:W12"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AP13:AQ13"/>
+    <mergeCell ref="S12:Y12"/>
+    <mergeCell ref="AI13:AJ13"/>
     <mergeCell ref="AR13:AS13"/>
     <mergeCell ref="AT13:AU13"/>
     <mergeCell ref="AV13:AW13"/>
-    <mergeCell ref="AT14:AU14"/>
+    <mergeCell ref="AX13:AY13"/>
     <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="AP12:AQ12"/>
+    <mergeCell ref="AX14:AY14"/>
     <mergeCell ref="AR12:AS12"/>
     <mergeCell ref="AT12:AU12"/>
     <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AX14:BB14"/>
+    <mergeCell ref="AX12:AY12"/>
+    <mergeCell ref="AZ14:BD14"/>
     <mergeCell ref="B15:E15"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="S15:Y15"/>
+    <mergeCell ref="Z15:AB15"/>
     <mergeCell ref="AC15:AD15"/>
     <mergeCell ref="AE15:AF15"/>
     <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AP15:AQ15"/>
+    <mergeCell ref="AI15:AJ15"/>
     <mergeCell ref="AR15:AS15"/>
-    <mergeCell ref="S14:W14"/>
+    <mergeCell ref="AT15:AU15"/>
+    <mergeCell ref="S14:Y14"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AT15:AU15"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="Z14:AB14"/>
+    <mergeCell ref="AC14:AD14"/>
     <mergeCell ref="AV15:AW15"/>
-    <mergeCell ref="AX15:BB15"/>
+    <mergeCell ref="AX15:AY15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="S17:Y17"/>
+    <mergeCell ref="Z17:AB17"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AZ15:BD15"/>
     <mergeCell ref="B16:E16"/>
-    <mergeCell ref="S16:W16"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="S16:Y16"/>
+    <mergeCell ref="Z16:AB16"/>
     <mergeCell ref="AC16:AD16"/>
     <mergeCell ref="AE16:AF16"/>
     <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AP17:AQ17"/>
+    <mergeCell ref="AI16:AJ16"/>
     <mergeCell ref="AR17:AS17"/>
     <mergeCell ref="AT17:AU17"/>
     <mergeCell ref="AV17:AW17"/>
-    <mergeCell ref="AX17:BB17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="S18:W18"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="S17:W17"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AX19:BB19"/>
+    <mergeCell ref="AX17:AY17"/>
+    <mergeCell ref="AZ17:BD17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AZ16:BD16"/>
+    <mergeCell ref="AZ19:BD19"/>
     <mergeCell ref="B20:E20"/>
-    <mergeCell ref="S20:W20"/>
-    <mergeCell ref="X20:Z20"/>
-    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="S20:Y20"/>
+    <mergeCell ref="Z20:AB20"/>
     <mergeCell ref="AC20:AD20"/>
     <mergeCell ref="AE20:AF20"/>
     <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AT18:AU18"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AG18:AH18"/>
     <mergeCell ref="AV18:AW18"/>
-    <mergeCell ref="AX18:BB18"/>
+    <mergeCell ref="AX18:AY18"/>
+    <mergeCell ref="AZ18:BD18"/>
     <mergeCell ref="B19:E19"/>
-    <mergeCell ref="S19:W19"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="S19:Y19"/>
+    <mergeCell ref="Z19:AB19"/>
     <mergeCell ref="AC19:AD19"/>
     <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AP21:AQ21"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="S18:Y18"/>
+    <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AZ20:BD20"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AR21:AS21"/>
     <mergeCell ref="B23:E23"/>
-    <mergeCell ref="S23:W23"/>
-    <mergeCell ref="X23:Z23"/>
-    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="S23:Y23"/>
+    <mergeCell ref="Z23:AB23"/>
     <mergeCell ref="AC23:AD23"/>
     <mergeCell ref="AE23:AF23"/>
     <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AP23:AQ23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AR23:AS23"/>
     <mergeCell ref="B21:E21"/>
-    <mergeCell ref="S21:W21"/>
-    <mergeCell ref="X21:Z21"/>
-    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="S21:Y21"/>
+    <mergeCell ref="Z21:AB21"/>
     <mergeCell ref="AC21:AD21"/>
     <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AX25:BB25"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AZ25:BD25"/>
     <mergeCell ref="B26:E26"/>
-    <mergeCell ref="S26:W26"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="AX26:BB26"/>
-    <mergeCell ref="AP26:AQ26"/>
+    <mergeCell ref="S26:Y26"/>
+    <mergeCell ref="Z26:AB26"/>
+    <mergeCell ref="AZ26:BD26"/>
+    <mergeCell ref="AR26:AS26"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AR24:AS24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="S25:Y25"/>
+    <mergeCell ref="Z25:AB25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="F25:R25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="S24:Y24"/>
+    <mergeCell ref="Z24:AB24"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="F24:R24"/>
     <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AP24:AQ24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="S25:W25"/>
-    <mergeCell ref="X25:Z25"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="F25:R25"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="X24:Z24"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="F24:R24"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AR24:AS24"/>
     <mergeCell ref="AT24:AU24"/>
-    <mergeCell ref="AR26:AS26"/>
+    <mergeCell ref="AV24:AW24"/>
     <mergeCell ref="AT26:AU26"/>
     <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AX26:AY26"/>
     <mergeCell ref="AC26:AD26"/>
     <mergeCell ref="AE26:AF26"/>
     <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AP25:AQ25"/>
+    <mergeCell ref="AI26:AJ26"/>
     <mergeCell ref="AR25:AS25"/>
     <mergeCell ref="AT25:AU25"/>
     <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="AX25:AY25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
-    <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:E26 K2:P2 AI2:AN2 S7:AH26 AP7:AW26"/>
-    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:V2 AP1 AI7:AO26 F7:R26 AX7:BB26 AW1"/>
+    <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:E26 K2:P2 AK2:AP2 S7:AJ26 AR7:AY26"/>
+    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:X2 AR1 AK7:AQ26 F7:R26 AZ7:BD26 AY1"/>
   </dataValidations>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0" header="0" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/doc/unfinished/5_ﾄﾗﾌﾞﾙ管理表.xlsx
+++ b/doc/unfinished/5_ﾄﾗﾌﾞﾙ管理表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>クラス名</t>
   </si>
@@ -150,6 +150,64 @@
     <t>スタイルシート</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>出力異常</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ホテル検索結果</t>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パラメータ異常</t>
+    <rPh sb="5" eb="7">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ページ遷移異常</t>
+    <rPh sb="3" eb="5">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フロントコントローラー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ホテル詳細画面</t>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -157,7 +215,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m/d"/>
-    <numFmt numFmtId="178" formatCode="m/d;@"/>
+    <numFmt numFmtId="177" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -971,219 +1029,219 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1932,8 +1990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ165"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AX9" sqref="AX9:AY9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C3" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="AX13" sqref="AX13:AY13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1944,34 +2002,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" s="6" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="90" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="87" t="s">
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="89"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="98"/>
       <c r="W1" s="53"/>
       <c r="X1" s="53"/>
       <c r="Y1" s="3"/>
@@ -1986,64 +2044,64 @@
       <c r="AH1" s="4"/>
       <c r="AI1" s="4"/>
       <c r="AJ1" s="5"/>
-      <c r="AK1" s="87" t="s">
+      <c r="AK1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="AL1" s="88"/>
-      <c r="AM1" s="88"/>
-      <c r="AN1" s="88"/>
-      <c r="AO1" s="88"/>
-      <c r="AP1" s="89"/>
-      <c r="AQ1" s="79" t="s">
+      <c r="AL1" s="97"/>
+      <c r="AM1" s="97"/>
+      <c r="AN1" s="97"/>
+      <c r="AO1" s="97"/>
+      <c r="AP1" s="98"/>
+      <c r="AQ1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="97" t="s">
+      <c r="AR1" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="AS1" s="98"/>
-      <c r="AT1" s="98"/>
-      <c r="AU1" s="98"/>
-      <c r="AV1" s="98"/>
-      <c r="AW1" s="99"/>
-      <c r="AX1" s="79" t="s">
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="56"/>
+      <c r="AV1" s="56"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="97"/>
-      <c r="AZ1" s="98"/>
-      <c r="BA1" s="98"/>
-      <c r="BB1" s="98"/>
-      <c r="BC1" s="98"/>
-      <c r="BD1" s="99"/>
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="56"/>
+      <c r="BA1" s="56"/>
+      <c r="BB1" s="56"/>
+      <c r="BC1" s="56"/>
+      <c r="BD1" s="57"/>
     </row>
     <row r="2" spans="1:62" s="10" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="94"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="106" t="s">
+      <c r="A2" s="103"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="109" t="s">
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="113"/>
-      <c r="X2" s="113"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
@@ -2056,177 +2114,177 @@
       <c r="AH2" s="8"/>
       <c r="AI2" s="8"/>
       <c r="AJ2" s="9"/>
-      <c r="AK2" s="110">
+      <c r="AK2" s="83">
         <v>42906</v>
       </c>
-      <c r="AL2" s="107"/>
-      <c r="AM2" s="107"/>
-      <c r="AN2" s="107"/>
-      <c r="AO2" s="107"/>
-      <c r="AP2" s="108"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="100"/>
-      <c r="AS2" s="101"/>
-      <c r="AT2" s="101"/>
-      <c r="AU2" s="101"/>
-      <c r="AV2" s="101"/>
-      <c r="AW2" s="102"/>
-      <c r="AX2" s="80"/>
-      <c r="AY2" s="100"/>
-      <c r="AZ2" s="101"/>
-      <c r="BA2" s="101"/>
-      <c r="BB2" s="101"/>
-      <c r="BC2" s="101"/>
-      <c r="BD2" s="102"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80"/>
+      <c r="AP2" s="81"/>
+      <c r="AQ2" s="68"/>
+      <c r="AR2" s="58"/>
+      <c r="AS2" s="59"/>
+      <c r="AT2" s="59"/>
+      <c r="AU2" s="59"/>
+      <c r="AV2" s="59"/>
+      <c r="AW2" s="60"/>
+      <c r="AX2" s="68"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="59"/>
+      <c r="BA2" s="59"/>
+      <c r="BB2" s="59"/>
+      <c r="BC2" s="59"/>
+      <c r="BD2" s="60"/>
     </row>
     <row r="3" spans="1:62" ht="6.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:62" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11"/>
       <c r="B4" s="48"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
       <c r="F4" s="48"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78"/>
       <c r="S4" s="48"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="72"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="78"/>
+      <c r="X4" s="78"/>
+      <c r="Y4" s="78"/>
       <c r="Z4" s="48"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="72"/>
-      <c r="AC4" s="72"/>
-      <c r="AD4" s="72"/>
-      <c r="AE4" s="72"/>
-      <c r="AF4" s="72"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="78"/>
+      <c r="AC4" s="78"/>
+      <c r="AD4" s="78"/>
+      <c r="AE4" s="78"/>
+      <c r="AF4" s="78"/>
       <c r="AG4" s="48"/>
       <c r="AH4" s="12"/>
       <c r="AI4" s="49"/>
-      <c r="AJ4" s="86" t="s">
+      <c r="AJ4" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="AK4" s="85"/>
-      <c r="AL4" s="85"/>
-      <c r="AM4" s="85"/>
-      <c r="AN4" s="85"/>
-      <c r="AO4" s="85"/>
-      <c r="AP4" s="85"/>
-      <c r="AQ4" s="85"/>
-      <c r="AR4" s="85" t="s">
+      <c r="AK4" s="94"/>
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="94"/>
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94"/>
+      <c r="AQ4" s="94"/>
+      <c r="AR4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="AS4" s="85"/>
-      <c r="AT4" s="85"/>
-      <c r="AU4" s="85"/>
-      <c r="AV4" s="85" t="s">
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="94"/>
+      <c r="AU4" s="94"/>
+      <c r="AV4" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="AW4" s="85"/>
-      <c r="AX4" s="85"/>
-      <c r="AY4" s="85"/>
-      <c r="AZ4" s="72" t="s">
+      <c r="AW4" s="94"/>
+      <c r="AX4" s="94"/>
+      <c r="AY4" s="94"/>
+      <c r="AZ4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="BA4" s="72"/>
-      <c r="BB4" s="72"/>
-      <c r="BC4" s="72"/>
-      <c r="BD4" s="72"/>
+      <c r="BA4" s="78"/>
+      <c r="BB4" s="78"/>
+      <c r="BC4" s="78"/>
+      <c r="BD4" s="78"/>
     </row>
     <row r="5" spans="1:62" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73" t="s">
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="73" t="s">
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="T5" s="73"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
-      <c r="W5" s="73"/>
-      <c r="X5" s="73"/>
-      <c r="Y5" s="73"/>
-      <c r="Z5" s="73" t="s">
+      <c r="T5" s="72"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="72"/>
+      <c r="X5" s="72"/>
+      <c r="Y5" s="72"/>
+      <c r="Z5" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="AA5" s="73"/>
-      <c r="AB5" s="73"/>
-      <c r="AC5" s="73" t="s">
+      <c r="AA5" s="72"/>
+      <c r="AB5" s="72"/>
+      <c r="AC5" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="AD5" s="73"/>
-      <c r="AE5" s="73" t="s">
+      <c r="AD5" s="72"/>
+      <c r="AE5" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="AF5" s="73"/>
-      <c r="AG5" s="73" t="s">
+      <c r="AF5" s="72"/>
+      <c r="AG5" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="AH5" s="73"/>
-      <c r="AI5" s="73" t="s">
+      <c r="AH5" s="72"/>
+      <c r="AI5" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="AJ5" s="73"/>
-      <c r="AK5" s="77" t="s">
+      <c r="AJ5" s="72"/>
+      <c r="AK5" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="AL5" s="77"/>
-      <c r="AM5" s="77"/>
-      <c r="AN5" s="77"/>
-      <c r="AO5" s="77"/>
-      <c r="AP5" s="77"/>
-      <c r="AQ5" s="77"/>
-      <c r="AR5" s="73" t="s">
+      <c r="AL5" s="106"/>
+      <c r="AM5" s="106"/>
+      <c r="AN5" s="106"/>
+      <c r="AO5" s="106"/>
+      <c r="AP5" s="106"/>
+      <c r="AQ5" s="106"/>
+      <c r="AR5" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="AS5" s="73"/>
-      <c r="AT5" s="73" t="s">
+      <c r="AS5" s="72"/>
+      <c r="AT5" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="AU5" s="73"/>
+      <c r="AU5" s="72"/>
       <c r="AV5" s="50"/>
       <c r="AW5" s="14"/>
       <c r="AX5" s="51"/>
       <c r="AY5" s="14"/>
-      <c r="AZ5" s="73"/>
-      <c r="BA5" s="73"/>
-      <c r="BB5" s="73"/>
-      <c r="BC5" s="73"/>
-      <c r="BD5" s="73"/>
+      <c r="AZ5" s="72"/>
+      <c r="BA5" s="72"/>
+      <c r="BB5" s="72"/>
+      <c r="BC5" s="72"/>
+      <c r="BD5" s="72"/>
       <c r="BE5" s="15"/>
       <c r="BF5" s="15"/>
       <c r="BG5" s="15"/>
@@ -2235,52 +2293,52 @@
       <c r="BJ5" s="15"/>
     </row>
     <row r="6" spans="1:62" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="74"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="74" t="s">
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="74"/>
-      <c r="U6" s="74"/>
-      <c r="V6" s="74"/>
-      <c r="W6" s="74"/>
-      <c r="X6" s="74"/>
-      <c r="Y6" s="74"/>
-      <c r="Z6" s="74"/>
-      <c r="AA6" s="74"/>
-      <c r="AB6" s="74"/>
-      <c r="AC6" s="74" t="s">
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="73"/>
+      <c r="AA6" s="73"/>
+      <c r="AB6" s="73"/>
+      <c r="AC6" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="AD6" s="74"/>
-      <c r="AE6" s="74" t="s">
+      <c r="AD6" s="73"/>
+      <c r="AE6" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="AF6" s="74"/>
-      <c r="AG6" s="74" t="s">
+      <c r="AF6" s="73"/>
+      <c r="AG6" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="AH6" s="74"/>
-      <c r="AI6" s="74" t="s">
+      <c r="AH6" s="73"/>
+      <c r="AI6" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="AJ6" s="74"/>
+      <c r="AJ6" s="73"/>
       <c r="AK6" s="34">
         <v>1</v>
       </c>
@@ -2302,27 +2360,27 @@
       <c r="AQ6" s="36">
         <v>7</v>
       </c>
-      <c r="AR6" s="74" t="s">
+      <c r="AR6" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="AS6" s="74"/>
-      <c r="AT6" s="74" t="s">
+      <c r="AS6" s="73"/>
+      <c r="AT6" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="AU6" s="74"/>
-      <c r="AV6" s="74" t="s">
+      <c r="AU6" s="73"/>
+      <c r="AV6" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="AW6" s="74"/>
-      <c r="AX6" s="74" t="s">
+      <c r="AW6" s="73"/>
+      <c r="AX6" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="AY6" s="74"/>
-      <c r="AZ6" s="74"/>
-      <c r="BA6" s="74"/>
-      <c r="BB6" s="74"/>
-      <c r="BC6" s="74"/>
-      <c r="BD6" s="74"/>
+      <c r="AY6" s="73"/>
+      <c r="AZ6" s="73"/>
+      <c r="BA6" s="73"/>
+      <c r="BB6" s="73"/>
+      <c r="BC6" s="73"/>
+      <c r="BD6" s="73"/>
       <c r="BE6" s="17"/>
       <c r="BF6" s="17"/>
       <c r="BG6" s="18"/>
@@ -2334,27 +2392,27 @@
       <c r="A7" s="19">
         <v>1</v>
       </c>
-      <c r="B7" s="76">
+      <c r="B7" s="75">
         <v>1</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="81" t="s">
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="83"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="92"/>
+      <c r="R7" s="93"/>
       <c r="S7" s="84" t="s">
         <v>32</v>
       </c>
@@ -2364,27 +2422,27 @@
       <c r="W7" s="84"/>
       <c r="X7" s="84"/>
       <c r="Y7" s="84"/>
-      <c r="Z7" s="75">
+      <c r="Z7" s="85">
         <v>42907</v>
       </c>
-      <c r="AA7" s="75"/>
-      <c r="AB7" s="75"/>
-      <c r="AC7" s="75">
+      <c r="AA7" s="85"/>
+      <c r="AB7" s="85"/>
+      <c r="AC7" s="85">
         <v>42907</v>
       </c>
-      <c r="AD7" s="75"/>
-      <c r="AE7" s="75">
+      <c r="AD7" s="85"/>
+      <c r="AE7" s="85">
         <v>42907</v>
       </c>
-      <c r="AF7" s="75"/>
-      <c r="AG7" s="76">
+      <c r="AF7" s="85"/>
+      <c r="AG7" s="75">
         <v>5</v>
       </c>
-      <c r="AH7" s="76"/>
-      <c r="AI7" s="76">
+      <c r="AH7" s="75"/>
+      <c r="AI7" s="75">
         <v>3</v>
       </c>
-      <c r="AJ7" s="76"/>
+      <c r="AJ7" s="75"/>
       <c r="AK7" s="37"/>
       <c r="AL7" s="38"/>
       <c r="AM7" s="38"/>
@@ -2392,22 +2450,22 @@
       <c r="AO7" s="38"/>
       <c r="AP7" s="38"/>
       <c r="AQ7" s="39"/>
-      <c r="AR7" s="111">
+      <c r="AR7" s="74">
         <v>42907</v>
       </c>
-      <c r="AS7" s="111"/>
-      <c r="AT7" s="111">
+      <c r="AS7" s="74"/>
+      <c r="AT7" s="74">
         <v>42907</v>
       </c>
-      <c r="AU7" s="111"/>
-      <c r="AV7" s="75">
+      <c r="AU7" s="74"/>
+      <c r="AV7" s="85">
         <v>42907</v>
       </c>
-      <c r="AW7" s="75"/>
-      <c r="AX7" s="75">
+      <c r="AW7" s="85"/>
+      <c r="AX7" s="85">
         <v>42907</v>
       </c>
-      <c r="AY7" s="75"/>
+      <c r="AY7" s="85"/>
       <c r="AZ7" s="84"/>
       <c r="BA7" s="84"/>
       <c r="BB7" s="84"/>
@@ -2419,57 +2477,57 @@
       <c r="A8" s="22">
         <v>2</v>
       </c>
-      <c r="B8" s="56">
+      <c r="B8" s="107">
         <v>2</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="66" t="s">
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="68"/>
-      <c r="S8" s="60" t="s">
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="T8" s="61"/>
-      <c r="U8" s="61"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="61"/>
-      <c r="X8" s="61"/>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="58">
+      <c r="T8" s="87"/>
+      <c r="U8" s="87"/>
+      <c r="V8" s="87"/>
+      <c r="W8" s="87"/>
+      <c r="X8" s="87"/>
+      <c r="Y8" s="88"/>
+      <c r="Z8" s="89">
         <v>42907</v>
       </c>
-      <c r="AA8" s="65"/>
-      <c r="AB8" s="59"/>
-      <c r="AC8" s="58">
+      <c r="AA8" s="110"/>
+      <c r="AB8" s="90"/>
+      <c r="AC8" s="89">
         <v>42907</v>
       </c>
-      <c r="AD8" s="59"/>
-      <c r="AE8" s="58">
+      <c r="AD8" s="90"/>
+      <c r="AE8" s="89">
         <v>42907</v>
       </c>
-      <c r="AF8" s="59"/>
-      <c r="AG8" s="56">
+      <c r="AF8" s="90"/>
+      <c r="AG8" s="107">
         <v>5</v>
       </c>
-      <c r="AH8" s="57"/>
-      <c r="AI8" s="56">
+      <c r="AH8" s="108"/>
+      <c r="AI8" s="107">
         <v>3</v>
       </c>
-      <c r="AJ8" s="57"/>
+      <c r="AJ8" s="108"/>
       <c r="AK8" s="40"/>
       <c r="AL8" s="41"/>
       <c r="AM8" s="41"/>
@@ -2477,68 +2535,84 @@
       <c r="AO8" s="41"/>
       <c r="AP8" s="41"/>
       <c r="AQ8" s="42"/>
-      <c r="AR8" s="112">
+      <c r="AR8" s="71">
         <v>42907</v>
       </c>
-      <c r="AS8" s="112"/>
-      <c r="AT8" s="112">
+      <c r="AS8" s="71"/>
+      <c r="AT8" s="71">
         <v>42907</v>
       </c>
-      <c r="AU8" s="112"/>
-      <c r="AV8" s="58">
+      <c r="AU8" s="71"/>
+      <c r="AV8" s="89">
         <v>42907</v>
       </c>
-      <c r="AW8" s="59"/>
-      <c r="AX8" s="58">
+      <c r="AW8" s="90"/>
+      <c r="AX8" s="89">
         <v>42907</v>
       </c>
-      <c r="AY8" s="59"/>
-      <c r="AZ8" s="60"/>
-      <c r="BA8" s="61"/>
-      <c r="BB8" s="61"/>
-      <c r="BC8" s="61"/>
-      <c r="BD8" s="62"/>
+      <c r="AY8" s="90"/>
+      <c r="AZ8" s="86"/>
+      <c r="BA8" s="87"/>
+      <c r="BB8" s="87"/>
+      <c r="BC8" s="87"/>
+      <c r="BD8" s="88"/>
       <c r="BE8" s="23"/>
     </row>
     <row r="9" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="22">
         <v>3</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="70"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="70"/>
-      <c r="V9" s="70"/>
-      <c r="W9" s="70"/>
-      <c r="X9" s="70"/>
-      <c r="Y9" s="70"/>
-      <c r="Z9" s="71"/>
-      <c r="AA9" s="71"/>
-      <c r="AB9" s="71"/>
-      <c r="AC9" s="71"/>
-      <c r="AD9" s="71"/>
-      <c r="AE9" s="71"/>
-      <c r="AF9" s="71"/>
-      <c r="AG9" s="69"/>
-      <c r="AH9" s="69"/>
-      <c r="AI9" s="69"/>
-      <c r="AJ9" s="69"/>
+      <c r="B9" s="70">
+        <v>3</v>
+      </c>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" s="69"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="69"/>
+      <c r="W9" s="69"/>
+      <c r="X9" s="69"/>
+      <c r="Y9" s="69"/>
+      <c r="Z9" s="76">
+        <v>42907</v>
+      </c>
+      <c r="AA9" s="76"/>
+      <c r="AB9" s="76"/>
+      <c r="AC9" s="76">
+        <v>42907</v>
+      </c>
+      <c r="AD9" s="76"/>
+      <c r="AE9" s="76">
+        <v>42907</v>
+      </c>
+      <c r="AF9" s="76"/>
+      <c r="AG9" s="70">
+        <v>5</v>
+      </c>
+      <c r="AH9" s="70"/>
+      <c r="AI9" s="70">
+        <v>3</v>
+      </c>
+      <c r="AJ9" s="70"/>
       <c r="AK9" s="40"/>
       <c r="AL9" s="41"/>
       <c r="AM9" s="41"/>
@@ -2546,60 +2620,84 @@
       <c r="AO9" s="41"/>
       <c r="AP9" s="41"/>
       <c r="AQ9" s="42"/>
-      <c r="AR9" s="112"/>
-      <c r="AS9" s="112"/>
-      <c r="AT9" s="112"/>
-      <c r="AU9" s="112"/>
-      <c r="AV9" s="71"/>
-      <c r="AW9" s="71"/>
-      <c r="AX9" s="71"/>
-      <c r="AY9" s="71"/>
-      <c r="AZ9" s="70"/>
-      <c r="BA9" s="70"/>
-      <c r="BB9" s="70"/>
-      <c r="BC9" s="70"/>
-      <c r="BD9" s="70"/>
+      <c r="AR9" s="71">
+        <v>42907</v>
+      </c>
+      <c r="AS9" s="71"/>
+      <c r="AT9" s="71">
+        <v>42907</v>
+      </c>
+      <c r="AU9" s="71"/>
+      <c r="AV9" s="76">
+        <v>42907</v>
+      </c>
+      <c r="AW9" s="76"/>
+      <c r="AX9" s="76">
+        <v>42907</v>
+      </c>
+      <c r="AY9" s="76"/>
+      <c r="AZ9" s="69"/>
+      <c r="BA9" s="69"/>
+      <c r="BB9" s="69"/>
+      <c r="BC9" s="69"/>
+      <c r="BD9" s="69"/>
       <c r="BE9" s="23"/>
     </row>
     <row r="10" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22">
         <v>4</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="68"/>
-      <c r="S10" s="70"/>
-      <c r="T10" s="70"/>
-      <c r="U10" s="70"/>
-      <c r="V10" s="70"/>
-      <c r="W10" s="70"/>
-      <c r="X10" s="70"/>
-      <c r="Y10" s="70"/>
-      <c r="Z10" s="71"/>
-      <c r="AA10" s="71"/>
-      <c r="AB10" s="71"/>
-      <c r="AC10" s="71"/>
-      <c r="AD10" s="71"/>
-      <c r="AE10" s="71"/>
-      <c r="AF10" s="71"/>
-      <c r="AG10" s="69"/>
-      <c r="AH10" s="69"/>
-      <c r="AI10" s="69"/>
-      <c r="AJ10" s="69"/>
+      <c r="B10" s="70">
+        <v>4</v>
+      </c>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" s="69"/>
+      <c r="U10" s="69"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="69"/>
+      <c r="X10" s="69"/>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="76">
+        <v>42907</v>
+      </c>
+      <c r="AA10" s="76"/>
+      <c r="AB10" s="76"/>
+      <c r="AC10" s="76">
+        <v>42907</v>
+      </c>
+      <c r="AD10" s="76"/>
+      <c r="AE10" s="76">
+        <v>42907</v>
+      </c>
+      <c r="AF10" s="76"/>
+      <c r="AG10" s="70">
+        <v>5</v>
+      </c>
+      <c r="AH10" s="70"/>
+      <c r="AI10" s="70">
+        <v>3</v>
+      </c>
+      <c r="AJ10" s="70"/>
       <c r="AK10" s="40"/>
       <c r="AL10" s="41"/>
       <c r="AM10" s="41"/>
@@ -2607,60 +2705,84 @@
       <c r="AO10" s="41"/>
       <c r="AP10" s="41"/>
       <c r="AQ10" s="42"/>
-      <c r="AR10" s="112"/>
-      <c r="AS10" s="112"/>
-      <c r="AT10" s="112"/>
-      <c r="AU10" s="112"/>
-      <c r="AV10" s="71"/>
+      <c r="AR10" s="71">
+        <v>42907</v>
+      </c>
+      <c r="AS10" s="71"/>
+      <c r="AT10" s="71">
+        <v>42907</v>
+      </c>
+      <c r="AU10" s="71"/>
+      <c r="AV10" s="71">
+        <v>42907</v>
+      </c>
       <c r="AW10" s="71"/>
-      <c r="AX10" s="71"/>
+      <c r="AX10" s="71">
+        <v>42907</v>
+      </c>
       <c r="AY10" s="71"/>
-      <c r="AZ10" s="70"/>
-      <c r="BA10" s="70"/>
-      <c r="BB10" s="70"/>
-      <c r="BC10" s="70"/>
-      <c r="BD10" s="70"/>
+      <c r="AZ10" s="69"/>
+      <c r="BA10" s="69"/>
+      <c r="BB10" s="69"/>
+      <c r="BC10" s="69"/>
+      <c r="BD10" s="69"/>
       <c r="BE10" s="23"/>
     </row>
     <row r="11" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22">
         <v>5</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="70"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="70"/>
-      <c r="V11" s="70"/>
-      <c r="W11" s="70"/>
-      <c r="X11" s="70"/>
-      <c r="Y11" s="70"/>
-      <c r="Z11" s="71"/>
-      <c r="AA11" s="71"/>
-      <c r="AB11" s="71"/>
-      <c r="AC11" s="71"/>
-      <c r="AD11" s="71"/>
-      <c r="AE11" s="71"/>
-      <c r="AF11" s="71"/>
-      <c r="AG11" s="69"/>
-      <c r="AH11" s="69"/>
-      <c r="AI11" s="69"/>
-      <c r="AJ11" s="69"/>
+      <c r="B11" s="70">
+        <v>5</v>
+      </c>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="T11" s="69"/>
+      <c r="U11" s="69"/>
+      <c r="V11" s="69"/>
+      <c r="W11" s="69"/>
+      <c r="X11" s="69"/>
+      <c r="Y11" s="69"/>
+      <c r="Z11" s="76">
+        <v>42907</v>
+      </c>
+      <c r="AA11" s="76"/>
+      <c r="AB11" s="76"/>
+      <c r="AC11" s="76">
+        <v>42907</v>
+      </c>
+      <c r="AD11" s="76"/>
+      <c r="AE11" s="76">
+        <v>42907</v>
+      </c>
+      <c r="AF11" s="76"/>
+      <c r="AG11" s="70">
+        <v>5</v>
+      </c>
+      <c r="AH11" s="70"/>
+      <c r="AI11" s="70">
+        <v>3</v>
+      </c>
+      <c r="AJ11" s="70"/>
       <c r="AK11" s="40"/>
       <c r="AL11" s="41"/>
       <c r="AM11" s="41"/>
@@ -2668,60 +2790,84 @@
       <c r="AO11" s="41"/>
       <c r="AP11" s="41"/>
       <c r="AQ11" s="42"/>
-      <c r="AR11" s="112"/>
-      <c r="AS11" s="112"/>
-      <c r="AT11" s="112"/>
-      <c r="AU11" s="112"/>
-      <c r="AV11" s="71"/>
+      <c r="AR11" s="71">
+        <v>42907</v>
+      </c>
+      <c r="AS11" s="71"/>
+      <c r="AT11" s="71">
+        <v>42907</v>
+      </c>
+      <c r="AU11" s="71"/>
+      <c r="AV11" s="71">
+        <v>42907</v>
+      </c>
       <c r="AW11" s="71"/>
-      <c r="AX11" s="71"/>
+      <c r="AX11" s="71">
+        <v>42907</v>
+      </c>
       <c r="AY11" s="71"/>
-      <c r="AZ11" s="70"/>
-      <c r="BA11" s="70"/>
-      <c r="BB11" s="70"/>
-      <c r="BC11" s="70"/>
-      <c r="BD11" s="70"/>
+      <c r="AZ11" s="69"/>
+      <c r="BA11" s="69"/>
+      <c r="BB11" s="69"/>
+      <c r="BC11" s="69"/>
+      <c r="BD11" s="69"/>
       <c r="BE11" s="23"/>
     </row>
     <row r="12" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22">
         <v>6</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="70"/>
-      <c r="T12" s="70"/>
-      <c r="U12" s="70"/>
-      <c r="V12" s="70"/>
-      <c r="W12" s="70"/>
-      <c r="X12" s="70"/>
-      <c r="Y12" s="70"/>
-      <c r="Z12" s="71"/>
-      <c r="AA12" s="71"/>
-      <c r="AB12" s="71"/>
-      <c r="AC12" s="71"/>
-      <c r="AD12" s="71"/>
-      <c r="AE12" s="71"/>
-      <c r="AF12" s="71"/>
-      <c r="AG12" s="69"/>
-      <c r="AH12" s="69"/>
-      <c r="AI12" s="69"/>
-      <c r="AJ12" s="69"/>
+      <c r="B12" s="70">
+        <v>6</v>
+      </c>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="T12" s="69"/>
+      <c r="U12" s="69"/>
+      <c r="V12" s="69"/>
+      <c r="W12" s="69"/>
+      <c r="X12" s="69"/>
+      <c r="Y12" s="69"/>
+      <c r="Z12" s="76">
+        <v>42907</v>
+      </c>
+      <c r="AA12" s="76"/>
+      <c r="AB12" s="76"/>
+      <c r="AC12" s="76">
+        <v>42907</v>
+      </c>
+      <c r="AD12" s="76"/>
+      <c r="AE12" s="76">
+        <v>42907</v>
+      </c>
+      <c r="AF12" s="76"/>
+      <c r="AG12" s="70">
+        <v>5</v>
+      </c>
+      <c r="AH12" s="70"/>
+      <c r="AI12" s="70">
+        <v>3</v>
+      </c>
+      <c r="AJ12" s="70"/>
       <c r="AK12" s="40"/>
       <c r="AL12" s="41"/>
       <c r="AM12" s="41"/>
@@ -2729,60 +2875,84 @@
       <c r="AO12" s="41"/>
       <c r="AP12" s="41"/>
       <c r="AQ12" s="42"/>
-      <c r="AR12" s="112"/>
-      <c r="AS12" s="112"/>
-      <c r="AT12" s="112"/>
-      <c r="AU12" s="112"/>
-      <c r="AV12" s="71"/>
-      <c r="AW12" s="71"/>
-      <c r="AX12" s="71"/>
-      <c r="AY12" s="71"/>
-      <c r="AZ12" s="70"/>
-      <c r="BA12" s="70"/>
-      <c r="BB12" s="70"/>
-      <c r="BC12" s="70"/>
-      <c r="BD12" s="70"/>
+      <c r="AR12" s="71">
+        <v>42907</v>
+      </c>
+      <c r="AS12" s="71"/>
+      <c r="AT12" s="71">
+        <v>42907</v>
+      </c>
+      <c r="AU12" s="71"/>
+      <c r="AV12" s="76">
+        <v>42907</v>
+      </c>
+      <c r="AW12" s="76"/>
+      <c r="AX12" s="76">
+        <v>42907</v>
+      </c>
+      <c r="AY12" s="76"/>
+      <c r="AZ12" s="69"/>
+      <c r="BA12" s="69"/>
+      <c r="BB12" s="69"/>
+      <c r="BC12" s="69"/>
+      <c r="BD12" s="69"/>
       <c r="BE12" s="23"/>
     </row>
     <row r="13" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22">
         <v>7</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="70"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="70"/>
-      <c r="W13" s="70"/>
-      <c r="X13" s="70"/>
-      <c r="Y13" s="70"/>
-      <c r="Z13" s="71"/>
-      <c r="AA13" s="71"/>
-      <c r="AB13" s="71"/>
-      <c r="AC13" s="71"/>
-      <c r="AD13" s="71"/>
-      <c r="AE13" s="71"/>
-      <c r="AF13" s="71"/>
-      <c r="AG13" s="69"/>
-      <c r="AH13" s="69"/>
-      <c r="AI13" s="69"/>
-      <c r="AJ13" s="69"/>
+      <c r="B13" s="70">
+        <v>7</v>
+      </c>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="T13" s="69"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="69"/>
+      <c r="W13" s="69"/>
+      <c r="X13" s="69"/>
+      <c r="Y13" s="69"/>
+      <c r="Z13" s="76">
+        <v>42907</v>
+      </c>
+      <c r="AA13" s="76"/>
+      <c r="AB13" s="76"/>
+      <c r="AC13" s="76">
+        <v>42907</v>
+      </c>
+      <c r="AD13" s="76"/>
+      <c r="AE13" s="76">
+        <v>42907</v>
+      </c>
+      <c r="AF13" s="76"/>
+      <c r="AG13" s="70">
+        <v>5</v>
+      </c>
+      <c r="AH13" s="70"/>
+      <c r="AI13" s="70">
+        <v>3</v>
+      </c>
+      <c r="AJ13" s="70"/>
       <c r="AK13" s="40"/>
       <c r="AL13" s="41"/>
       <c r="AM13" s="41"/>
@@ -2790,60 +2960,68 @@
       <c r="AO13" s="41"/>
       <c r="AP13" s="41"/>
       <c r="AQ13" s="42"/>
-      <c r="AR13" s="112"/>
-      <c r="AS13" s="112"/>
-      <c r="AT13" s="112"/>
-      <c r="AU13" s="112"/>
-      <c r="AV13" s="71"/>
-      <c r="AW13" s="71"/>
-      <c r="AX13" s="71"/>
-      <c r="AY13" s="71"/>
-      <c r="AZ13" s="70"/>
-      <c r="BA13" s="70"/>
-      <c r="BB13" s="70"/>
-      <c r="BC13" s="70"/>
-      <c r="BD13" s="70"/>
+      <c r="AR13" s="71">
+        <v>42907</v>
+      </c>
+      <c r="AS13" s="71"/>
+      <c r="AT13" s="71">
+        <v>42907</v>
+      </c>
+      <c r="AU13" s="71"/>
+      <c r="AV13" s="76">
+        <v>42907</v>
+      </c>
+      <c r="AW13" s="76"/>
+      <c r="AX13" s="76">
+        <v>42907</v>
+      </c>
+      <c r="AY13" s="76"/>
+      <c r="AZ13" s="69"/>
+      <c r="BA13" s="69"/>
+      <c r="BB13" s="69"/>
+      <c r="BC13" s="69"/>
+      <c r="BD13" s="69"/>
       <c r="BE13" s="23"/>
     </row>
     <row r="14" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="22">
         <v>8</v>
       </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="70"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="70"/>
-      <c r="W14" s="70"/>
-      <c r="X14" s="70"/>
-      <c r="Y14" s="70"/>
-      <c r="Z14" s="71"/>
-      <c r="AA14" s="71"/>
-      <c r="AB14" s="71"/>
-      <c r="AC14" s="71"/>
-      <c r="AD14" s="71"/>
-      <c r="AE14" s="71"/>
-      <c r="AF14" s="71"/>
-      <c r="AG14" s="69"/>
-      <c r="AH14" s="69"/>
-      <c r="AI14" s="69"/>
-      <c r="AJ14" s="69"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="69"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="69"/>
+      <c r="V14" s="69"/>
+      <c r="W14" s="69"/>
+      <c r="X14" s="69"/>
+      <c r="Y14" s="69"/>
+      <c r="Z14" s="76"/>
+      <c r="AA14" s="76"/>
+      <c r="AB14" s="76"/>
+      <c r="AC14" s="76"/>
+      <c r="AD14" s="76"/>
+      <c r="AE14" s="76"/>
+      <c r="AF14" s="76"/>
+      <c r="AG14" s="70"/>
+      <c r="AH14" s="70"/>
+      <c r="AI14" s="70"/>
+      <c r="AJ14" s="70"/>
       <c r="AK14" s="40"/>
       <c r="AL14" s="41"/>
       <c r="AM14" s="41"/>
@@ -2851,60 +3029,60 @@
       <c r="AO14" s="41"/>
       <c r="AP14" s="41"/>
       <c r="AQ14" s="42"/>
-      <c r="AR14" s="112"/>
-      <c r="AS14" s="112"/>
-      <c r="AT14" s="112"/>
-      <c r="AU14" s="112"/>
-      <c r="AV14" s="71"/>
-      <c r="AW14" s="71"/>
-      <c r="AX14" s="71"/>
-      <c r="AY14" s="71"/>
-      <c r="AZ14" s="70"/>
-      <c r="BA14" s="70"/>
-      <c r="BB14" s="70"/>
-      <c r="BC14" s="70"/>
-      <c r="BD14" s="70"/>
+      <c r="AR14" s="71"/>
+      <c r="AS14" s="71"/>
+      <c r="AT14" s="71"/>
+      <c r="AU14" s="71"/>
+      <c r="AV14" s="76"/>
+      <c r="AW14" s="76"/>
+      <c r="AX14" s="76"/>
+      <c r="AY14" s="76"/>
+      <c r="AZ14" s="69"/>
+      <c r="BA14" s="69"/>
+      <c r="BB14" s="69"/>
+      <c r="BC14" s="69"/>
+      <c r="BD14" s="69"/>
       <c r="BE14" s="23"/>
     </row>
     <row r="15" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="22">
         <v>9</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="70"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="70"/>
-      <c r="V15" s="70"/>
-      <c r="W15" s="70"/>
-      <c r="X15" s="70"/>
-      <c r="Y15" s="70"/>
-      <c r="Z15" s="71"/>
-      <c r="AA15" s="71"/>
-      <c r="AB15" s="71"/>
-      <c r="AC15" s="71"/>
-      <c r="AD15" s="71"/>
-      <c r="AE15" s="71"/>
-      <c r="AF15" s="71"/>
-      <c r="AG15" s="69"/>
-      <c r="AH15" s="69"/>
-      <c r="AI15" s="69"/>
-      <c r="AJ15" s="69"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="69"/>
+      <c r="T15" s="69"/>
+      <c r="U15" s="69"/>
+      <c r="V15" s="69"/>
+      <c r="W15" s="69"/>
+      <c r="X15" s="69"/>
+      <c r="Y15" s="69"/>
+      <c r="Z15" s="76"/>
+      <c r="AA15" s="76"/>
+      <c r="AB15" s="76"/>
+      <c r="AC15" s="76"/>
+      <c r="AD15" s="76"/>
+      <c r="AE15" s="76"/>
+      <c r="AF15" s="76"/>
+      <c r="AG15" s="70"/>
+      <c r="AH15" s="70"/>
+      <c r="AI15" s="70"/>
+      <c r="AJ15" s="70"/>
       <c r="AK15" s="40"/>
       <c r="AL15" s="41"/>
       <c r="AM15" s="41"/>
@@ -2912,60 +3090,60 @@
       <c r="AO15" s="41"/>
       <c r="AP15" s="41"/>
       <c r="AQ15" s="42"/>
-      <c r="AR15" s="112"/>
-      <c r="AS15" s="112"/>
-      <c r="AT15" s="112"/>
-      <c r="AU15" s="112"/>
-      <c r="AV15" s="71"/>
-      <c r="AW15" s="71"/>
-      <c r="AX15" s="71"/>
-      <c r="AY15" s="71"/>
-      <c r="AZ15" s="70"/>
-      <c r="BA15" s="70"/>
-      <c r="BB15" s="70"/>
-      <c r="BC15" s="70"/>
-      <c r="BD15" s="70"/>
+      <c r="AR15" s="71"/>
+      <c r="AS15" s="71"/>
+      <c r="AT15" s="71"/>
+      <c r="AU15" s="71"/>
+      <c r="AV15" s="76"/>
+      <c r="AW15" s="76"/>
+      <c r="AX15" s="76"/>
+      <c r="AY15" s="76"/>
+      <c r="AZ15" s="69"/>
+      <c r="BA15" s="69"/>
+      <c r="BB15" s="69"/>
+      <c r="BC15" s="69"/>
+      <c r="BD15" s="69"/>
       <c r="BE15" s="23"/>
     </row>
     <row r="16" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="22">
         <v>10</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="70"/>
-      <c r="T16" s="70"/>
-      <c r="U16" s="70"/>
-      <c r="V16" s="70"/>
-      <c r="W16" s="70"/>
-      <c r="X16" s="70"/>
-      <c r="Y16" s="70"/>
-      <c r="Z16" s="71"/>
-      <c r="AA16" s="71"/>
-      <c r="AB16" s="71"/>
-      <c r="AC16" s="71"/>
-      <c r="AD16" s="71"/>
-      <c r="AE16" s="71"/>
-      <c r="AF16" s="71"/>
-      <c r="AG16" s="69"/>
-      <c r="AH16" s="69"/>
-      <c r="AI16" s="69"/>
-      <c r="AJ16" s="69"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="69"/>
+      <c r="U16" s="69"/>
+      <c r="V16" s="69"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="69"/>
+      <c r="Y16" s="69"/>
+      <c r="Z16" s="76"/>
+      <c r="AA16" s="76"/>
+      <c r="AB16" s="76"/>
+      <c r="AC16" s="76"/>
+      <c r="AD16" s="76"/>
+      <c r="AE16" s="76"/>
+      <c r="AF16" s="76"/>
+      <c r="AG16" s="70"/>
+      <c r="AH16" s="70"/>
+      <c r="AI16" s="70"/>
+      <c r="AJ16" s="70"/>
       <c r="AK16" s="40"/>
       <c r="AL16" s="41"/>
       <c r="AM16" s="41"/>
@@ -2973,60 +3151,60 @@
       <c r="AO16" s="41"/>
       <c r="AP16" s="41"/>
       <c r="AQ16" s="42"/>
-      <c r="AR16" s="112"/>
-      <c r="AS16" s="112"/>
-      <c r="AT16" s="112"/>
-      <c r="AU16" s="112"/>
-      <c r="AV16" s="71"/>
-      <c r="AW16" s="71"/>
-      <c r="AX16" s="71"/>
-      <c r="AY16" s="71"/>
-      <c r="AZ16" s="70"/>
-      <c r="BA16" s="70"/>
-      <c r="BB16" s="70"/>
-      <c r="BC16" s="70"/>
-      <c r="BD16" s="70"/>
+      <c r="AR16" s="71"/>
+      <c r="AS16" s="71"/>
+      <c r="AT16" s="71"/>
+      <c r="AU16" s="71"/>
+      <c r="AV16" s="76"/>
+      <c r="AW16" s="76"/>
+      <c r="AX16" s="76"/>
+      <c r="AY16" s="76"/>
+      <c r="AZ16" s="69"/>
+      <c r="BA16" s="69"/>
+      <c r="BB16" s="69"/>
+      <c r="BC16" s="69"/>
+      <c r="BD16" s="69"/>
       <c r="BE16" s="23"/>
     </row>
     <row r="17" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="22">
         <v>11</v>
       </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="70"/>
-      <c r="T17" s="70"/>
-      <c r="U17" s="70"/>
-      <c r="V17" s="70"/>
-      <c r="W17" s="70"/>
-      <c r="X17" s="70"/>
-      <c r="Y17" s="70"/>
-      <c r="Z17" s="71"/>
-      <c r="AA17" s="71"/>
-      <c r="AB17" s="71"/>
-      <c r="AC17" s="71"/>
-      <c r="AD17" s="71"/>
-      <c r="AE17" s="71"/>
-      <c r="AF17" s="71"/>
-      <c r="AG17" s="69"/>
-      <c r="AH17" s="69"/>
-      <c r="AI17" s="69"/>
-      <c r="AJ17" s="69"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="69"/>
+      <c r="W17" s="69"/>
+      <c r="X17" s="69"/>
+      <c r="Y17" s="69"/>
+      <c r="Z17" s="76"/>
+      <c r="AA17" s="76"/>
+      <c r="AB17" s="76"/>
+      <c r="AC17" s="76"/>
+      <c r="AD17" s="76"/>
+      <c r="AE17" s="76"/>
+      <c r="AF17" s="76"/>
+      <c r="AG17" s="70"/>
+      <c r="AH17" s="70"/>
+      <c r="AI17" s="70"/>
+      <c r="AJ17" s="70"/>
       <c r="AK17" s="40"/>
       <c r="AL17" s="41"/>
       <c r="AM17" s="41"/>
@@ -3034,60 +3212,60 @@
       <c r="AO17" s="41"/>
       <c r="AP17" s="41"/>
       <c r="AQ17" s="42"/>
-      <c r="AR17" s="112"/>
-      <c r="AS17" s="112"/>
-      <c r="AT17" s="112"/>
-      <c r="AU17" s="112"/>
-      <c r="AV17" s="71"/>
-      <c r="AW17" s="71"/>
-      <c r="AX17" s="71"/>
-      <c r="AY17" s="71"/>
-      <c r="AZ17" s="70"/>
-      <c r="BA17" s="70"/>
-      <c r="BB17" s="70"/>
-      <c r="BC17" s="70"/>
-      <c r="BD17" s="70"/>
+      <c r="AR17" s="71"/>
+      <c r="AS17" s="71"/>
+      <c r="AT17" s="71"/>
+      <c r="AU17" s="71"/>
+      <c r="AV17" s="76"/>
+      <c r="AW17" s="76"/>
+      <c r="AX17" s="76"/>
+      <c r="AY17" s="76"/>
+      <c r="AZ17" s="69"/>
+      <c r="BA17" s="69"/>
+      <c r="BB17" s="69"/>
+      <c r="BC17" s="69"/>
+      <c r="BD17" s="69"/>
       <c r="BE17" s="23"/>
     </row>
     <row r="18" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="22">
         <v>12</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="68"/>
-      <c r="S18" s="70"/>
-      <c r="T18" s="70"/>
-      <c r="U18" s="70"/>
-      <c r="V18" s="70"/>
-      <c r="W18" s="70"/>
-      <c r="X18" s="70"/>
-      <c r="Y18" s="70"/>
-      <c r="Z18" s="71"/>
-      <c r="AA18" s="71"/>
-      <c r="AB18" s="71"/>
-      <c r="AC18" s="71"/>
-      <c r="AD18" s="71"/>
-      <c r="AE18" s="71"/>
-      <c r="AF18" s="71"/>
-      <c r="AG18" s="69"/>
-      <c r="AH18" s="69"/>
-      <c r="AI18" s="69"/>
-      <c r="AJ18" s="69"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="69"/>
+      <c r="U18" s="69"/>
+      <c r="V18" s="69"/>
+      <c r="W18" s="69"/>
+      <c r="X18" s="69"/>
+      <c r="Y18" s="69"/>
+      <c r="Z18" s="76"/>
+      <c r="AA18" s="76"/>
+      <c r="AB18" s="76"/>
+      <c r="AC18" s="76"/>
+      <c r="AD18" s="76"/>
+      <c r="AE18" s="76"/>
+      <c r="AF18" s="76"/>
+      <c r="AG18" s="70"/>
+      <c r="AH18" s="70"/>
+      <c r="AI18" s="70"/>
+      <c r="AJ18" s="70"/>
       <c r="AK18" s="40"/>
       <c r="AL18" s="41"/>
       <c r="AM18" s="41"/>
@@ -3095,60 +3273,60 @@
       <c r="AO18" s="41"/>
       <c r="AP18" s="41"/>
       <c r="AQ18" s="42"/>
-      <c r="AR18" s="112"/>
-      <c r="AS18" s="112"/>
-      <c r="AT18" s="112"/>
-      <c r="AU18" s="112"/>
-      <c r="AV18" s="71"/>
-      <c r="AW18" s="71"/>
-      <c r="AX18" s="71"/>
-      <c r="AY18" s="71"/>
-      <c r="AZ18" s="70"/>
-      <c r="BA18" s="70"/>
-      <c r="BB18" s="70"/>
-      <c r="BC18" s="70"/>
-      <c r="BD18" s="70"/>
+      <c r="AR18" s="71"/>
+      <c r="AS18" s="71"/>
+      <c r="AT18" s="71"/>
+      <c r="AU18" s="71"/>
+      <c r="AV18" s="76"/>
+      <c r="AW18" s="76"/>
+      <c r="AX18" s="76"/>
+      <c r="AY18" s="76"/>
+      <c r="AZ18" s="69"/>
+      <c r="BA18" s="69"/>
+      <c r="BB18" s="69"/>
+      <c r="BC18" s="69"/>
+      <c r="BD18" s="69"/>
       <c r="BE18" s="23"/>
     </row>
     <row r="19" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="22">
         <v>13</v>
       </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="68"/>
-      <c r="S19" s="70"/>
-      <c r="T19" s="70"/>
-      <c r="U19" s="70"/>
-      <c r="V19" s="70"/>
-      <c r="W19" s="70"/>
-      <c r="X19" s="70"/>
-      <c r="Y19" s="70"/>
-      <c r="Z19" s="71"/>
-      <c r="AA19" s="71"/>
-      <c r="AB19" s="71"/>
-      <c r="AC19" s="71"/>
-      <c r="AD19" s="71"/>
-      <c r="AE19" s="71"/>
-      <c r="AF19" s="71"/>
-      <c r="AG19" s="69"/>
-      <c r="AH19" s="69"/>
-      <c r="AI19" s="69"/>
-      <c r="AJ19" s="69"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="69"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="69"/>
+      <c r="V19" s="69"/>
+      <c r="W19" s="69"/>
+      <c r="X19" s="69"/>
+      <c r="Y19" s="69"/>
+      <c r="Z19" s="76"/>
+      <c r="AA19" s="76"/>
+      <c r="AB19" s="76"/>
+      <c r="AC19" s="76"/>
+      <c r="AD19" s="76"/>
+      <c r="AE19" s="76"/>
+      <c r="AF19" s="76"/>
+      <c r="AG19" s="70"/>
+      <c r="AH19" s="70"/>
+      <c r="AI19" s="70"/>
+      <c r="AJ19" s="70"/>
       <c r="AK19" s="40"/>
       <c r="AL19" s="41"/>
       <c r="AM19" s="41"/>
@@ -3156,60 +3334,60 @@
       <c r="AO19" s="41"/>
       <c r="AP19" s="41"/>
       <c r="AQ19" s="42"/>
-      <c r="AR19" s="112"/>
-      <c r="AS19" s="112"/>
-      <c r="AT19" s="112"/>
-      <c r="AU19" s="112"/>
-      <c r="AV19" s="71"/>
-      <c r="AW19" s="71"/>
-      <c r="AX19" s="71"/>
-      <c r="AY19" s="71"/>
-      <c r="AZ19" s="70"/>
-      <c r="BA19" s="70"/>
-      <c r="BB19" s="70"/>
-      <c r="BC19" s="70"/>
-      <c r="BD19" s="70"/>
+      <c r="AR19" s="71"/>
+      <c r="AS19" s="71"/>
+      <c r="AT19" s="71"/>
+      <c r="AU19" s="71"/>
+      <c r="AV19" s="76"/>
+      <c r="AW19" s="76"/>
+      <c r="AX19" s="76"/>
+      <c r="AY19" s="76"/>
+      <c r="AZ19" s="69"/>
+      <c r="BA19" s="69"/>
+      <c r="BB19" s="69"/>
+      <c r="BC19" s="69"/>
+      <c r="BD19" s="69"/>
       <c r="BE19" s="23"/>
     </row>
     <row r="20" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="22">
         <v>14</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="70"/>
-      <c r="U20" s="70"/>
-      <c r="V20" s="70"/>
-      <c r="W20" s="70"/>
-      <c r="X20" s="70"/>
-      <c r="Y20" s="70"/>
-      <c r="Z20" s="71"/>
-      <c r="AA20" s="71"/>
-      <c r="AB20" s="71"/>
-      <c r="AC20" s="71"/>
-      <c r="AD20" s="71"/>
-      <c r="AE20" s="71"/>
-      <c r="AF20" s="71"/>
-      <c r="AG20" s="69"/>
-      <c r="AH20" s="69"/>
-      <c r="AI20" s="69"/>
-      <c r="AJ20" s="69"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="69"/>
+      <c r="T20" s="69"/>
+      <c r="U20" s="69"/>
+      <c r="V20" s="69"/>
+      <c r="W20" s="69"/>
+      <c r="X20" s="69"/>
+      <c r="Y20" s="69"/>
+      <c r="Z20" s="76"/>
+      <c r="AA20" s="76"/>
+      <c r="AB20" s="76"/>
+      <c r="AC20" s="76"/>
+      <c r="AD20" s="76"/>
+      <c r="AE20" s="76"/>
+      <c r="AF20" s="76"/>
+      <c r="AG20" s="70"/>
+      <c r="AH20" s="70"/>
+      <c r="AI20" s="70"/>
+      <c r="AJ20" s="70"/>
       <c r="AK20" s="40"/>
       <c r="AL20" s="41"/>
       <c r="AM20" s="41"/>
@@ -3217,60 +3395,60 @@
       <c r="AO20" s="41"/>
       <c r="AP20" s="41"/>
       <c r="AQ20" s="42"/>
-      <c r="AR20" s="112"/>
-      <c r="AS20" s="112"/>
-      <c r="AT20" s="112"/>
-      <c r="AU20" s="112"/>
-      <c r="AV20" s="71"/>
-      <c r="AW20" s="71"/>
-      <c r="AX20" s="71"/>
-      <c r="AY20" s="71"/>
-      <c r="AZ20" s="70"/>
-      <c r="BA20" s="70"/>
-      <c r="BB20" s="70"/>
-      <c r="BC20" s="70"/>
-      <c r="BD20" s="70"/>
+      <c r="AR20" s="71"/>
+      <c r="AS20" s="71"/>
+      <c r="AT20" s="71"/>
+      <c r="AU20" s="71"/>
+      <c r="AV20" s="76"/>
+      <c r="AW20" s="76"/>
+      <c r="AX20" s="76"/>
+      <c r="AY20" s="76"/>
+      <c r="AZ20" s="69"/>
+      <c r="BA20" s="69"/>
+      <c r="BB20" s="69"/>
+      <c r="BC20" s="69"/>
+      <c r="BD20" s="69"/>
       <c r="BE20" s="23"/>
     </row>
     <row r="21" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="22">
         <v>15</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="70"/>
-      <c r="T21" s="70"/>
-      <c r="U21" s="70"/>
-      <c r="V21" s="70"/>
-      <c r="W21" s="70"/>
-      <c r="X21" s="70"/>
-      <c r="Y21" s="70"/>
-      <c r="Z21" s="71"/>
-      <c r="AA21" s="71"/>
-      <c r="AB21" s="71"/>
-      <c r="AC21" s="71"/>
-      <c r="AD21" s="71"/>
-      <c r="AE21" s="71"/>
-      <c r="AF21" s="71"/>
-      <c r="AG21" s="69"/>
-      <c r="AH21" s="69"/>
-      <c r="AI21" s="69"/>
-      <c r="AJ21" s="69"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="69"/>
+      <c r="T21" s="69"/>
+      <c r="U21" s="69"/>
+      <c r="V21" s="69"/>
+      <c r="W21" s="69"/>
+      <c r="X21" s="69"/>
+      <c r="Y21" s="69"/>
+      <c r="Z21" s="76"/>
+      <c r="AA21" s="76"/>
+      <c r="AB21" s="76"/>
+      <c r="AC21" s="76"/>
+      <c r="AD21" s="76"/>
+      <c r="AE21" s="76"/>
+      <c r="AF21" s="76"/>
+      <c r="AG21" s="70"/>
+      <c r="AH21" s="70"/>
+      <c r="AI21" s="70"/>
+      <c r="AJ21" s="70"/>
       <c r="AK21" s="40"/>
       <c r="AL21" s="41"/>
       <c r="AM21" s="41"/>
@@ -3278,60 +3456,60 @@
       <c r="AO21" s="41"/>
       <c r="AP21" s="41"/>
       <c r="AQ21" s="42"/>
-      <c r="AR21" s="112"/>
-      <c r="AS21" s="112"/>
-      <c r="AT21" s="112"/>
-      <c r="AU21" s="112"/>
-      <c r="AV21" s="71"/>
-      <c r="AW21" s="71"/>
-      <c r="AX21" s="71"/>
-      <c r="AY21" s="71"/>
-      <c r="AZ21" s="70"/>
-      <c r="BA21" s="70"/>
-      <c r="BB21" s="70"/>
-      <c r="BC21" s="70"/>
-      <c r="BD21" s="70"/>
+      <c r="AR21" s="71"/>
+      <c r="AS21" s="71"/>
+      <c r="AT21" s="71"/>
+      <c r="AU21" s="71"/>
+      <c r="AV21" s="76"/>
+      <c r="AW21" s="76"/>
+      <c r="AX21" s="76"/>
+      <c r="AY21" s="76"/>
+      <c r="AZ21" s="69"/>
+      <c r="BA21" s="69"/>
+      <c r="BB21" s="69"/>
+      <c r="BC21" s="69"/>
+      <c r="BD21" s="69"/>
       <c r="BE21" s="23"/>
     </row>
     <row r="22" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="22">
         <v>16</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="68"/>
-      <c r="S22" s="70"/>
-      <c r="T22" s="70"/>
-      <c r="U22" s="70"/>
-      <c r="V22" s="70"/>
-      <c r="W22" s="70"/>
-      <c r="X22" s="70"/>
-      <c r="Y22" s="70"/>
-      <c r="Z22" s="71"/>
-      <c r="AA22" s="71"/>
-      <c r="AB22" s="71"/>
-      <c r="AC22" s="71"/>
-      <c r="AD22" s="71"/>
-      <c r="AE22" s="71"/>
-      <c r="AF22" s="71"/>
-      <c r="AG22" s="69"/>
-      <c r="AH22" s="69"/>
-      <c r="AI22" s="69"/>
-      <c r="AJ22" s="69"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="69"/>
+      <c r="T22" s="69"/>
+      <c r="U22" s="69"/>
+      <c r="V22" s="69"/>
+      <c r="W22" s="69"/>
+      <c r="X22" s="69"/>
+      <c r="Y22" s="69"/>
+      <c r="Z22" s="76"/>
+      <c r="AA22" s="76"/>
+      <c r="AB22" s="76"/>
+      <c r="AC22" s="76"/>
+      <c r="AD22" s="76"/>
+      <c r="AE22" s="76"/>
+      <c r="AF22" s="76"/>
+      <c r="AG22" s="70"/>
+      <c r="AH22" s="70"/>
+      <c r="AI22" s="70"/>
+      <c r="AJ22" s="70"/>
       <c r="AK22" s="40"/>
       <c r="AL22" s="41"/>
       <c r="AM22" s="41"/>
@@ -3339,60 +3517,60 @@
       <c r="AO22" s="41"/>
       <c r="AP22" s="41"/>
       <c r="AQ22" s="42"/>
-      <c r="AR22" s="112"/>
-      <c r="AS22" s="112"/>
-      <c r="AT22" s="112"/>
-      <c r="AU22" s="112"/>
-      <c r="AV22" s="71"/>
-      <c r="AW22" s="71"/>
-      <c r="AX22" s="71"/>
-      <c r="AY22" s="71"/>
-      <c r="AZ22" s="70"/>
-      <c r="BA22" s="70"/>
-      <c r="BB22" s="70"/>
-      <c r="BC22" s="70"/>
-      <c r="BD22" s="70"/>
+      <c r="AR22" s="71"/>
+      <c r="AS22" s="71"/>
+      <c r="AT22" s="71"/>
+      <c r="AU22" s="71"/>
+      <c r="AV22" s="76"/>
+      <c r="AW22" s="76"/>
+      <c r="AX22" s="76"/>
+      <c r="AY22" s="76"/>
+      <c r="AZ22" s="69"/>
+      <c r="BA22" s="69"/>
+      <c r="BB22" s="69"/>
+      <c r="BC22" s="69"/>
+      <c r="BD22" s="69"/>
       <c r="BE22" s="23"/>
     </row>
     <row r="23" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="22">
         <v>17</v>
       </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="68"/>
-      <c r="S23" s="70"/>
-      <c r="T23" s="70"/>
-      <c r="U23" s="70"/>
-      <c r="V23" s="70"/>
-      <c r="W23" s="70"/>
-      <c r="X23" s="70"/>
-      <c r="Y23" s="70"/>
-      <c r="Z23" s="71"/>
-      <c r="AA23" s="71"/>
-      <c r="AB23" s="71"/>
-      <c r="AC23" s="71"/>
-      <c r="AD23" s="71"/>
-      <c r="AE23" s="71"/>
-      <c r="AF23" s="71"/>
-      <c r="AG23" s="69"/>
-      <c r="AH23" s="69"/>
-      <c r="AI23" s="69"/>
-      <c r="AJ23" s="69"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="65"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="69"/>
+      <c r="T23" s="69"/>
+      <c r="U23" s="69"/>
+      <c r="V23" s="69"/>
+      <c r="W23" s="69"/>
+      <c r="X23" s="69"/>
+      <c r="Y23" s="69"/>
+      <c r="Z23" s="76"/>
+      <c r="AA23" s="76"/>
+      <c r="AB23" s="76"/>
+      <c r="AC23" s="76"/>
+      <c r="AD23" s="76"/>
+      <c r="AE23" s="76"/>
+      <c r="AF23" s="76"/>
+      <c r="AG23" s="70"/>
+      <c r="AH23" s="70"/>
+      <c r="AI23" s="70"/>
+      <c r="AJ23" s="70"/>
       <c r="AK23" s="40"/>
       <c r="AL23" s="41"/>
       <c r="AM23" s="41"/>
@@ -3400,60 +3578,60 @@
       <c r="AO23" s="41"/>
       <c r="AP23" s="41"/>
       <c r="AQ23" s="42"/>
-      <c r="AR23" s="112"/>
-      <c r="AS23" s="112"/>
-      <c r="AT23" s="112"/>
-      <c r="AU23" s="112"/>
-      <c r="AV23" s="71"/>
-      <c r="AW23" s="71"/>
-      <c r="AX23" s="71"/>
-      <c r="AY23" s="71"/>
-      <c r="AZ23" s="70"/>
-      <c r="BA23" s="70"/>
-      <c r="BB23" s="70"/>
-      <c r="BC23" s="70"/>
-      <c r="BD23" s="70"/>
+      <c r="AR23" s="71"/>
+      <c r="AS23" s="71"/>
+      <c r="AT23" s="71"/>
+      <c r="AU23" s="71"/>
+      <c r="AV23" s="76"/>
+      <c r="AW23" s="76"/>
+      <c r="AX23" s="76"/>
+      <c r="AY23" s="76"/>
+      <c r="AZ23" s="69"/>
+      <c r="BA23" s="69"/>
+      <c r="BB23" s="69"/>
+      <c r="BC23" s="69"/>
+      <c r="BD23" s="69"/>
       <c r="BE23" s="23"/>
     </row>
     <row r="24" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="22">
         <v>18</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="67"/>
-      <c r="R24" s="68"/>
-      <c r="S24" s="60"/>
-      <c r="T24" s="61"/>
-      <c r="U24" s="61"/>
-      <c r="V24" s="61"/>
-      <c r="W24" s="61"/>
-      <c r="X24" s="61"/>
-      <c r="Y24" s="62"/>
-      <c r="Z24" s="58"/>
-      <c r="AA24" s="65"/>
-      <c r="AB24" s="59"/>
-      <c r="AC24" s="58"/>
-      <c r="AD24" s="59"/>
-      <c r="AE24" s="58"/>
-      <c r="AF24" s="59"/>
-      <c r="AG24" s="56"/>
-      <c r="AH24" s="57"/>
-      <c r="AI24" s="56"/>
-      <c r="AJ24" s="57"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="66"/>
+      <c r="S24" s="86"/>
+      <c r="T24" s="87"/>
+      <c r="U24" s="87"/>
+      <c r="V24" s="87"/>
+      <c r="W24" s="87"/>
+      <c r="X24" s="87"/>
+      <c r="Y24" s="88"/>
+      <c r="Z24" s="89"/>
+      <c r="AA24" s="110"/>
+      <c r="AB24" s="90"/>
+      <c r="AC24" s="89"/>
+      <c r="AD24" s="90"/>
+      <c r="AE24" s="89"/>
+      <c r="AF24" s="90"/>
+      <c r="AG24" s="107"/>
+      <c r="AH24" s="108"/>
+      <c r="AI24" s="107"/>
+      <c r="AJ24" s="108"/>
       <c r="AK24" s="40"/>
       <c r="AL24" s="41"/>
       <c r="AM24" s="41"/>
@@ -3461,60 +3639,60 @@
       <c r="AO24" s="41"/>
       <c r="AP24" s="41"/>
       <c r="AQ24" s="42"/>
-      <c r="AR24" s="112"/>
-      <c r="AS24" s="112"/>
-      <c r="AT24" s="112"/>
-      <c r="AU24" s="112"/>
-      <c r="AV24" s="58"/>
-      <c r="AW24" s="59"/>
-      <c r="AX24" s="58"/>
-      <c r="AY24" s="59"/>
-      <c r="AZ24" s="60"/>
-      <c r="BA24" s="61"/>
-      <c r="BB24" s="61"/>
-      <c r="BC24" s="61"/>
-      <c r="BD24" s="62"/>
+      <c r="AR24" s="71"/>
+      <c r="AS24" s="71"/>
+      <c r="AT24" s="71"/>
+      <c r="AU24" s="71"/>
+      <c r="AV24" s="89"/>
+      <c r="AW24" s="90"/>
+      <c r="AX24" s="89"/>
+      <c r="AY24" s="90"/>
+      <c r="AZ24" s="86"/>
+      <c r="BA24" s="87"/>
+      <c r="BB24" s="87"/>
+      <c r="BC24" s="87"/>
+      <c r="BD24" s="88"/>
       <c r="BE24" s="23"/>
     </row>
     <row r="25" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="22">
         <v>19</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="68"/>
-      <c r="S25" s="60"/>
-      <c r="T25" s="61"/>
-      <c r="U25" s="61"/>
-      <c r="V25" s="61"/>
-      <c r="W25" s="61"/>
-      <c r="X25" s="61"/>
-      <c r="Y25" s="62"/>
-      <c r="Z25" s="58"/>
-      <c r="AA25" s="65"/>
-      <c r="AB25" s="59"/>
-      <c r="AC25" s="58"/>
-      <c r="AD25" s="59"/>
-      <c r="AE25" s="58"/>
-      <c r="AF25" s="59"/>
-      <c r="AG25" s="56"/>
-      <c r="AH25" s="57"/>
-      <c r="AI25" s="56"/>
-      <c r="AJ25" s="57"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="65"/>
+      <c r="N25" s="65"/>
+      <c r="O25" s="65"/>
+      <c r="P25" s="65"/>
+      <c r="Q25" s="65"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="86"/>
+      <c r="T25" s="87"/>
+      <c r="U25" s="87"/>
+      <c r="V25" s="87"/>
+      <c r="W25" s="87"/>
+      <c r="X25" s="87"/>
+      <c r="Y25" s="88"/>
+      <c r="Z25" s="89"/>
+      <c r="AA25" s="110"/>
+      <c r="AB25" s="90"/>
+      <c r="AC25" s="89"/>
+      <c r="AD25" s="90"/>
+      <c r="AE25" s="89"/>
+      <c r="AF25" s="90"/>
+      <c r="AG25" s="107"/>
+      <c r="AH25" s="108"/>
+      <c r="AI25" s="107"/>
+      <c r="AJ25" s="108"/>
       <c r="AK25" s="40"/>
       <c r="AL25" s="41"/>
       <c r="AM25" s="41"/>
@@ -3522,60 +3700,60 @@
       <c r="AO25" s="41"/>
       <c r="AP25" s="41"/>
       <c r="AQ25" s="42"/>
-      <c r="AR25" s="112"/>
-      <c r="AS25" s="112"/>
-      <c r="AT25" s="112"/>
-      <c r="AU25" s="112"/>
-      <c r="AV25" s="58"/>
-      <c r="AW25" s="59"/>
-      <c r="AX25" s="58"/>
-      <c r="AY25" s="59"/>
-      <c r="AZ25" s="60"/>
-      <c r="BA25" s="61"/>
-      <c r="BB25" s="61"/>
-      <c r="BC25" s="61"/>
-      <c r="BD25" s="62"/>
+      <c r="AR25" s="71"/>
+      <c r="AS25" s="71"/>
+      <c r="AT25" s="71"/>
+      <c r="AU25" s="71"/>
+      <c r="AV25" s="89"/>
+      <c r="AW25" s="90"/>
+      <c r="AX25" s="89"/>
+      <c r="AY25" s="90"/>
+      <c r="AZ25" s="86"/>
+      <c r="BA25" s="87"/>
+      <c r="BB25" s="87"/>
+      <c r="BC25" s="87"/>
+      <c r="BD25" s="88"/>
       <c r="BE25" s="23"/>
     </row>
     <row r="26" spans="1:62" s="25" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="52">
         <v>20</v>
       </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="104"/>
-      <c r="K26" s="104"/>
-      <c r="L26" s="104"/>
-      <c r="M26" s="104"/>
-      <c r="N26" s="104"/>
-      <c r="O26" s="104"/>
-      <c r="P26" s="104"/>
-      <c r="Q26" s="104"/>
-      <c r="R26" s="105"/>
-      <c r="S26" s="63"/>
-      <c r="T26" s="63"/>
-      <c r="U26" s="63"/>
-      <c r="V26" s="63"/>
-      <c r="W26" s="63"/>
-      <c r="X26" s="63"/>
-      <c r="Y26" s="63"/>
-      <c r="Z26" s="55"/>
-      <c r="AA26" s="55"/>
-      <c r="AB26" s="55"/>
-      <c r="AC26" s="55"/>
-      <c r="AD26" s="55"/>
-      <c r="AE26" s="55"/>
-      <c r="AF26" s="55"/>
-      <c r="AG26" s="54"/>
-      <c r="AH26" s="54"/>
-      <c r="AI26" s="54"/>
-      <c r="AJ26" s="54"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="112"/>
+      <c r="T26" s="112"/>
+      <c r="U26" s="112"/>
+      <c r="V26" s="112"/>
+      <c r="W26" s="112"/>
+      <c r="X26" s="112"/>
+      <c r="Y26" s="112"/>
+      <c r="Z26" s="113"/>
+      <c r="AA26" s="113"/>
+      <c r="AB26" s="113"/>
+      <c r="AC26" s="113"/>
+      <c r="AD26" s="113"/>
+      <c r="AE26" s="113"/>
+      <c r="AF26" s="113"/>
+      <c r="AG26" s="111"/>
+      <c r="AH26" s="111"/>
+      <c r="AI26" s="111"/>
+      <c r="AJ26" s="111"/>
       <c r="AK26" s="43"/>
       <c r="AL26" s="44"/>
       <c r="AM26" s="44"/>
@@ -3583,19 +3761,19 @@
       <c r="AO26" s="44"/>
       <c r="AP26" s="44"/>
       <c r="AQ26" s="45"/>
-      <c r="AR26" s="112"/>
-      <c r="AS26" s="112"/>
-      <c r="AT26" s="112"/>
-      <c r="AU26" s="112"/>
-      <c r="AV26" s="55"/>
-      <c r="AW26" s="55"/>
-      <c r="AX26" s="55"/>
-      <c r="AY26" s="55"/>
-      <c r="AZ26" s="63"/>
-      <c r="BA26" s="63"/>
-      <c r="BB26" s="63"/>
-      <c r="BC26" s="63"/>
-      <c r="BD26" s="63"/>
+      <c r="AR26" s="71"/>
+      <c r="AS26" s="71"/>
+      <c r="AT26" s="71"/>
+      <c r="AU26" s="71"/>
+      <c r="AV26" s="113"/>
+      <c r="AW26" s="113"/>
+      <c r="AX26" s="113"/>
+      <c r="AY26" s="113"/>
+      <c r="AZ26" s="112"/>
+      <c r="BA26" s="112"/>
+      <c r="BB26" s="112"/>
+      <c r="BC26" s="112"/>
+      <c r="BD26" s="112"/>
       <c r="BE26" s="24"/>
     </row>
     <row r="27" spans="1:62" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4470,6 +4648,284 @@
     </row>
   </sheetData>
   <mergeCells count="302">
+    <mergeCell ref="AT26:AU26"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="AX26:AY26"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AR25:AS25"/>
+    <mergeCell ref="AT25:AU25"/>
+    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="AX25:AY25"/>
+    <mergeCell ref="AZ25:BD25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="S26:Y26"/>
+    <mergeCell ref="Z26:AB26"/>
+    <mergeCell ref="AZ26:BD26"/>
+    <mergeCell ref="AR26:AS26"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AR24:AS24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="S25:Y25"/>
+    <mergeCell ref="Z25:AB25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="F25:R25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="S24:Y24"/>
+    <mergeCell ref="Z24:AB24"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="F24:R24"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AT24:AU24"/>
+    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="S23:Y23"/>
+    <mergeCell ref="Z23:AB23"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AR23:AS23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="S21:Y21"/>
+    <mergeCell ref="Z21:AB21"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AZ19:BD19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="S20:Y20"/>
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AV18:AW18"/>
+    <mergeCell ref="AX18:AY18"/>
+    <mergeCell ref="AZ18:BD18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="S19:Y19"/>
+    <mergeCell ref="Z19:AB19"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="S18:Y18"/>
+    <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AZ20:BD20"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="S17:Y17"/>
+    <mergeCell ref="Z17:AB17"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AZ15:BD15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="S16:Y16"/>
+    <mergeCell ref="Z16:AB16"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AR17:AS17"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="AV17:AW17"/>
+    <mergeCell ref="AX17:AY17"/>
+    <mergeCell ref="AZ17:BD17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AZ16:BD16"/>
+    <mergeCell ref="AZ14:BD14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="S15:Y15"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AR15:AS15"/>
+    <mergeCell ref="AT15:AU15"/>
+    <mergeCell ref="S14:Y14"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="Z14:AB14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AV15:AW15"/>
+    <mergeCell ref="AX15:AY15"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="S13:Y13"/>
+    <mergeCell ref="Z13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="S11:Y11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="S12:Y12"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="S10:Y10"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="S9:Y9"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="S8:Y8"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="F8:R8"/>
+    <mergeCell ref="F9:R9"/>
+    <mergeCell ref="F10:R10"/>
+    <mergeCell ref="AR8:AS8"/>
+    <mergeCell ref="AZ4:BD6"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="AV8:AW8"/>
+    <mergeCell ref="AX8:AY8"/>
+    <mergeCell ref="AZ8:BD8"/>
+    <mergeCell ref="AX7:AY7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AT5:AU5"/>
+    <mergeCell ref="AT6:AU6"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="AR5:AS5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="F7:R7"/>
+    <mergeCell ref="AZ7:BD7"/>
+    <mergeCell ref="AT7:AU7"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AR4:AU4"/>
+    <mergeCell ref="AV4:AY4"/>
+    <mergeCell ref="AJ4:AQ4"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="AK1:AP1"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="Z5:AB6"/>
+    <mergeCell ref="S6:Y6"/>
+    <mergeCell ref="AZ21:BD21"/>
+    <mergeCell ref="AX23:AY23"/>
+    <mergeCell ref="AR20:AS20"/>
+    <mergeCell ref="AX22:AY22"/>
+    <mergeCell ref="AZ22:BD22"/>
+    <mergeCell ref="AV20:AW20"/>
+    <mergeCell ref="AX20:AY20"/>
+    <mergeCell ref="AZ23:BD23"/>
+    <mergeCell ref="AT23:AU23"/>
+    <mergeCell ref="AR21:AS21"/>
+    <mergeCell ref="AZ12:BD12"/>
+    <mergeCell ref="AZ13:BD13"/>
+    <mergeCell ref="AT14:AU14"/>
+    <mergeCell ref="AR16:AS16"/>
+    <mergeCell ref="AT16:AU16"/>
+    <mergeCell ref="AV16:AW16"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AR9:AS9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="AX9:AY9"/>
+    <mergeCell ref="AT10:AU10"/>
+    <mergeCell ref="AV10:AW10"/>
+    <mergeCell ref="AX10:AY10"/>
+    <mergeCell ref="AZ10:BD10"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AR13:AS13"/>
+    <mergeCell ref="AT13:AU13"/>
+    <mergeCell ref="AV13:AW13"/>
+    <mergeCell ref="AX13:AY13"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AR22:AS22"/>
+    <mergeCell ref="AT22:AU22"/>
+    <mergeCell ref="S22:Y22"/>
+    <mergeCell ref="Z22:AB22"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="F12:R12"/>
+    <mergeCell ref="F13:R13"/>
+    <mergeCell ref="F14:R14"/>
+    <mergeCell ref="F15:R15"/>
+    <mergeCell ref="AT21:AU21"/>
+    <mergeCell ref="AV21:AW21"/>
+    <mergeCell ref="AX21:AY21"/>
+    <mergeCell ref="AV22:AW22"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AR18:AS18"/>
+    <mergeCell ref="AV19:AW19"/>
+    <mergeCell ref="F19:R19"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="AX14:AY14"/>
+    <mergeCell ref="AR12:AS12"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AX12:AY12"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="F11:R11"/>
+    <mergeCell ref="AZ24:BD24"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AR14:AS14"/>
+    <mergeCell ref="AX16:AY16"/>
+    <mergeCell ref="AX19:AY19"/>
+    <mergeCell ref="AT20:AU20"/>
+    <mergeCell ref="AX24:AY24"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AT18:AU18"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AR19:AS19"/>
+    <mergeCell ref="AT19:AU19"/>
+    <mergeCell ref="AX11:AY11"/>
+    <mergeCell ref="AZ11:BD11"/>
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AR10:AS10"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="S5:Y5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="B5:E6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="S7:Y7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="Z7:AB7"/>
     <mergeCell ref="AY1:BD2"/>
     <mergeCell ref="AR1:AW2"/>
     <mergeCell ref="F26:R26"/>
@@ -4494,284 +4950,6 @@
     <mergeCell ref="K2:P2"/>
     <mergeCell ref="Q2:V2"/>
     <mergeCell ref="AK2:AP2"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="S5:Y5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="B5:E6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="S7:Y7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="F11:R11"/>
-    <mergeCell ref="AZ24:BD24"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AR14:AS14"/>
-    <mergeCell ref="AX16:AY16"/>
-    <mergeCell ref="AX19:AY19"/>
-    <mergeCell ref="AT20:AU20"/>
-    <mergeCell ref="AX24:AY24"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AT18:AU18"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AR19:AS19"/>
-    <mergeCell ref="AT19:AU19"/>
-    <mergeCell ref="AX11:AY11"/>
-    <mergeCell ref="AZ11:BD11"/>
-    <mergeCell ref="Z12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AR10:AS10"/>
-    <mergeCell ref="F12:R12"/>
-    <mergeCell ref="F13:R13"/>
-    <mergeCell ref="F14:R14"/>
-    <mergeCell ref="F15:R15"/>
-    <mergeCell ref="AT21:AU21"/>
-    <mergeCell ref="AV21:AW21"/>
-    <mergeCell ref="AX21:AY21"/>
-    <mergeCell ref="AV22:AW22"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AR18:AS18"/>
-    <mergeCell ref="AV19:AW19"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AR22:AS22"/>
-    <mergeCell ref="AT22:AU22"/>
-    <mergeCell ref="S22:Y22"/>
-    <mergeCell ref="Z22:AB22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="F19:R19"/>
-    <mergeCell ref="AZ12:BD12"/>
-    <mergeCell ref="AZ13:BD13"/>
-    <mergeCell ref="AT14:AU14"/>
-    <mergeCell ref="AR16:AS16"/>
-    <mergeCell ref="AT16:AU16"/>
-    <mergeCell ref="AV16:AW16"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AR9:AS9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="AX9:AY9"/>
-    <mergeCell ref="AZ21:BD21"/>
-    <mergeCell ref="AX23:AY23"/>
-    <mergeCell ref="AR20:AS20"/>
-    <mergeCell ref="AX22:AY22"/>
-    <mergeCell ref="AZ22:BD22"/>
-    <mergeCell ref="AV20:AW20"/>
-    <mergeCell ref="AX20:AY20"/>
-    <mergeCell ref="AZ23:BD23"/>
-    <mergeCell ref="AT23:AU23"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AQ1:AQ2"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="F7:R7"/>
-    <mergeCell ref="AZ7:BD7"/>
-    <mergeCell ref="AT7:AU7"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AR4:AU4"/>
-    <mergeCell ref="AV4:AY4"/>
-    <mergeCell ref="AJ4:AQ4"/>
-    <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="AK1:AP1"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="Z5:AB6"/>
-    <mergeCell ref="S6:Y6"/>
-    <mergeCell ref="AR8:AS8"/>
-    <mergeCell ref="AZ4:BD6"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="AV8:AW8"/>
-    <mergeCell ref="AX8:AY8"/>
-    <mergeCell ref="AZ8:BD8"/>
-    <mergeCell ref="AX7:AY7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AT5:AU5"/>
-    <mergeCell ref="AT6:AU6"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="AR5:AS5"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="S10:Y10"/>
-    <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="S9:Y9"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="S8:Y8"/>
-    <mergeCell ref="Z8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="F8:R8"/>
-    <mergeCell ref="F9:R9"/>
-    <mergeCell ref="F10:R10"/>
-    <mergeCell ref="AT10:AU10"/>
-    <mergeCell ref="AV10:AW10"/>
-    <mergeCell ref="AX10:AY10"/>
-    <mergeCell ref="AZ10:BD10"/>
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="S13:Y13"/>
-    <mergeCell ref="Z13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AT11:AU11"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="S11:Y11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="S12:Y12"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AR13:AS13"/>
-    <mergeCell ref="AT13:AU13"/>
-    <mergeCell ref="AV13:AW13"/>
-    <mergeCell ref="AX13:AY13"/>
-    <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="AX14:AY14"/>
-    <mergeCell ref="AR12:AS12"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AX12:AY12"/>
-    <mergeCell ref="AZ14:BD14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="S15:Y15"/>
-    <mergeCell ref="Z15:AB15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AR15:AS15"/>
-    <mergeCell ref="AT15:AU15"/>
-    <mergeCell ref="S14:Y14"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="Z14:AB14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AV15:AW15"/>
-    <mergeCell ref="AX15:AY15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="S17:Y17"/>
-    <mergeCell ref="Z17:AB17"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AZ15:BD15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="S16:Y16"/>
-    <mergeCell ref="Z16:AB16"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AR17:AS17"/>
-    <mergeCell ref="AT17:AU17"/>
-    <mergeCell ref="AV17:AW17"/>
-    <mergeCell ref="AX17:AY17"/>
-    <mergeCell ref="AZ17:BD17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AZ16:BD16"/>
-    <mergeCell ref="AZ19:BD19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="S20:Y20"/>
-    <mergeCell ref="Z20:AB20"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AV18:AW18"/>
-    <mergeCell ref="AX18:AY18"/>
-    <mergeCell ref="AZ18:BD18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="S19:Y19"/>
-    <mergeCell ref="Z19:AB19"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="S18:Y18"/>
-    <mergeCell ref="Z18:AB18"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AZ20:BD20"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AR21:AS21"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="S23:Y23"/>
-    <mergeCell ref="Z23:AB23"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AR23:AS23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="S21:Y21"/>
-    <mergeCell ref="Z21:AB21"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AZ25:BD25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="S26:Y26"/>
-    <mergeCell ref="Z26:AB26"/>
-    <mergeCell ref="AZ26:BD26"/>
-    <mergeCell ref="AR26:AS26"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AR24:AS24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="S25:Y25"/>
-    <mergeCell ref="Z25:AB25"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="F25:R25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="S24:Y24"/>
-    <mergeCell ref="Z24:AB24"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="F24:R24"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AT24:AU24"/>
-    <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="AT26:AU26"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="AX26:AY26"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AR25:AS25"/>
-    <mergeCell ref="AT25:AU25"/>
-    <mergeCell ref="AV25:AW25"/>
-    <mergeCell ref="AX25:AY25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">

--- a/doc/unfinished/5_ﾄﾗﾌﾞﾙ管理表.xlsx
+++ b/doc/unfinished/5_ﾄﾗﾌﾞﾙ管理表.xlsx
@@ -1033,6 +1033,167 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1063,60 +1224,6 @@
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1135,113 +1242,6 @@
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1988,6 +1988,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:BJ165"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C3" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2002,34 +2005,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" s="6" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="99" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="96" t="s">
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="98"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="92"/>
       <c r="W1" s="53"/>
       <c r="X1" s="53"/>
       <c r="Y1" s="3"/>
@@ -2044,62 +2047,62 @@
       <c r="AH1" s="4"/>
       <c r="AI1" s="4"/>
       <c r="AJ1" s="5"/>
-      <c r="AK1" s="96" t="s">
+      <c r="AK1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="AL1" s="97"/>
-      <c r="AM1" s="97"/>
-      <c r="AN1" s="97"/>
-      <c r="AO1" s="97"/>
-      <c r="AP1" s="98"/>
-      <c r="AQ1" s="67" t="s">
+      <c r="AL1" s="91"/>
+      <c r="AM1" s="91"/>
+      <c r="AN1" s="91"/>
+      <c r="AO1" s="91"/>
+      <c r="AP1" s="92"/>
+      <c r="AQ1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="55" t="s">
+      <c r="AR1" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="AS1" s="56"/>
-      <c r="AT1" s="56"/>
-      <c r="AU1" s="56"/>
-      <c r="AV1" s="56"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="67" t="s">
+      <c r="AS1" s="101"/>
+      <c r="AT1" s="101"/>
+      <c r="AU1" s="101"/>
+      <c r="AV1" s="101"/>
+      <c r="AW1" s="102"/>
+      <c r="AX1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="56"/>
-      <c r="BA1" s="56"/>
-      <c r="BB1" s="56"/>
-      <c r="BC1" s="56"/>
-      <c r="BD1" s="57"/>
+      <c r="AY1" s="100"/>
+      <c r="AZ1" s="101"/>
+      <c r="BA1" s="101"/>
+      <c r="BB1" s="101"/>
+      <c r="BC1" s="101"/>
+      <c r="BD1" s="102"/>
     </row>
     <row r="2" spans="1:62" s="10" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="103"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="79" t="s">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="82" t="s">
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="81"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="111"/>
       <c r="W2" s="54"/>
       <c r="X2" s="54"/>
       <c r="Y2" s="7"/>
@@ -2114,177 +2117,177 @@
       <c r="AH2" s="8"/>
       <c r="AI2" s="8"/>
       <c r="AJ2" s="9"/>
-      <c r="AK2" s="83">
+      <c r="AK2" s="113">
         <v>42906</v>
       </c>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80"/>
-      <c r="AP2" s="81"/>
-      <c r="AQ2" s="68"/>
-      <c r="AR2" s="58"/>
-      <c r="AS2" s="59"/>
-      <c r="AT2" s="59"/>
-      <c r="AU2" s="59"/>
-      <c r="AV2" s="59"/>
-      <c r="AW2" s="60"/>
-      <c r="AX2" s="68"/>
-      <c r="AY2" s="58"/>
-      <c r="AZ2" s="59"/>
-      <c r="BA2" s="59"/>
-      <c r="BB2" s="59"/>
-      <c r="BC2" s="59"/>
-      <c r="BD2" s="60"/>
+      <c r="AL2" s="110"/>
+      <c r="AM2" s="110"/>
+      <c r="AN2" s="110"/>
+      <c r="AO2" s="110"/>
+      <c r="AP2" s="111"/>
+      <c r="AQ2" s="82"/>
+      <c r="AR2" s="103"/>
+      <c r="AS2" s="104"/>
+      <c r="AT2" s="104"/>
+      <c r="AU2" s="104"/>
+      <c r="AV2" s="104"/>
+      <c r="AW2" s="105"/>
+      <c r="AX2" s="82"/>
+      <c r="AY2" s="103"/>
+      <c r="AZ2" s="104"/>
+      <c r="BA2" s="104"/>
+      <c r="BB2" s="104"/>
+      <c r="BC2" s="104"/>
+      <c r="BD2" s="105"/>
     </row>
     <row r="3" spans="1:62" ht="6.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:62" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11"/>
       <c r="B4" s="48"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="48"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
       <c r="S4" s="48"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="78"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="74"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="74"/>
       <c r="Z4" s="48"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="78"/>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="78"/>
-      <c r="AE4" s="78"/>
-      <c r="AF4" s="78"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="74"/>
+      <c r="AF4" s="74"/>
       <c r="AG4" s="48"/>
       <c r="AH4" s="12"/>
       <c r="AI4" s="49"/>
-      <c r="AJ4" s="95" t="s">
+      <c r="AJ4" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="AK4" s="94"/>
-      <c r="AL4" s="94"/>
-      <c r="AM4" s="94"/>
-      <c r="AN4" s="94"/>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="94"/>
-      <c r="AR4" s="94" t="s">
+      <c r="AK4" s="88"/>
+      <c r="AL4" s="88"/>
+      <c r="AM4" s="88"/>
+      <c r="AN4" s="88"/>
+      <c r="AO4" s="88"/>
+      <c r="AP4" s="88"/>
+      <c r="AQ4" s="88"/>
+      <c r="AR4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="94"/>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="94" t="s">
+      <c r="AS4" s="88"/>
+      <c r="AT4" s="88"/>
+      <c r="AU4" s="88"/>
+      <c r="AV4" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="94"/>
-      <c r="AY4" s="94"/>
-      <c r="AZ4" s="78" t="s">
+      <c r="AW4" s="88"/>
+      <c r="AX4" s="88"/>
+      <c r="AY4" s="88"/>
+      <c r="AZ4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="BA4" s="78"/>
-      <c r="BB4" s="78"/>
-      <c r="BC4" s="78"/>
-      <c r="BD4" s="78"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="74"/>
+      <c r="BC4" s="74"/>
+      <c r="BD4" s="74"/>
     </row>
     <row r="5" spans="1:62" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72" t="s">
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="T5" s="72"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
-      <c r="W5" s="72"/>
-      <c r="X5" s="72"/>
-      <c r="Y5" s="72"/>
-      <c r="Z5" s="72" t="s">
+      <c r="T5" s="75"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="75"/>
+      <c r="Y5" s="75"/>
+      <c r="Z5" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="AA5" s="72"/>
-      <c r="AB5" s="72"/>
-      <c r="AC5" s="72" t="s">
+      <c r="AA5" s="75"/>
+      <c r="AB5" s="75"/>
+      <c r="AC5" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="AD5" s="72"/>
-      <c r="AE5" s="72" t="s">
+      <c r="AD5" s="75"/>
+      <c r="AE5" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="AF5" s="72"/>
-      <c r="AG5" s="72" t="s">
+      <c r="AF5" s="75"/>
+      <c r="AG5" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="AH5" s="72"/>
-      <c r="AI5" s="72" t="s">
+      <c r="AH5" s="75"/>
+      <c r="AI5" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="AJ5" s="72"/>
-      <c r="AK5" s="106" t="s">
+      <c r="AJ5" s="75"/>
+      <c r="AK5" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="AL5" s="106"/>
-      <c r="AM5" s="106"/>
-      <c r="AN5" s="106"/>
-      <c r="AO5" s="106"/>
-      <c r="AP5" s="106"/>
-      <c r="AQ5" s="106"/>
-      <c r="AR5" s="72" t="s">
+      <c r="AL5" s="79"/>
+      <c r="AM5" s="79"/>
+      <c r="AN5" s="79"/>
+      <c r="AO5" s="79"/>
+      <c r="AP5" s="79"/>
+      <c r="AQ5" s="79"/>
+      <c r="AR5" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="AS5" s="72"/>
-      <c r="AT5" s="72" t="s">
+      <c r="AS5" s="75"/>
+      <c r="AT5" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="AU5" s="72"/>
+      <c r="AU5" s="75"/>
       <c r="AV5" s="50"/>
       <c r="AW5" s="14"/>
       <c r="AX5" s="51"/>
       <c r="AY5" s="14"/>
-      <c r="AZ5" s="72"/>
-      <c r="BA5" s="72"/>
-      <c r="BB5" s="72"/>
-      <c r="BC5" s="72"/>
-      <c r="BD5" s="72"/>
+      <c r="AZ5" s="75"/>
+      <c r="BA5" s="75"/>
+      <c r="BB5" s="75"/>
+      <c r="BC5" s="75"/>
+      <c r="BD5" s="75"/>
       <c r="BE5" s="15"/>
       <c r="BF5" s="15"/>
       <c r="BG5" s="15"/>
@@ -2293,52 +2296,52 @@
       <c r="BJ5" s="15"/>
     </row>
     <row r="6" spans="1:62" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="73"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73" t="s">
+      <c r="A6" s="76"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="73"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="73"/>
-      <c r="W6" s="73"/>
-      <c r="X6" s="73"/>
-      <c r="Y6" s="73"/>
-      <c r="Z6" s="73"/>
-      <c r="AA6" s="73"/>
-      <c r="AB6" s="73"/>
-      <c r="AC6" s="73" t="s">
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="AD6" s="73"/>
-      <c r="AE6" s="73" t="s">
+      <c r="AD6" s="76"/>
+      <c r="AE6" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="AF6" s="73"/>
-      <c r="AG6" s="73" t="s">
+      <c r="AF6" s="76"/>
+      <c r="AG6" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="AH6" s="73"/>
-      <c r="AI6" s="73" t="s">
+      <c r="AH6" s="76"/>
+      <c r="AI6" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="AJ6" s="73"/>
+      <c r="AJ6" s="76"/>
       <c r="AK6" s="34">
         <v>1</v>
       </c>
@@ -2360,27 +2363,27 @@
       <c r="AQ6" s="36">
         <v>7</v>
       </c>
-      <c r="AR6" s="73" t="s">
+      <c r="AR6" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="AS6" s="73"/>
-      <c r="AT6" s="73" t="s">
+      <c r="AS6" s="76"/>
+      <c r="AT6" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="AU6" s="73"/>
-      <c r="AV6" s="73" t="s">
+      <c r="AU6" s="76"/>
+      <c r="AV6" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="AW6" s="73"/>
-      <c r="AX6" s="73" t="s">
+      <c r="AW6" s="76"/>
+      <c r="AX6" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="AY6" s="73"/>
-      <c r="AZ6" s="73"/>
-      <c r="BA6" s="73"/>
-      <c r="BB6" s="73"/>
-      <c r="BC6" s="73"/>
-      <c r="BD6" s="73"/>
+      <c r="AY6" s="76"/>
+      <c r="AZ6" s="76"/>
+      <c r="BA6" s="76"/>
+      <c r="BB6" s="76"/>
+      <c r="BC6" s="76"/>
+      <c r="BD6" s="76"/>
       <c r="BE6" s="17"/>
       <c r="BF6" s="17"/>
       <c r="BG6" s="18"/>
@@ -2392,57 +2395,57 @@
       <c r="A7" s="19">
         <v>1</v>
       </c>
-      <c r="B7" s="75">
+      <c r="B7" s="78">
         <v>1</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="91" t="s">
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="92"/>
-      <c r="R7" s="93"/>
-      <c r="S7" s="84" t="s">
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="85"/>
+      <c r="S7" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="T7" s="84"/>
-      <c r="U7" s="84"/>
-      <c r="V7" s="84"/>
-      <c r="W7" s="84"/>
-      <c r="X7" s="84"/>
-      <c r="Y7" s="84"/>
-      <c r="Z7" s="85">
+      <c r="T7" s="86"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="86"/>
+      <c r="X7" s="86"/>
+      <c r="Y7" s="86"/>
+      <c r="Z7" s="77">
         <v>42907</v>
       </c>
-      <c r="AA7" s="85"/>
-      <c r="AB7" s="85"/>
-      <c r="AC7" s="85">
+      <c r="AA7" s="77"/>
+      <c r="AB7" s="77"/>
+      <c r="AC7" s="77">
         <v>42907</v>
       </c>
-      <c r="AD7" s="85"/>
-      <c r="AE7" s="85">
+      <c r="AD7" s="77"/>
+      <c r="AE7" s="77">
         <v>42907</v>
       </c>
-      <c r="AF7" s="85"/>
-      <c r="AG7" s="75">
+      <c r="AF7" s="77"/>
+      <c r="AG7" s="78">
         <v>5</v>
       </c>
-      <c r="AH7" s="75"/>
-      <c r="AI7" s="75">
+      <c r="AH7" s="78"/>
+      <c r="AI7" s="78">
         <v>3</v>
       </c>
-      <c r="AJ7" s="75"/>
+      <c r="AJ7" s="78"/>
       <c r="AK7" s="37"/>
       <c r="AL7" s="38"/>
       <c r="AM7" s="38"/>
@@ -2450,84 +2453,84 @@
       <c r="AO7" s="38"/>
       <c r="AP7" s="38"/>
       <c r="AQ7" s="39"/>
-      <c r="AR7" s="74">
+      <c r="AR7" s="87">
         <v>42907</v>
       </c>
-      <c r="AS7" s="74"/>
-      <c r="AT7" s="74">
+      <c r="AS7" s="87"/>
+      <c r="AT7" s="87">
         <v>42907</v>
       </c>
-      <c r="AU7" s="74"/>
-      <c r="AV7" s="85">
+      <c r="AU7" s="87"/>
+      <c r="AV7" s="77">
         <v>42907</v>
       </c>
-      <c r="AW7" s="85"/>
-      <c r="AX7" s="85">
+      <c r="AW7" s="77"/>
+      <c r="AX7" s="77">
         <v>42907</v>
       </c>
-      <c r="AY7" s="85"/>
-      <c r="AZ7" s="84"/>
-      <c r="BA7" s="84"/>
-      <c r="BB7" s="84"/>
-      <c r="BC7" s="84"/>
-      <c r="BD7" s="84"/>
+      <c r="AY7" s="77"/>
+      <c r="AZ7" s="86"/>
+      <c r="BA7" s="86"/>
+      <c r="BB7" s="86"/>
+      <c r="BC7" s="86"/>
+      <c r="BD7" s="86"/>
       <c r="BE7" s="20"/>
     </row>
     <row r="8" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22">
         <v>2</v>
       </c>
-      <c r="B8" s="107">
+      <c r="B8" s="64">
         <v>2</v>
       </c>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="64" t="s">
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="66"/>
-      <c r="S8" s="86" t="s">
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="T8" s="87"/>
-      <c r="U8" s="87"/>
-      <c r="V8" s="87"/>
-      <c r="W8" s="87"/>
-      <c r="X8" s="87"/>
-      <c r="Y8" s="88"/>
-      <c r="Z8" s="89">
+      <c r="T8" s="61"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="61"/>
+      <c r="W8" s="61"/>
+      <c r="X8" s="61"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="58">
         <v>42907</v>
       </c>
-      <c r="AA8" s="110"/>
-      <c r="AB8" s="90"/>
-      <c r="AC8" s="89">
+      <c r="AA8" s="67"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="58">
         <v>42907</v>
       </c>
-      <c r="AD8" s="90"/>
-      <c r="AE8" s="89">
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="58">
         <v>42907</v>
       </c>
-      <c r="AF8" s="90"/>
-      <c r="AG8" s="107">
+      <c r="AF8" s="59"/>
+      <c r="AG8" s="64">
         <v>5</v>
       </c>
-      <c r="AH8" s="108"/>
-      <c r="AI8" s="107">
+      <c r="AH8" s="65"/>
+      <c r="AI8" s="64">
         <v>3</v>
       </c>
-      <c r="AJ8" s="108"/>
+      <c r="AJ8" s="65"/>
       <c r="AK8" s="40"/>
       <c r="AL8" s="41"/>
       <c r="AM8" s="41"/>
@@ -2535,84 +2538,84 @@
       <c r="AO8" s="41"/>
       <c r="AP8" s="41"/>
       <c r="AQ8" s="42"/>
-      <c r="AR8" s="71">
+      <c r="AR8" s="55">
         <v>42907</v>
       </c>
-      <c r="AS8" s="71"/>
-      <c r="AT8" s="71">
+      <c r="AS8" s="55"/>
+      <c r="AT8" s="55">
         <v>42907</v>
       </c>
-      <c r="AU8" s="71"/>
-      <c r="AV8" s="89">
+      <c r="AU8" s="55"/>
+      <c r="AV8" s="58">
         <v>42907</v>
       </c>
-      <c r="AW8" s="90"/>
-      <c r="AX8" s="89">
+      <c r="AW8" s="59"/>
+      <c r="AX8" s="58">
         <v>42907</v>
       </c>
-      <c r="AY8" s="90"/>
-      <c r="AZ8" s="86"/>
-      <c r="BA8" s="87"/>
-      <c r="BB8" s="87"/>
-      <c r="BC8" s="87"/>
-      <c r="BD8" s="88"/>
+      <c r="AY8" s="59"/>
+      <c r="AZ8" s="60"/>
+      <c r="BA8" s="61"/>
+      <c r="BB8" s="61"/>
+      <c r="BC8" s="61"/>
+      <c r="BD8" s="62"/>
       <c r="BE8" s="23"/>
     </row>
     <row r="9" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="22">
         <v>3</v>
       </c>
-      <c r="B9" s="70">
+      <c r="B9" s="71">
         <v>3</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="64" t="s">
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="69" t="s">
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="T9" s="69"/>
-      <c r="U9" s="69"/>
-      <c r="V9" s="69"/>
-      <c r="W9" s="69"/>
-      <c r="X9" s="69"/>
-      <c r="Y9" s="69"/>
-      <c r="Z9" s="76">
+      <c r="T9" s="72"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="73">
         <v>42907</v>
       </c>
-      <c r="AA9" s="76"/>
-      <c r="AB9" s="76"/>
-      <c r="AC9" s="76">
+      <c r="AA9" s="73"/>
+      <c r="AB9" s="73"/>
+      <c r="AC9" s="73">
         <v>42907</v>
       </c>
-      <c r="AD9" s="76"/>
-      <c r="AE9" s="76">
+      <c r="AD9" s="73"/>
+      <c r="AE9" s="73">
         <v>42907</v>
       </c>
-      <c r="AF9" s="76"/>
-      <c r="AG9" s="70">
+      <c r="AF9" s="73"/>
+      <c r="AG9" s="71">
         <v>5</v>
       </c>
-      <c r="AH9" s="70"/>
-      <c r="AI9" s="70">
+      <c r="AH9" s="71"/>
+      <c r="AI9" s="71">
         <v>3</v>
       </c>
-      <c r="AJ9" s="70"/>
+      <c r="AJ9" s="71"/>
       <c r="AK9" s="40"/>
       <c r="AL9" s="41"/>
       <c r="AM9" s="41"/>
@@ -2620,84 +2623,84 @@
       <c r="AO9" s="41"/>
       <c r="AP9" s="41"/>
       <c r="AQ9" s="42"/>
-      <c r="AR9" s="71">
+      <c r="AR9" s="55">
         <v>42907</v>
       </c>
-      <c r="AS9" s="71"/>
-      <c r="AT9" s="71">
+      <c r="AS9" s="55"/>
+      <c r="AT9" s="55">
         <v>42907</v>
       </c>
-      <c r="AU9" s="71"/>
-      <c r="AV9" s="76">
+      <c r="AU9" s="55"/>
+      <c r="AV9" s="73">
         <v>42907</v>
       </c>
-      <c r="AW9" s="76"/>
-      <c r="AX9" s="76">
+      <c r="AW9" s="73"/>
+      <c r="AX9" s="73">
         <v>42907</v>
       </c>
-      <c r="AY9" s="76"/>
-      <c r="AZ9" s="69"/>
-      <c r="BA9" s="69"/>
-      <c r="BB9" s="69"/>
-      <c r="BC9" s="69"/>
-      <c r="BD9" s="69"/>
+      <c r="AY9" s="73"/>
+      <c r="AZ9" s="72"/>
+      <c r="BA9" s="72"/>
+      <c r="BB9" s="72"/>
+      <c r="BC9" s="72"/>
+      <c r="BD9" s="72"/>
       <c r="BE9" s="23"/>
     </row>
     <row r="10" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22">
         <v>4</v>
       </c>
-      <c r="B10" s="70">
+      <c r="B10" s="71">
         <v>4</v>
       </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="64" t="s">
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="69" t="s">
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="T10" s="69"/>
-      <c r="U10" s="69"/>
-      <c r="V10" s="69"/>
-      <c r="W10" s="69"/>
-      <c r="X10" s="69"/>
-      <c r="Y10" s="69"/>
-      <c r="Z10" s="76">
+      <c r="T10" s="72"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="72"/>
+      <c r="Y10" s="72"/>
+      <c r="Z10" s="73">
         <v>42907</v>
       </c>
-      <c r="AA10" s="76"/>
-      <c r="AB10" s="76"/>
-      <c r="AC10" s="76">
+      <c r="AA10" s="73"/>
+      <c r="AB10" s="73"/>
+      <c r="AC10" s="73">
         <v>42907</v>
       </c>
-      <c r="AD10" s="76"/>
-      <c r="AE10" s="76">
+      <c r="AD10" s="73"/>
+      <c r="AE10" s="73">
         <v>42907</v>
       </c>
-      <c r="AF10" s="76"/>
-      <c r="AG10" s="70">
+      <c r="AF10" s="73"/>
+      <c r="AG10" s="71">
         <v>5</v>
       </c>
-      <c r="AH10" s="70"/>
-      <c r="AI10" s="70">
+      <c r="AH10" s="71"/>
+      <c r="AI10" s="71">
         <v>3</v>
       </c>
-      <c r="AJ10" s="70"/>
+      <c r="AJ10" s="71"/>
       <c r="AK10" s="40"/>
       <c r="AL10" s="41"/>
       <c r="AM10" s="41"/>
@@ -2705,84 +2708,84 @@
       <c r="AO10" s="41"/>
       <c r="AP10" s="41"/>
       <c r="AQ10" s="42"/>
-      <c r="AR10" s="71">
+      <c r="AR10" s="55">
         <v>42907</v>
       </c>
-      <c r="AS10" s="71"/>
-      <c r="AT10" s="71">
+      <c r="AS10" s="55"/>
+      <c r="AT10" s="55">
         <v>42907</v>
       </c>
-      <c r="AU10" s="71"/>
-      <c r="AV10" s="71">
+      <c r="AU10" s="55"/>
+      <c r="AV10" s="55">
         <v>42907</v>
       </c>
-      <c r="AW10" s="71"/>
-      <c r="AX10" s="71">
+      <c r="AW10" s="55"/>
+      <c r="AX10" s="55">
         <v>42907</v>
       </c>
-      <c r="AY10" s="71"/>
-      <c r="AZ10" s="69"/>
-      <c r="BA10" s="69"/>
-      <c r="BB10" s="69"/>
-      <c r="BC10" s="69"/>
-      <c r="BD10" s="69"/>
+      <c r="AY10" s="55"/>
+      <c r="AZ10" s="72"/>
+      <c r="BA10" s="72"/>
+      <c r="BB10" s="72"/>
+      <c r="BC10" s="72"/>
+      <c r="BD10" s="72"/>
       <c r="BE10" s="23"/>
     </row>
     <row r="11" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22">
         <v>5</v>
       </c>
-      <c r="B11" s="70">
+      <c r="B11" s="71">
         <v>5</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="64" t="s">
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="69" t="s">
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="T11" s="69"/>
-      <c r="U11" s="69"/>
-      <c r="V11" s="69"/>
-      <c r="W11" s="69"/>
-      <c r="X11" s="69"/>
-      <c r="Y11" s="69"/>
-      <c r="Z11" s="76">
+      <c r="T11" s="72"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="72"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="72"/>
+      <c r="Y11" s="72"/>
+      <c r="Z11" s="73">
         <v>42907</v>
       </c>
-      <c r="AA11" s="76"/>
-      <c r="AB11" s="76"/>
-      <c r="AC11" s="76">
+      <c r="AA11" s="73"/>
+      <c r="AB11" s="73"/>
+      <c r="AC11" s="73">
         <v>42907</v>
       </c>
-      <c r="AD11" s="76"/>
-      <c r="AE11" s="76">
+      <c r="AD11" s="73"/>
+      <c r="AE11" s="73">
         <v>42907</v>
       </c>
-      <c r="AF11" s="76"/>
-      <c r="AG11" s="70">
+      <c r="AF11" s="73"/>
+      <c r="AG11" s="71">
         <v>5</v>
       </c>
-      <c r="AH11" s="70"/>
-      <c r="AI11" s="70">
+      <c r="AH11" s="71"/>
+      <c r="AI11" s="71">
         <v>3</v>
       </c>
-      <c r="AJ11" s="70"/>
+      <c r="AJ11" s="71"/>
       <c r="AK11" s="40"/>
       <c r="AL11" s="41"/>
       <c r="AM11" s="41"/>
@@ -2790,84 +2793,84 @@
       <c r="AO11" s="41"/>
       <c r="AP11" s="41"/>
       <c r="AQ11" s="42"/>
-      <c r="AR11" s="71">
+      <c r="AR11" s="55">
         <v>42907</v>
       </c>
-      <c r="AS11" s="71"/>
-      <c r="AT11" s="71">
+      <c r="AS11" s="55"/>
+      <c r="AT11" s="55">
         <v>42907</v>
       </c>
-      <c r="AU11" s="71"/>
-      <c r="AV11" s="71">
+      <c r="AU11" s="55"/>
+      <c r="AV11" s="55">
         <v>42907</v>
       </c>
-      <c r="AW11" s="71"/>
-      <c r="AX11" s="71">
+      <c r="AW11" s="55"/>
+      <c r="AX11" s="55">
         <v>42907</v>
       </c>
-      <c r="AY11" s="71"/>
-      <c r="AZ11" s="69"/>
-      <c r="BA11" s="69"/>
-      <c r="BB11" s="69"/>
-      <c r="BC11" s="69"/>
-      <c r="BD11" s="69"/>
+      <c r="AY11" s="55"/>
+      <c r="AZ11" s="72"/>
+      <c r="BA11" s="72"/>
+      <c r="BB11" s="72"/>
+      <c r="BC11" s="72"/>
+      <c r="BD11" s="72"/>
       <c r="BE11" s="23"/>
     </row>
     <row r="12" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22">
         <v>6</v>
       </c>
-      <c r="B12" s="70">
+      <c r="B12" s="71">
         <v>6</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="64" t="s">
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="69" t="s">
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="T12" s="69"/>
-      <c r="U12" s="69"/>
-      <c r="V12" s="69"/>
-      <c r="W12" s="69"/>
-      <c r="X12" s="69"/>
-      <c r="Y12" s="69"/>
-      <c r="Z12" s="76">
+      <c r="T12" s="72"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="72"/>
+      <c r="W12" s="72"/>
+      <c r="X12" s="72"/>
+      <c r="Y12" s="72"/>
+      <c r="Z12" s="73">
         <v>42907</v>
       </c>
-      <c r="AA12" s="76"/>
-      <c r="AB12" s="76"/>
-      <c r="AC12" s="76">
+      <c r="AA12" s="73"/>
+      <c r="AB12" s="73"/>
+      <c r="AC12" s="73">
         <v>42907</v>
       </c>
-      <c r="AD12" s="76"/>
-      <c r="AE12" s="76">
+      <c r="AD12" s="73"/>
+      <c r="AE12" s="73">
         <v>42907</v>
       </c>
-      <c r="AF12" s="76"/>
-      <c r="AG12" s="70">
+      <c r="AF12" s="73"/>
+      <c r="AG12" s="71">
         <v>5</v>
       </c>
-      <c r="AH12" s="70"/>
-      <c r="AI12" s="70">
+      <c r="AH12" s="71"/>
+      <c r="AI12" s="71">
         <v>3</v>
       </c>
-      <c r="AJ12" s="70"/>
+      <c r="AJ12" s="71"/>
       <c r="AK12" s="40"/>
       <c r="AL12" s="41"/>
       <c r="AM12" s="41"/>
@@ -2875,84 +2878,84 @@
       <c r="AO12" s="41"/>
       <c r="AP12" s="41"/>
       <c r="AQ12" s="42"/>
-      <c r="AR12" s="71">
+      <c r="AR12" s="55">
         <v>42907</v>
       </c>
-      <c r="AS12" s="71"/>
-      <c r="AT12" s="71">
+      <c r="AS12" s="55"/>
+      <c r="AT12" s="55">
         <v>42907</v>
       </c>
-      <c r="AU12" s="71"/>
-      <c r="AV12" s="76">
+      <c r="AU12" s="55"/>
+      <c r="AV12" s="73">
         <v>42907</v>
       </c>
-      <c r="AW12" s="76"/>
-      <c r="AX12" s="76">
+      <c r="AW12" s="73"/>
+      <c r="AX12" s="73">
         <v>42907</v>
       </c>
-      <c r="AY12" s="76"/>
-      <c r="AZ12" s="69"/>
-      <c r="BA12" s="69"/>
-      <c r="BB12" s="69"/>
-      <c r="BC12" s="69"/>
-      <c r="BD12" s="69"/>
+      <c r="AY12" s="73"/>
+      <c r="AZ12" s="72"/>
+      <c r="BA12" s="72"/>
+      <c r="BB12" s="72"/>
+      <c r="BC12" s="72"/>
+      <c r="BD12" s="72"/>
       <c r="BE12" s="23"/>
     </row>
     <row r="13" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22">
         <v>7</v>
       </c>
-      <c r="B13" s="70">
+      <c r="B13" s="71">
         <v>7</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="64" t="s">
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="69" t="s">
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="T13" s="69"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="69"/>
-      <c r="W13" s="69"/>
-      <c r="X13" s="69"/>
-      <c r="Y13" s="69"/>
-      <c r="Z13" s="76">
+      <c r="T13" s="72"/>
+      <c r="U13" s="72"/>
+      <c r="V13" s="72"/>
+      <c r="W13" s="72"/>
+      <c r="X13" s="72"/>
+      <c r="Y13" s="72"/>
+      <c r="Z13" s="73">
         <v>42907</v>
       </c>
-      <c r="AA13" s="76"/>
-      <c r="AB13" s="76"/>
-      <c r="AC13" s="76">
+      <c r="AA13" s="73"/>
+      <c r="AB13" s="73"/>
+      <c r="AC13" s="73">
         <v>42907</v>
       </c>
-      <c r="AD13" s="76"/>
-      <c r="AE13" s="76">
+      <c r="AD13" s="73"/>
+      <c r="AE13" s="73">
         <v>42907</v>
       </c>
-      <c r="AF13" s="76"/>
-      <c r="AG13" s="70">
+      <c r="AF13" s="73"/>
+      <c r="AG13" s="71">
         <v>5</v>
       </c>
-      <c r="AH13" s="70"/>
-      <c r="AI13" s="70">
+      <c r="AH13" s="71"/>
+      <c r="AI13" s="71">
         <v>3</v>
       </c>
-      <c r="AJ13" s="70"/>
+      <c r="AJ13" s="71"/>
       <c r="AK13" s="40"/>
       <c r="AL13" s="41"/>
       <c r="AM13" s="41"/>
@@ -2960,68 +2963,68 @@
       <c r="AO13" s="41"/>
       <c r="AP13" s="41"/>
       <c r="AQ13" s="42"/>
-      <c r="AR13" s="71">
+      <c r="AR13" s="55">
         <v>42907</v>
       </c>
-      <c r="AS13" s="71"/>
-      <c r="AT13" s="71">
+      <c r="AS13" s="55"/>
+      <c r="AT13" s="55">
         <v>42907</v>
       </c>
-      <c r="AU13" s="71"/>
-      <c r="AV13" s="76">
+      <c r="AU13" s="55"/>
+      <c r="AV13" s="73">
         <v>42907</v>
       </c>
-      <c r="AW13" s="76"/>
-      <c r="AX13" s="76">
+      <c r="AW13" s="73"/>
+      <c r="AX13" s="73">
         <v>42907</v>
       </c>
-      <c r="AY13" s="76"/>
-      <c r="AZ13" s="69"/>
-      <c r="BA13" s="69"/>
-      <c r="BB13" s="69"/>
-      <c r="BC13" s="69"/>
-      <c r="BD13" s="69"/>
+      <c r="AY13" s="73"/>
+      <c r="AZ13" s="72"/>
+      <c r="BA13" s="72"/>
+      <c r="BB13" s="72"/>
+      <c r="BC13" s="72"/>
+      <c r="BD13" s="72"/>
       <c r="BE13" s="23"/>
     </row>
     <row r="14" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="22">
         <v>8</v>
       </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="69"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="69"/>
-      <c r="V14" s="69"/>
-      <c r="W14" s="69"/>
-      <c r="X14" s="69"/>
-      <c r="Y14" s="69"/>
-      <c r="Z14" s="76"/>
-      <c r="AA14" s="76"/>
-      <c r="AB14" s="76"/>
-      <c r="AC14" s="76"/>
-      <c r="AD14" s="76"/>
-      <c r="AE14" s="76"/>
-      <c r="AF14" s="76"/>
-      <c r="AG14" s="70"/>
-      <c r="AH14" s="70"/>
-      <c r="AI14" s="70"/>
-      <c r="AJ14" s="70"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="72"/>
+      <c r="W14" s="72"/>
+      <c r="X14" s="72"/>
+      <c r="Y14" s="72"/>
+      <c r="Z14" s="73"/>
+      <c r="AA14" s="73"/>
+      <c r="AB14" s="73"/>
+      <c r="AC14" s="73"/>
+      <c r="AD14" s="73"/>
+      <c r="AE14" s="73"/>
+      <c r="AF14" s="73"/>
+      <c r="AG14" s="71"/>
+      <c r="AH14" s="71"/>
+      <c r="AI14" s="71"/>
+      <c r="AJ14" s="71"/>
       <c r="AK14" s="40"/>
       <c r="AL14" s="41"/>
       <c r="AM14" s="41"/>
@@ -3029,60 +3032,60 @@
       <c r="AO14" s="41"/>
       <c r="AP14" s="41"/>
       <c r="AQ14" s="42"/>
-      <c r="AR14" s="71"/>
-      <c r="AS14" s="71"/>
-      <c r="AT14" s="71"/>
-      <c r="AU14" s="71"/>
-      <c r="AV14" s="76"/>
-      <c r="AW14" s="76"/>
-      <c r="AX14" s="76"/>
-      <c r="AY14" s="76"/>
-      <c r="AZ14" s="69"/>
-      <c r="BA14" s="69"/>
-      <c r="BB14" s="69"/>
-      <c r="BC14" s="69"/>
-      <c r="BD14" s="69"/>
+      <c r="AR14" s="55"/>
+      <c r="AS14" s="55"/>
+      <c r="AT14" s="55"/>
+      <c r="AU14" s="55"/>
+      <c r="AV14" s="73"/>
+      <c r="AW14" s="73"/>
+      <c r="AX14" s="73"/>
+      <c r="AY14" s="73"/>
+      <c r="AZ14" s="72"/>
+      <c r="BA14" s="72"/>
+      <c r="BB14" s="72"/>
+      <c r="BC14" s="72"/>
+      <c r="BD14" s="72"/>
       <c r="BE14" s="23"/>
     </row>
     <row r="15" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="22">
         <v>9</v>
       </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="69"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="69"/>
-      <c r="V15" s="69"/>
-      <c r="W15" s="69"/>
-      <c r="X15" s="69"/>
-      <c r="Y15" s="69"/>
-      <c r="Z15" s="76"/>
-      <c r="AA15" s="76"/>
-      <c r="AB15" s="76"/>
-      <c r="AC15" s="76"/>
-      <c r="AD15" s="76"/>
-      <c r="AE15" s="76"/>
-      <c r="AF15" s="76"/>
-      <c r="AG15" s="70"/>
-      <c r="AH15" s="70"/>
-      <c r="AI15" s="70"/>
-      <c r="AJ15" s="70"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="72"/>
+      <c r="X15" s="72"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="73"/>
+      <c r="AA15" s="73"/>
+      <c r="AB15" s="73"/>
+      <c r="AC15" s="73"/>
+      <c r="AD15" s="73"/>
+      <c r="AE15" s="73"/>
+      <c r="AF15" s="73"/>
+      <c r="AG15" s="71"/>
+      <c r="AH15" s="71"/>
+      <c r="AI15" s="71"/>
+      <c r="AJ15" s="71"/>
       <c r="AK15" s="40"/>
       <c r="AL15" s="41"/>
       <c r="AM15" s="41"/>
@@ -3090,60 +3093,60 @@
       <c r="AO15" s="41"/>
       <c r="AP15" s="41"/>
       <c r="AQ15" s="42"/>
-      <c r="AR15" s="71"/>
-      <c r="AS15" s="71"/>
-      <c r="AT15" s="71"/>
-      <c r="AU15" s="71"/>
-      <c r="AV15" s="76"/>
-      <c r="AW15" s="76"/>
-      <c r="AX15" s="76"/>
-      <c r="AY15" s="76"/>
-      <c r="AZ15" s="69"/>
-      <c r="BA15" s="69"/>
-      <c r="BB15" s="69"/>
-      <c r="BC15" s="69"/>
-      <c r="BD15" s="69"/>
+      <c r="AR15" s="55"/>
+      <c r="AS15" s="55"/>
+      <c r="AT15" s="55"/>
+      <c r="AU15" s="55"/>
+      <c r="AV15" s="73"/>
+      <c r="AW15" s="73"/>
+      <c r="AX15" s="73"/>
+      <c r="AY15" s="73"/>
+      <c r="AZ15" s="72"/>
+      <c r="BA15" s="72"/>
+      <c r="BB15" s="72"/>
+      <c r="BC15" s="72"/>
+      <c r="BD15" s="72"/>
       <c r="BE15" s="23"/>
     </row>
     <row r="16" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="22">
         <v>10</v>
       </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="69"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="69"/>
-      <c r="V16" s="69"/>
-      <c r="W16" s="69"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="69"/>
-      <c r="Z16" s="76"/>
-      <c r="AA16" s="76"/>
-      <c r="AB16" s="76"/>
-      <c r="AC16" s="76"/>
-      <c r="AD16" s="76"/>
-      <c r="AE16" s="76"/>
-      <c r="AF16" s="76"/>
-      <c r="AG16" s="70"/>
-      <c r="AH16" s="70"/>
-      <c r="AI16" s="70"/>
-      <c r="AJ16" s="70"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="73"/>
+      <c r="AA16" s="73"/>
+      <c r="AB16" s="73"/>
+      <c r="AC16" s="73"/>
+      <c r="AD16" s="73"/>
+      <c r="AE16" s="73"/>
+      <c r="AF16" s="73"/>
+      <c r="AG16" s="71"/>
+      <c r="AH16" s="71"/>
+      <c r="AI16" s="71"/>
+      <c r="AJ16" s="71"/>
       <c r="AK16" s="40"/>
       <c r="AL16" s="41"/>
       <c r="AM16" s="41"/>
@@ -3151,60 +3154,60 @@
       <c r="AO16" s="41"/>
       <c r="AP16" s="41"/>
       <c r="AQ16" s="42"/>
-      <c r="AR16" s="71"/>
-      <c r="AS16" s="71"/>
-      <c r="AT16" s="71"/>
-      <c r="AU16" s="71"/>
-      <c r="AV16" s="76"/>
-      <c r="AW16" s="76"/>
-      <c r="AX16" s="76"/>
-      <c r="AY16" s="76"/>
-      <c r="AZ16" s="69"/>
-      <c r="BA16" s="69"/>
-      <c r="BB16" s="69"/>
-      <c r="BC16" s="69"/>
-      <c r="BD16" s="69"/>
+      <c r="AR16" s="55"/>
+      <c r="AS16" s="55"/>
+      <c r="AT16" s="55"/>
+      <c r="AU16" s="55"/>
+      <c r="AV16" s="73"/>
+      <c r="AW16" s="73"/>
+      <c r="AX16" s="73"/>
+      <c r="AY16" s="73"/>
+      <c r="AZ16" s="72"/>
+      <c r="BA16" s="72"/>
+      <c r="BB16" s="72"/>
+      <c r="BC16" s="72"/>
+      <c r="BD16" s="72"/>
       <c r="BE16" s="23"/>
     </row>
     <row r="17" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="22">
         <v>11</v>
       </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="66"/>
-      <c r="S17" s="69"/>
-      <c r="T17" s="69"/>
-      <c r="U17" s="69"/>
-      <c r="V17" s="69"/>
-      <c r="W17" s="69"/>
-      <c r="X17" s="69"/>
-      <c r="Y17" s="69"/>
-      <c r="Z17" s="76"/>
-      <c r="AA17" s="76"/>
-      <c r="AB17" s="76"/>
-      <c r="AC17" s="76"/>
-      <c r="AD17" s="76"/>
-      <c r="AE17" s="76"/>
-      <c r="AF17" s="76"/>
-      <c r="AG17" s="70"/>
-      <c r="AH17" s="70"/>
-      <c r="AI17" s="70"/>
-      <c r="AJ17" s="70"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="72"/>
+      <c r="U17" s="72"/>
+      <c r="V17" s="72"/>
+      <c r="W17" s="72"/>
+      <c r="X17" s="72"/>
+      <c r="Y17" s="72"/>
+      <c r="Z17" s="73"/>
+      <c r="AA17" s="73"/>
+      <c r="AB17" s="73"/>
+      <c r="AC17" s="73"/>
+      <c r="AD17" s="73"/>
+      <c r="AE17" s="73"/>
+      <c r="AF17" s="73"/>
+      <c r="AG17" s="71"/>
+      <c r="AH17" s="71"/>
+      <c r="AI17" s="71"/>
+      <c r="AJ17" s="71"/>
       <c r="AK17" s="40"/>
       <c r="AL17" s="41"/>
       <c r="AM17" s="41"/>
@@ -3212,60 +3215,60 @@
       <c r="AO17" s="41"/>
       <c r="AP17" s="41"/>
       <c r="AQ17" s="42"/>
-      <c r="AR17" s="71"/>
-      <c r="AS17" s="71"/>
-      <c r="AT17" s="71"/>
-      <c r="AU17" s="71"/>
-      <c r="AV17" s="76"/>
-      <c r="AW17" s="76"/>
-      <c r="AX17" s="76"/>
-      <c r="AY17" s="76"/>
-      <c r="AZ17" s="69"/>
-      <c r="BA17" s="69"/>
-      <c r="BB17" s="69"/>
-      <c r="BC17" s="69"/>
-      <c r="BD17" s="69"/>
+      <c r="AR17" s="55"/>
+      <c r="AS17" s="55"/>
+      <c r="AT17" s="55"/>
+      <c r="AU17" s="55"/>
+      <c r="AV17" s="73"/>
+      <c r="AW17" s="73"/>
+      <c r="AX17" s="73"/>
+      <c r="AY17" s="73"/>
+      <c r="AZ17" s="72"/>
+      <c r="BA17" s="72"/>
+      <c r="BB17" s="72"/>
+      <c r="BC17" s="72"/>
+      <c r="BD17" s="72"/>
       <c r="BE17" s="23"/>
     </row>
     <row r="18" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="22">
         <v>12</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="66"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="69"/>
-      <c r="X18" s="69"/>
-      <c r="Y18" s="69"/>
-      <c r="Z18" s="76"/>
-      <c r="AA18" s="76"/>
-      <c r="AB18" s="76"/>
-      <c r="AC18" s="76"/>
-      <c r="AD18" s="76"/>
-      <c r="AE18" s="76"/>
-      <c r="AF18" s="76"/>
-      <c r="AG18" s="70"/>
-      <c r="AH18" s="70"/>
-      <c r="AI18" s="70"/>
-      <c r="AJ18" s="70"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="70"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="72"/>
+      <c r="U18" s="72"/>
+      <c r="V18" s="72"/>
+      <c r="W18" s="72"/>
+      <c r="X18" s="72"/>
+      <c r="Y18" s="72"/>
+      <c r="Z18" s="73"/>
+      <c r="AA18" s="73"/>
+      <c r="AB18" s="73"/>
+      <c r="AC18" s="73"/>
+      <c r="AD18" s="73"/>
+      <c r="AE18" s="73"/>
+      <c r="AF18" s="73"/>
+      <c r="AG18" s="71"/>
+      <c r="AH18" s="71"/>
+      <c r="AI18" s="71"/>
+      <c r="AJ18" s="71"/>
       <c r="AK18" s="40"/>
       <c r="AL18" s="41"/>
       <c r="AM18" s="41"/>
@@ -3273,60 +3276,60 @@
       <c r="AO18" s="41"/>
       <c r="AP18" s="41"/>
       <c r="AQ18" s="42"/>
-      <c r="AR18" s="71"/>
-      <c r="AS18" s="71"/>
-      <c r="AT18" s="71"/>
-      <c r="AU18" s="71"/>
-      <c r="AV18" s="76"/>
-      <c r="AW18" s="76"/>
-      <c r="AX18" s="76"/>
-      <c r="AY18" s="76"/>
-      <c r="AZ18" s="69"/>
-      <c r="BA18" s="69"/>
-      <c r="BB18" s="69"/>
-      <c r="BC18" s="69"/>
-      <c r="BD18" s="69"/>
+      <c r="AR18" s="55"/>
+      <c r="AS18" s="55"/>
+      <c r="AT18" s="55"/>
+      <c r="AU18" s="55"/>
+      <c r="AV18" s="73"/>
+      <c r="AW18" s="73"/>
+      <c r="AX18" s="73"/>
+      <c r="AY18" s="73"/>
+      <c r="AZ18" s="72"/>
+      <c r="BA18" s="72"/>
+      <c r="BB18" s="72"/>
+      <c r="BC18" s="72"/>
+      <c r="BD18" s="72"/>
       <c r="BE18" s="23"/>
     </row>
     <row r="19" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="22">
         <v>13</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="66"/>
-      <c r="S19" s="69"/>
-      <c r="T19" s="69"/>
-      <c r="U19" s="69"/>
-      <c r="V19" s="69"/>
-      <c r="W19" s="69"/>
-      <c r="X19" s="69"/>
-      <c r="Y19" s="69"/>
-      <c r="Z19" s="76"/>
-      <c r="AA19" s="76"/>
-      <c r="AB19" s="76"/>
-      <c r="AC19" s="76"/>
-      <c r="AD19" s="76"/>
-      <c r="AE19" s="76"/>
-      <c r="AF19" s="76"/>
-      <c r="AG19" s="70"/>
-      <c r="AH19" s="70"/>
-      <c r="AI19" s="70"/>
-      <c r="AJ19" s="70"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="70"/>
+      <c r="S19" s="72"/>
+      <c r="T19" s="72"/>
+      <c r="U19" s="72"/>
+      <c r="V19" s="72"/>
+      <c r="W19" s="72"/>
+      <c r="X19" s="72"/>
+      <c r="Y19" s="72"/>
+      <c r="Z19" s="73"/>
+      <c r="AA19" s="73"/>
+      <c r="AB19" s="73"/>
+      <c r="AC19" s="73"/>
+      <c r="AD19" s="73"/>
+      <c r="AE19" s="73"/>
+      <c r="AF19" s="73"/>
+      <c r="AG19" s="71"/>
+      <c r="AH19" s="71"/>
+      <c r="AI19" s="71"/>
+      <c r="AJ19" s="71"/>
       <c r="AK19" s="40"/>
       <c r="AL19" s="41"/>
       <c r="AM19" s="41"/>
@@ -3334,60 +3337,60 @@
       <c r="AO19" s="41"/>
       <c r="AP19" s="41"/>
       <c r="AQ19" s="42"/>
-      <c r="AR19" s="71"/>
-      <c r="AS19" s="71"/>
-      <c r="AT19" s="71"/>
-      <c r="AU19" s="71"/>
-      <c r="AV19" s="76"/>
-      <c r="AW19" s="76"/>
-      <c r="AX19" s="76"/>
-      <c r="AY19" s="76"/>
-      <c r="AZ19" s="69"/>
-      <c r="BA19" s="69"/>
-      <c r="BB19" s="69"/>
-      <c r="BC19" s="69"/>
-      <c r="BD19" s="69"/>
+      <c r="AR19" s="55"/>
+      <c r="AS19" s="55"/>
+      <c r="AT19" s="55"/>
+      <c r="AU19" s="55"/>
+      <c r="AV19" s="73"/>
+      <c r="AW19" s="73"/>
+      <c r="AX19" s="73"/>
+      <c r="AY19" s="73"/>
+      <c r="AZ19" s="72"/>
+      <c r="BA19" s="72"/>
+      <c r="BB19" s="72"/>
+      <c r="BC19" s="72"/>
+      <c r="BD19" s="72"/>
       <c r="BE19" s="23"/>
     </row>
     <row r="20" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="22">
         <v>14</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="69"/>
-      <c r="T20" s="69"/>
-      <c r="U20" s="69"/>
-      <c r="V20" s="69"/>
-      <c r="W20" s="69"/>
-      <c r="X20" s="69"/>
-      <c r="Y20" s="69"/>
-      <c r="Z20" s="76"/>
-      <c r="AA20" s="76"/>
-      <c r="AB20" s="76"/>
-      <c r="AC20" s="76"/>
-      <c r="AD20" s="76"/>
-      <c r="AE20" s="76"/>
-      <c r="AF20" s="76"/>
-      <c r="AG20" s="70"/>
-      <c r="AH20" s="70"/>
-      <c r="AI20" s="70"/>
-      <c r="AJ20" s="70"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="72"/>
+      <c r="T20" s="72"/>
+      <c r="U20" s="72"/>
+      <c r="V20" s="72"/>
+      <c r="W20" s="72"/>
+      <c r="X20" s="72"/>
+      <c r="Y20" s="72"/>
+      <c r="Z20" s="73"/>
+      <c r="AA20" s="73"/>
+      <c r="AB20" s="73"/>
+      <c r="AC20" s="73"/>
+      <c r="AD20" s="73"/>
+      <c r="AE20" s="73"/>
+      <c r="AF20" s="73"/>
+      <c r="AG20" s="71"/>
+      <c r="AH20" s="71"/>
+      <c r="AI20" s="71"/>
+      <c r="AJ20" s="71"/>
       <c r="AK20" s="40"/>
       <c r="AL20" s="41"/>
       <c r="AM20" s="41"/>
@@ -3395,60 +3398,60 @@
       <c r="AO20" s="41"/>
       <c r="AP20" s="41"/>
       <c r="AQ20" s="42"/>
-      <c r="AR20" s="71"/>
-      <c r="AS20" s="71"/>
-      <c r="AT20" s="71"/>
-      <c r="AU20" s="71"/>
-      <c r="AV20" s="76"/>
-      <c r="AW20" s="76"/>
-      <c r="AX20" s="76"/>
-      <c r="AY20" s="76"/>
-      <c r="AZ20" s="69"/>
-      <c r="BA20" s="69"/>
-      <c r="BB20" s="69"/>
-      <c r="BC20" s="69"/>
-      <c r="BD20" s="69"/>
+      <c r="AR20" s="55"/>
+      <c r="AS20" s="55"/>
+      <c r="AT20" s="55"/>
+      <c r="AU20" s="55"/>
+      <c r="AV20" s="73"/>
+      <c r="AW20" s="73"/>
+      <c r="AX20" s="73"/>
+      <c r="AY20" s="73"/>
+      <c r="AZ20" s="72"/>
+      <c r="BA20" s="72"/>
+      <c r="BB20" s="72"/>
+      <c r="BC20" s="72"/>
+      <c r="BD20" s="72"/>
       <c r="BE20" s="23"/>
     </row>
     <row r="21" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="22">
         <v>15</v>
       </c>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="69"/>
-      <c r="T21" s="69"/>
-      <c r="U21" s="69"/>
-      <c r="V21" s="69"/>
-      <c r="W21" s="69"/>
-      <c r="X21" s="69"/>
-      <c r="Y21" s="69"/>
-      <c r="Z21" s="76"/>
-      <c r="AA21" s="76"/>
-      <c r="AB21" s="76"/>
-      <c r="AC21" s="76"/>
-      <c r="AD21" s="76"/>
-      <c r="AE21" s="76"/>
-      <c r="AF21" s="76"/>
-      <c r="AG21" s="70"/>
-      <c r="AH21" s="70"/>
-      <c r="AI21" s="70"/>
-      <c r="AJ21" s="70"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="72"/>
+      <c r="T21" s="72"/>
+      <c r="U21" s="72"/>
+      <c r="V21" s="72"/>
+      <c r="W21" s="72"/>
+      <c r="X21" s="72"/>
+      <c r="Y21" s="72"/>
+      <c r="Z21" s="73"/>
+      <c r="AA21" s="73"/>
+      <c r="AB21" s="73"/>
+      <c r="AC21" s="73"/>
+      <c r="AD21" s="73"/>
+      <c r="AE21" s="73"/>
+      <c r="AF21" s="73"/>
+      <c r="AG21" s="71"/>
+      <c r="AH21" s="71"/>
+      <c r="AI21" s="71"/>
+      <c r="AJ21" s="71"/>
       <c r="AK21" s="40"/>
       <c r="AL21" s="41"/>
       <c r="AM21" s="41"/>
@@ -3456,60 +3459,60 @@
       <c r="AO21" s="41"/>
       <c r="AP21" s="41"/>
       <c r="AQ21" s="42"/>
-      <c r="AR21" s="71"/>
-      <c r="AS21" s="71"/>
-      <c r="AT21" s="71"/>
-      <c r="AU21" s="71"/>
-      <c r="AV21" s="76"/>
-      <c r="AW21" s="76"/>
-      <c r="AX21" s="76"/>
-      <c r="AY21" s="76"/>
-      <c r="AZ21" s="69"/>
-      <c r="BA21" s="69"/>
-      <c r="BB21" s="69"/>
-      <c r="BC21" s="69"/>
-      <c r="BD21" s="69"/>
+      <c r="AR21" s="55"/>
+      <c r="AS21" s="55"/>
+      <c r="AT21" s="55"/>
+      <c r="AU21" s="55"/>
+      <c r="AV21" s="73"/>
+      <c r="AW21" s="73"/>
+      <c r="AX21" s="73"/>
+      <c r="AY21" s="73"/>
+      <c r="AZ21" s="72"/>
+      <c r="BA21" s="72"/>
+      <c r="BB21" s="72"/>
+      <c r="BC21" s="72"/>
+      <c r="BD21" s="72"/>
       <c r="BE21" s="23"/>
     </row>
     <row r="22" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="22">
         <v>16</v>
       </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="65"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="69"/>
-      <c r="T22" s="69"/>
-      <c r="U22" s="69"/>
-      <c r="V22" s="69"/>
-      <c r="W22" s="69"/>
-      <c r="X22" s="69"/>
-      <c r="Y22" s="69"/>
-      <c r="Z22" s="76"/>
-      <c r="AA22" s="76"/>
-      <c r="AB22" s="76"/>
-      <c r="AC22" s="76"/>
-      <c r="AD22" s="76"/>
-      <c r="AE22" s="76"/>
-      <c r="AF22" s="76"/>
-      <c r="AG22" s="70"/>
-      <c r="AH22" s="70"/>
-      <c r="AI22" s="70"/>
-      <c r="AJ22" s="70"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="69"/>
+      <c r="Q22" s="69"/>
+      <c r="R22" s="70"/>
+      <c r="S22" s="72"/>
+      <c r="T22" s="72"/>
+      <c r="U22" s="72"/>
+      <c r="V22" s="72"/>
+      <c r="W22" s="72"/>
+      <c r="X22" s="72"/>
+      <c r="Y22" s="72"/>
+      <c r="Z22" s="73"/>
+      <c r="AA22" s="73"/>
+      <c r="AB22" s="73"/>
+      <c r="AC22" s="73"/>
+      <c r="AD22" s="73"/>
+      <c r="AE22" s="73"/>
+      <c r="AF22" s="73"/>
+      <c r="AG22" s="71"/>
+      <c r="AH22" s="71"/>
+      <c r="AI22" s="71"/>
+      <c r="AJ22" s="71"/>
       <c r="AK22" s="40"/>
       <c r="AL22" s="41"/>
       <c r="AM22" s="41"/>
@@ -3517,60 +3520,60 @@
       <c r="AO22" s="41"/>
       <c r="AP22" s="41"/>
       <c r="AQ22" s="42"/>
-      <c r="AR22" s="71"/>
-      <c r="AS22" s="71"/>
-      <c r="AT22" s="71"/>
-      <c r="AU22" s="71"/>
-      <c r="AV22" s="76"/>
-      <c r="AW22" s="76"/>
-      <c r="AX22" s="76"/>
-      <c r="AY22" s="76"/>
-      <c r="AZ22" s="69"/>
-      <c r="BA22" s="69"/>
-      <c r="BB22" s="69"/>
-      <c r="BC22" s="69"/>
-      <c r="BD22" s="69"/>
+      <c r="AR22" s="55"/>
+      <c r="AS22" s="55"/>
+      <c r="AT22" s="55"/>
+      <c r="AU22" s="55"/>
+      <c r="AV22" s="73"/>
+      <c r="AW22" s="73"/>
+      <c r="AX22" s="73"/>
+      <c r="AY22" s="73"/>
+      <c r="AZ22" s="72"/>
+      <c r="BA22" s="72"/>
+      <c r="BB22" s="72"/>
+      <c r="BC22" s="72"/>
+      <c r="BD22" s="72"/>
       <c r="BE22" s="23"/>
     </row>
     <row r="23" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="22">
         <v>17</v>
       </c>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="69"/>
-      <c r="T23" s="69"/>
-      <c r="U23" s="69"/>
-      <c r="V23" s="69"/>
-      <c r="W23" s="69"/>
-      <c r="X23" s="69"/>
-      <c r="Y23" s="69"/>
-      <c r="Z23" s="76"/>
-      <c r="AA23" s="76"/>
-      <c r="AB23" s="76"/>
-      <c r="AC23" s="76"/>
-      <c r="AD23" s="76"/>
-      <c r="AE23" s="76"/>
-      <c r="AF23" s="76"/>
-      <c r="AG23" s="70"/>
-      <c r="AH23" s="70"/>
-      <c r="AI23" s="70"/>
-      <c r="AJ23" s="70"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="69"/>
+      <c r="P23" s="69"/>
+      <c r="Q23" s="69"/>
+      <c r="R23" s="70"/>
+      <c r="S23" s="72"/>
+      <c r="T23" s="72"/>
+      <c r="U23" s="72"/>
+      <c r="V23" s="72"/>
+      <c r="W23" s="72"/>
+      <c r="X23" s="72"/>
+      <c r="Y23" s="72"/>
+      <c r="Z23" s="73"/>
+      <c r="AA23" s="73"/>
+      <c r="AB23" s="73"/>
+      <c r="AC23" s="73"/>
+      <c r="AD23" s="73"/>
+      <c r="AE23" s="73"/>
+      <c r="AF23" s="73"/>
+      <c r="AG23" s="71"/>
+      <c r="AH23" s="71"/>
+      <c r="AI23" s="71"/>
+      <c r="AJ23" s="71"/>
       <c r="AK23" s="40"/>
       <c r="AL23" s="41"/>
       <c r="AM23" s="41"/>
@@ -3578,60 +3581,60 @@
       <c r="AO23" s="41"/>
       <c r="AP23" s="41"/>
       <c r="AQ23" s="42"/>
-      <c r="AR23" s="71"/>
-      <c r="AS23" s="71"/>
-      <c r="AT23" s="71"/>
-      <c r="AU23" s="71"/>
-      <c r="AV23" s="76"/>
-      <c r="AW23" s="76"/>
-      <c r="AX23" s="76"/>
-      <c r="AY23" s="76"/>
-      <c r="AZ23" s="69"/>
-      <c r="BA23" s="69"/>
-      <c r="BB23" s="69"/>
-      <c r="BC23" s="69"/>
-      <c r="BD23" s="69"/>
+      <c r="AR23" s="55"/>
+      <c r="AS23" s="55"/>
+      <c r="AT23" s="55"/>
+      <c r="AU23" s="55"/>
+      <c r="AV23" s="73"/>
+      <c r="AW23" s="73"/>
+      <c r="AX23" s="73"/>
+      <c r="AY23" s="73"/>
+      <c r="AZ23" s="72"/>
+      <c r="BA23" s="72"/>
+      <c r="BB23" s="72"/>
+      <c r="BC23" s="72"/>
+      <c r="BD23" s="72"/>
       <c r="BE23" s="23"/>
     </row>
     <row r="24" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="22">
         <v>18</v>
       </c>
-      <c r="B24" s="107"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="65"/>
-      <c r="P24" s="65"/>
-      <c r="Q24" s="65"/>
-      <c r="R24" s="66"/>
-      <c r="S24" s="86"/>
-      <c r="T24" s="87"/>
-      <c r="U24" s="87"/>
-      <c r="V24" s="87"/>
-      <c r="W24" s="87"/>
-      <c r="X24" s="87"/>
-      <c r="Y24" s="88"/>
-      <c r="Z24" s="89"/>
-      <c r="AA24" s="110"/>
-      <c r="AB24" s="90"/>
-      <c r="AC24" s="89"/>
-      <c r="AD24" s="90"/>
-      <c r="AE24" s="89"/>
-      <c r="AF24" s="90"/>
-      <c r="AG24" s="107"/>
-      <c r="AH24" s="108"/>
-      <c r="AI24" s="107"/>
-      <c r="AJ24" s="108"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="69"/>
+      <c r="P24" s="69"/>
+      <c r="Q24" s="69"/>
+      <c r="R24" s="70"/>
+      <c r="S24" s="60"/>
+      <c r="T24" s="61"/>
+      <c r="U24" s="61"/>
+      <c r="V24" s="61"/>
+      <c r="W24" s="61"/>
+      <c r="X24" s="61"/>
+      <c r="Y24" s="62"/>
+      <c r="Z24" s="58"/>
+      <c r="AA24" s="67"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="58"/>
+      <c r="AD24" s="59"/>
+      <c r="AE24" s="58"/>
+      <c r="AF24" s="59"/>
+      <c r="AG24" s="64"/>
+      <c r="AH24" s="65"/>
+      <c r="AI24" s="64"/>
+      <c r="AJ24" s="65"/>
       <c r="AK24" s="40"/>
       <c r="AL24" s="41"/>
       <c r="AM24" s="41"/>
@@ -3639,60 +3642,60 @@
       <c r="AO24" s="41"/>
       <c r="AP24" s="41"/>
       <c r="AQ24" s="42"/>
-      <c r="AR24" s="71"/>
-      <c r="AS24" s="71"/>
-      <c r="AT24" s="71"/>
-      <c r="AU24" s="71"/>
-      <c r="AV24" s="89"/>
-      <c r="AW24" s="90"/>
-      <c r="AX24" s="89"/>
-      <c r="AY24" s="90"/>
-      <c r="AZ24" s="86"/>
-      <c r="BA24" s="87"/>
-      <c r="BB24" s="87"/>
-      <c r="BC24" s="87"/>
-      <c r="BD24" s="88"/>
+      <c r="AR24" s="55"/>
+      <c r="AS24" s="55"/>
+      <c r="AT24" s="55"/>
+      <c r="AU24" s="55"/>
+      <c r="AV24" s="58"/>
+      <c r="AW24" s="59"/>
+      <c r="AX24" s="58"/>
+      <c r="AY24" s="59"/>
+      <c r="AZ24" s="60"/>
+      <c r="BA24" s="61"/>
+      <c r="BB24" s="61"/>
+      <c r="BC24" s="61"/>
+      <c r="BD24" s="62"/>
       <c r="BE24" s="23"/>
     </row>
     <row r="25" spans="1:62" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="22">
         <v>19</v>
       </c>
-      <c r="B25" s="107"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="65"/>
-      <c r="P25" s="65"/>
-      <c r="Q25" s="65"/>
-      <c r="R25" s="66"/>
-      <c r="S25" s="86"/>
-      <c r="T25" s="87"/>
-      <c r="U25" s="87"/>
-      <c r="V25" s="87"/>
-      <c r="W25" s="87"/>
-      <c r="X25" s="87"/>
-      <c r="Y25" s="88"/>
-      <c r="Z25" s="89"/>
-      <c r="AA25" s="110"/>
-      <c r="AB25" s="90"/>
-      <c r="AC25" s="89"/>
-      <c r="AD25" s="90"/>
-      <c r="AE25" s="89"/>
-      <c r="AF25" s="90"/>
-      <c r="AG25" s="107"/>
-      <c r="AH25" s="108"/>
-      <c r="AI25" s="107"/>
-      <c r="AJ25" s="108"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="69"/>
+      <c r="Q25" s="69"/>
+      <c r="R25" s="70"/>
+      <c r="S25" s="60"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="61"/>
+      <c r="V25" s="61"/>
+      <c r="W25" s="61"/>
+      <c r="X25" s="61"/>
+      <c r="Y25" s="62"/>
+      <c r="Z25" s="58"/>
+      <c r="AA25" s="67"/>
+      <c r="AB25" s="59"/>
+      <c r="AC25" s="58"/>
+      <c r="AD25" s="59"/>
+      <c r="AE25" s="58"/>
+      <c r="AF25" s="59"/>
+      <c r="AG25" s="64"/>
+      <c r="AH25" s="65"/>
+      <c r="AI25" s="64"/>
+      <c r="AJ25" s="65"/>
       <c r="AK25" s="40"/>
       <c r="AL25" s="41"/>
       <c r="AM25" s="41"/>
@@ -3700,60 +3703,60 @@
       <c r="AO25" s="41"/>
       <c r="AP25" s="41"/>
       <c r="AQ25" s="42"/>
-      <c r="AR25" s="71"/>
-      <c r="AS25" s="71"/>
-      <c r="AT25" s="71"/>
-      <c r="AU25" s="71"/>
-      <c r="AV25" s="89"/>
-      <c r="AW25" s="90"/>
-      <c r="AX25" s="89"/>
-      <c r="AY25" s="90"/>
-      <c r="AZ25" s="86"/>
-      <c r="BA25" s="87"/>
-      <c r="BB25" s="87"/>
-      <c r="BC25" s="87"/>
-      <c r="BD25" s="88"/>
+      <c r="AR25" s="55"/>
+      <c r="AS25" s="55"/>
+      <c r="AT25" s="55"/>
+      <c r="AU25" s="55"/>
+      <c r="AV25" s="58"/>
+      <c r="AW25" s="59"/>
+      <c r="AX25" s="58"/>
+      <c r="AY25" s="59"/>
+      <c r="AZ25" s="60"/>
+      <c r="BA25" s="61"/>
+      <c r="BB25" s="61"/>
+      <c r="BC25" s="61"/>
+      <c r="BD25" s="62"/>
       <c r="BE25" s="23"/>
     </row>
     <row r="26" spans="1:62" s="25" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="52">
         <v>20</v>
       </c>
-      <c r="B26" s="111"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="62"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="62"/>
-      <c r="R26" s="63"/>
-      <c r="S26" s="112"/>
-      <c r="T26" s="112"/>
-      <c r="U26" s="112"/>
-      <c r="V26" s="112"/>
-      <c r="W26" s="112"/>
-      <c r="X26" s="112"/>
-      <c r="Y26" s="112"/>
-      <c r="Z26" s="113"/>
-      <c r="AA26" s="113"/>
-      <c r="AB26" s="113"/>
-      <c r="AC26" s="113"/>
-      <c r="AD26" s="113"/>
-      <c r="AE26" s="113"/>
-      <c r="AF26" s="113"/>
-      <c r="AG26" s="111"/>
-      <c r="AH26" s="111"/>
-      <c r="AI26" s="111"/>
-      <c r="AJ26" s="111"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="107"/>
+      <c r="L26" s="107"/>
+      <c r="M26" s="107"/>
+      <c r="N26" s="107"/>
+      <c r="O26" s="107"/>
+      <c r="P26" s="107"/>
+      <c r="Q26" s="107"/>
+      <c r="R26" s="108"/>
+      <c r="S26" s="63"/>
+      <c r="T26" s="63"/>
+      <c r="U26" s="63"/>
+      <c r="V26" s="63"/>
+      <c r="W26" s="63"/>
+      <c r="X26" s="63"/>
+      <c r="Y26" s="63"/>
+      <c r="Z26" s="56"/>
+      <c r="AA26" s="56"/>
+      <c r="AB26" s="56"/>
+      <c r="AC26" s="56"/>
+      <c r="AD26" s="56"/>
+      <c r="AE26" s="56"/>
+      <c r="AF26" s="56"/>
+      <c r="AG26" s="57"/>
+      <c r="AH26" s="57"/>
+      <c r="AI26" s="57"/>
+      <c r="AJ26" s="57"/>
       <c r="AK26" s="43"/>
       <c r="AL26" s="44"/>
       <c r="AM26" s="44"/>
@@ -3761,19 +3764,19 @@
       <c r="AO26" s="44"/>
       <c r="AP26" s="44"/>
       <c r="AQ26" s="45"/>
-      <c r="AR26" s="71"/>
-      <c r="AS26" s="71"/>
-      <c r="AT26" s="71"/>
-      <c r="AU26" s="71"/>
-      <c r="AV26" s="113"/>
-      <c r="AW26" s="113"/>
-      <c r="AX26" s="113"/>
-      <c r="AY26" s="113"/>
-      <c r="AZ26" s="112"/>
-      <c r="BA26" s="112"/>
-      <c r="BB26" s="112"/>
-      <c r="BC26" s="112"/>
-      <c r="BD26" s="112"/>
+      <c r="AR26" s="55"/>
+      <c r="AS26" s="55"/>
+      <c r="AT26" s="55"/>
+      <c r="AU26" s="55"/>
+      <c r="AV26" s="56"/>
+      <c r="AW26" s="56"/>
+      <c r="AX26" s="56"/>
+      <c r="AY26" s="56"/>
+      <c r="AZ26" s="63"/>
+      <c r="BA26" s="63"/>
+      <c r="BB26" s="63"/>
+      <c r="BC26" s="63"/>
+      <c r="BD26" s="63"/>
       <c r="BE26" s="24"/>
     </row>
     <row r="27" spans="1:62" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4648,17 +4651,273 @@
     </row>
   </sheetData>
   <mergeCells count="302">
-    <mergeCell ref="AT26:AU26"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="AX26:AY26"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AR25:AS25"/>
-    <mergeCell ref="AT25:AU25"/>
-    <mergeCell ref="AV25:AW25"/>
-    <mergeCell ref="AX25:AY25"/>
+    <mergeCell ref="AY1:BD2"/>
+    <mergeCell ref="AR1:AW2"/>
+    <mergeCell ref="F26:R26"/>
+    <mergeCell ref="F20:R20"/>
+    <mergeCell ref="F21:R21"/>
+    <mergeCell ref="F22:R22"/>
+    <mergeCell ref="F23:R23"/>
+    <mergeCell ref="F16:R16"/>
+    <mergeCell ref="F17:R17"/>
+    <mergeCell ref="F18:R18"/>
+    <mergeCell ref="AX1:AX2"/>
+    <mergeCell ref="AZ9:BD9"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AR11:AS11"/>
+    <mergeCell ref="F5:R6"/>
+    <mergeCell ref="AX6:AY6"/>
+    <mergeCell ref="AR7:AS7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AT8:AU8"/>
+    <mergeCell ref="G4:R4"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="AK2:AP2"/>
+    <mergeCell ref="S5:Y5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="B5:E6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="S7:Y7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="AZ24:BD24"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AR14:AS14"/>
+    <mergeCell ref="AX16:AY16"/>
+    <mergeCell ref="AX19:AY19"/>
+    <mergeCell ref="AT20:AU20"/>
+    <mergeCell ref="AX24:AY24"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AT18:AU18"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AR19:AS19"/>
+    <mergeCell ref="AT19:AU19"/>
+    <mergeCell ref="AX11:AY11"/>
+    <mergeCell ref="AZ11:BD11"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AR10:AS10"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AR18:AS18"/>
+    <mergeCell ref="AV19:AW19"/>
+    <mergeCell ref="F19:R19"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="AX14:AY14"/>
+    <mergeCell ref="AR12:AS12"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AX12:AY12"/>
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="AZ12:BD12"/>
+    <mergeCell ref="AZ13:BD13"/>
+    <mergeCell ref="AT14:AU14"/>
+    <mergeCell ref="AR16:AS16"/>
+    <mergeCell ref="AT16:AU16"/>
+    <mergeCell ref="AV16:AW16"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AR9:AS9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="AX9:AY9"/>
+    <mergeCell ref="AT10:AU10"/>
+    <mergeCell ref="AV10:AW10"/>
+    <mergeCell ref="AX10:AY10"/>
+    <mergeCell ref="AZ10:BD10"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AR13:AS13"/>
+    <mergeCell ref="AT13:AU13"/>
+    <mergeCell ref="AV13:AW13"/>
+    <mergeCell ref="AX13:AY13"/>
+    <mergeCell ref="AZ21:BD21"/>
+    <mergeCell ref="AX23:AY23"/>
+    <mergeCell ref="AR20:AS20"/>
+    <mergeCell ref="AX22:AY22"/>
+    <mergeCell ref="AZ22:BD22"/>
+    <mergeCell ref="AV20:AW20"/>
+    <mergeCell ref="AX20:AY20"/>
+    <mergeCell ref="AZ23:BD23"/>
+    <mergeCell ref="AT23:AU23"/>
+    <mergeCell ref="AR21:AS21"/>
+    <mergeCell ref="AR22:AS22"/>
+    <mergeCell ref="AT22:AU22"/>
+    <mergeCell ref="AT21:AU21"/>
+    <mergeCell ref="AV21:AW21"/>
+    <mergeCell ref="AX21:AY21"/>
+    <mergeCell ref="AV22:AW22"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="F7:R7"/>
+    <mergeCell ref="AZ7:BD7"/>
+    <mergeCell ref="AT7:AU7"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AR4:AU4"/>
+    <mergeCell ref="AV4:AY4"/>
+    <mergeCell ref="AJ4:AQ4"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="AK1:AP1"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="Z5:AB6"/>
+    <mergeCell ref="S6:Y6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AR8:AS8"/>
+    <mergeCell ref="AZ4:BD6"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="AV8:AW8"/>
+    <mergeCell ref="AX8:AY8"/>
+    <mergeCell ref="AZ8:BD8"/>
+    <mergeCell ref="AX7:AY7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AT5:AU5"/>
+    <mergeCell ref="AT6:AU6"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="AR5:AS5"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="S10:Y10"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="S9:Y9"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="S8:Y8"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="F8:R8"/>
+    <mergeCell ref="F9:R9"/>
+    <mergeCell ref="F10:R10"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="S13:Y13"/>
+    <mergeCell ref="Z13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="S11:Y11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="S12:Y12"/>
+    <mergeCell ref="F12:R12"/>
+    <mergeCell ref="F13:R13"/>
+    <mergeCell ref="F11:R11"/>
+    <mergeCell ref="AZ14:BD14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="S15:Y15"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AR15:AS15"/>
+    <mergeCell ref="AT15:AU15"/>
+    <mergeCell ref="S14:Y14"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="Z14:AB14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AV15:AW15"/>
+    <mergeCell ref="AX15:AY15"/>
+    <mergeCell ref="F14:R14"/>
+    <mergeCell ref="F15:R15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="S17:Y17"/>
+    <mergeCell ref="Z17:AB17"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AZ15:BD15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="S16:Y16"/>
+    <mergeCell ref="Z16:AB16"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AR17:AS17"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="AV17:AW17"/>
+    <mergeCell ref="AX17:AY17"/>
+    <mergeCell ref="AZ17:BD17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AZ16:BD16"/>
+    <mergeCell ref="AZ19:BD19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="S20:Y20"/>
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AV18:AW18"/>
+    <mergeCell ref="AX18:AY18"/>
+    <mergeCell ref="AZ18:BD18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="S19:Y19"/>
+    <mergeCell ref="Z19:AB19"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="S18:Y18"/>
+    <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AZ20:BD20"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="S23:Y23"/>
+    <mergeCell ref="Z23:AB23"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AR23:AS23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="S21:Y21"/>
+    <mergeCell ref="Z21:AB21"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="S22:Y22"/>
+    <mergeCell ref="Z22:AB22"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI21:AJ21"/>
     <mergeCell ref="AZ25:BD25"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="S26:Y26"/>
@@ -4683,273 +4942,17 @@
     <mergeCell ref="AE24:AF24"/>
     <mergeCell ref="AT24:AU24"/>
     <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="S23:Y23"/>
-    <mergeCell ref="Z23:AB23"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AR23:AS23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="S21:Y21"/>
-    <mergeCell ref="Z21:AB21"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AZ19:BD19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="S20:Y20"/>
-    <mergeCell ref="Z20:AB20"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AV18:AW18"/>
-    <mergeCell ref="AX18:AY18"/>
-    <mergeCell ref="AZ18:BD18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="S19:Y19"/>
-    <mergeCell ref="Z19:AB19"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="S18:Y18"/>
-    <mergeCell ref="Z18:AB18"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AZ20:BD20"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="S17:Y17"/>
-    <mergeCell ref="Z17:AB17"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AZ15:BD15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="S16:Y16"/>
-    <mergeCell ref="Z16:AB16"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AR17:AS17"/>
-    <mergeCell ref="AT17:AU17"/>
-    <mergeCell ref="AV17:AW17"/>
-    <mergeCell ref="AX17:AY17"/>
-    <mergeCell ref="AZ17:BD17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AZ16:BD16"/>
-    <mergeCell ref="AZ14:BD14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="S15:Y15"/>
-    <mergeCell ref="Z15:AB15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AR15:AS15"/>
-    <mergeCell ref="AT15:AU15"/>
-    <mergeCell ref="S14:Y14"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="Z14:AB14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AV15:AW15"/>
-    <mergeCell ref="AX15:AY15"/>
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="S13:Y13"/>
-    <mergeCell ref="Z13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="S11:Y11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="S12:Y12"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="S10:Y10"/>
-    <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="S9:Y9"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="S8:Y8"/>
-    <mergeCell ref="Z8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="F8:R8"/>
-    <mergeCell ref="F9:R9"/>
-    <mergeCell ref="F10:R10"/>
-    <mergeCell ref="AR8:AS8"/>
-    <mergeCell ref="AZ4:BD6"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="AV8:AW8"/>
-    <mergeCell ref="AX8:AY8"/>
-    <mergeCell ref="AZ8:BD8"/>
-    <mergeCell ref="AX7:AY7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AT5:AU5"/>
-    <mergeCell ref="AT6:AU6"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="AR5:AS5"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AQ1:AQ2"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="F7:R7"/>
-    <mergeCell ref="AZ7:BD7"/>
-    <mergeCell ref="AT7:AU7"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AR4:AU4"/>
-    <mergeCell ref="AV4:AY4"/>
-    <mergeCell ref="AJ4:AQ4"/>
-    <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="AK1:AP1"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="Z5:AB6"/>
-    <mergeCell ref="S6:Y6"/>
-    <mergeCell ref="AZ21:BD21"/>
-    <mergeCell ref="AX23:AY23"/>
-    <mergeCell ref="AR20:AS20"/>
-    <mergeCell ref="AX22:AY22"/>
-    <mergeCell ref="AZ22:BD22"/>
-    <mergeCell ref="AV20:AW20"/>
-    <mergeCell ref="AX20:AY20"/>
-    <mergeCell ref="AZ23:BD23"/>
-    <mergeCell ref="AT23:AU23"/>
-    <mergeCell ref="AR21:AS21"/>
-    <mergeCell ref="AZ12:BD12"/>
-    <mergeCell ref="AZ13:BD13"/>
-    <mergeCell ref="AT14:AU14"/>
-    <mergeCell ref="AR16:AS16"/>
-    <mergeCell ref="AT16:AU16"/>
-    <mergeCell ref="AV16:AW16"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AR9:AS9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="AX9:AY9"/>
-    <mergeCell ref="AT10:AU10"/>
-    <mergeCell ref="AV10:AW10"/>
-    <mergeCell ref="AX10:AY10"/>
-    <mergeCell ref="AZ10:BD10"/>
-    <mergeCell ref="AT11:AU11"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AR13:AS13"/>
-    <mergeCell ref="AT13:AU13"/>
-    <mergeCell ref="AV13:AW13"/>
-    <mergeCell ref="AX13:AY13"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AR22:AS22"/>
-    <mergeCell ref="AT22:AU22"/>
-    <mergeCell ref="S22:Y22"/>
-    <mergeCell ref="Z22:AB22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="F12:R12"/>
-    <mergeCell ref="F13:R13"/>
-    <mergeCell ref="F14:R14"/>
-    <mergeCell ref="F15:R15"/>
-    <mergeCell ref="AT21:AU21"/>
-    <mergeCell ref="AV21:AW21"/>
-    <mergeCell ref="AX21:AY21"/>
-    <mergeCell ref="AV22:AW22"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AR18:AS18"/>
-    <mergeCell ref="AV19:AW19"/>
-    <mergeCell ref="F19:R19"/>
-    <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="AX14:AY14"/>
-    <mergeCell ref="AR12:AS12"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AX12:AY12"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="F11:R11"/>
-    <mergeCell ref="AZ24:BD24"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AR14:AS14"/>
-    <mergeCell ref="AX16:AY16"/>
-    <mergeCell ref="AX19:AY19"/>
-    <mergeCell ref="AT20:AU20"/>
-    <mergeCell ref="AX24:AY24"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AT18:AU18"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AR19:AS19"/>
-    <mergeCell ref="AT19:AU19"/>
-    <mergeCell ref="AX11:AY11"/>
-    <mergeCell ref="AZ11:BD11"/>
-    <mergeCell ref="Z12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AR10:AS10"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="S5:Y5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="B5:E6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="S7:Y7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="AY1:BD2"/>
-    <mergeCell ref="AR1:AW2"/>
-    <mergeCell ref="F26:R26"/>
-    <mergeCell ref="F20:R20"/>
-    <mergeCell ref="F21:R21"/>
-    <mergeCell ref="F22:R22"/>
-    <mergeCell ref="F23:R23"/>
-    <mergeCell ref="F16:R16"/>
-    <mergeCell ref="F17:R17"/>
-    <mergeCell ref="F18:R18"/>
-    <mergeCell ref="AX1:AX2"/>
-    <mergeCell ref="AZ9:BD9"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AR11:AS11"/>
-    <mergeCell ref="F5:R6"/>
-    <mergeCell ref="AX6:AY6"/>
-    <mergeCell ref="AR7:AS7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AT8:AU8"/>
-    <mergeCell ref="G4:R4"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="AK2:AP2"/>
+    <mergeCell ref="AT26:AU26"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="AX26:AY26"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AR25:AS25"/>
+    <mergeCell ref="AT25:AU25"/>
+    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="AX25:AY25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
@@ -4957,7 +4960,7 @@
     <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:X2 AR1 AK7:AQ26 F7:R26 AZ7:BD26 AY1"/>
   </dataValidations>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0" header="0" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;R&amp;"Arial,標準"&amp;8©&amp;"ＭＳ Ｐゴシック,標準"　富士通ラーニングメディア</oddFooter>
   </headerFooter>
